--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="305">
   <si>
     <t>League</t>
   </si>
@@ -604,6 +604,9 @@
     <t>1.227942121</t>
   </si>
   <si>
+    <t>1.227957658</t>
+  </si>
+  <si>
     <t>1.227919615</t>
   </si>
   <si>
@@ -655,6 +658,9 @@
     <t>1.227671641</t>
   </si>
   <si>
+    <t>1.227809527</t>
+  </si>
+  <si>
     <t>1.227885187</t>
   </si>
   <si>
@@ -748,12 +754,60 @@
     <t>1.227885176</t>
   </si>
   <si>
+    <t>1.227933426</t>
+  </si>
+  <si>
+    <t>1.227945803</t>
+  </si>
+  <si>
+    <t>1.227948241</t>
+  </si>
+  <si>
+    <t>1.227948693</t>
+  </si>
+  <si>
+    <t>1.227955948</t>
+  </si>
+  <si>
+    <t>1.227614951</t>
+  </si>
+  <si>
+    <t>1.227942557</t>
+  </si>
+  <si>
+    <t>1.227928917</t>
+  </si>
+  <si>
+    <t>1.227942011</t>
+  </si>
+  <si>
+    <t>1.227942228</t>
+  </si>
+  <si>
+    <t>1.227942120</t>
+  </si>
+  <si>
+    <t>1.227957742</t>
+  </si>
+  <si>
     <t>1.227919614</t>
   </si>
   <si>
     <t>1.227885230</t>
   </si>
   <si>
+    <t>1.227942857</t>
+  </si>
+  <si>
+    <t>1.227948151</t>
+  </si>
+  <si>
+    <t>1.227933516</t>
+  </si>
+  <si>
+    <t>1.227615491</t>
+  </si>
+  <si>
     <t>1.227568340</t>
   </si>
   <si>
@@ -790,10 +844,58 @@
     <t>1.227885186</t>
   </si>
   <si>
+    <t>1.227933351</t>
+  </si>
+  <si>
+    <t>1.227945728</t>
+  </si>
+  <si>
+    <t>1.227948166</t>
+  </si>
+  <si>
+    <t>1.227948618</t>
+  </si>
+  <si>
+    <t>1.227955873</t>
+  </si>
+  <si>
+    <t>1.227614961</t>
+  </si>
+  <si>
+    <t>1.227942567</t>
+  </si>
+  <si>
+    <t>1.227928927</t>
+  </si>
+  <si>
+    <t>1.227942021</t>
+  </si>
+  <si>
+    <t>1.227942238</t>
+  </si>
+  <si>
+    <t>1.227942130</t>
+  </si>
+  <si>
+    <t>1.227957667</t>
+  </si>
+  <si>
     <t>1.227919624</t>
   </si>
   <si>
     <t>1.227885240</t>
+  </si>
+  <si>
+    <t>1.227942867</t>
+  </si>
+  <si>
+    <t>1.227948076</t>
+  </si>
+  <si>
+    <t>1.227933441</t>
+  </si>
+  <si>
+    <t>1.227615501</t>
   </si>
   <si>
     <t>1.227568351</t>
@@ -1404,34 +1506,34 @@
         <v>121</v>
       </c>
       <c r="F2">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="G2">
-        <v>2.84</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>1.69</v>
+        <v>3.15</v>
       </c>
       <c r="I2">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="J2">
-        <v>2.94</v>
+        <v>2.58</v>
       </c>
       <c r="K2">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1574,8 +1676,8 @@
       <c r="BJ2" t="s">
         <v>183</v>
       </c>
-      <c r="BK2">
-        <v>0</v>
+      <c r="BK2" t="s">
+        <v>214</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -1601,157 +1703,157 @@
         <v>122</v>
       </c>
       <c r="F3">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
+        <v>3.7</v>
+      </c>
+      <c r="J3">
+        <v>3.4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2.26</v>
+      </c>
+      <c r="N3">
+        <v>1.8</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1.67</v>
+      </c>
+      <c r="Q3">
+        <v>1.9</v>
+      </c>
+      <c r="R3">
+        <v>2.1</v>
+      </c>
+      <c r="S3">
+        <v>2.48</v>
+      </c>
+      <c r="T3">
+        <v>12.5</v>
+      </c>
+      <c r="U3">
+        <v>17</v>
+      </c>
+      <c r="V3">
+        <v>12</v>
+      </c>
+      <c r="W3">
+        <v>980</v>
+      </c>
+      <c r="X3">
+        <v>5.6</v>
+      </c>
+      <c r="Y3">
+        <v>980</v>
+      </c>
+      <c r="Z3">
+        <v>6.4</v>
+      </c>
+      <c r="AA3">
+        <v>980</v>
+      </c>
+      <c r="AB3">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>12</v>
+      </c>
+      <c r="AD3">
+        <v>7.2</v>
+      </c>
+      <c r="AE3">
+        <v>9.4</v>
+      </c>
+      <c r="AF3">
+        <v>12</v>
+      </c>
+      <c r="AG3">
+        <v>16</v>
+      </c>
+      <c r="AH3">
+        <v>6</v>
+      </c>
+      <c r="AI3">
+        <v>980</v>
+      </c>
+      <c r="AJ3">
+        <v>12</v>
+      </c>
+      <c r="AK3">
+        <v>16</v>
+      </c>
+      <c r="AL3">
+        <v>9</v>
+      </c>
+      <c r="AM3">
+        <v>12</v>
+      </c>
+      <c r="AN3">
+        <v>14.5</v>
+      </c>
+      <c r="AO3">
+        <v>980</v>
+      </c>
+      <c r="AP3">
+        <v>6.2</v>
+      </c>
+      <c r="AQ3">
+        <v>980</v>
+      </c>
+      <c r="AR3">
         <v>5.8</v>
       </c>
-      <c r="J3">
-        <v>2.96</v>
-      </c>
-      <c r="K3">
-        <v>950</v>
-      </c>
-      <c r="L3">
-        <v>1.51</v>
-      </c>
-      <c r="M3">
-        <v>2.28</v>
-      </c>
-      <c r="N3">
-        <v>1.79</v>
-      </c>
-      <c r="O3">
-        <v>2.96</v>
-      </c>
-      <c r="P3">
-        <v>1.01</v>
-      </c>
-      <c r="Q3">
-        <v>1000</v>
-      </c>
-      <c r="R3">
-        <v>1.01</v>
-      </c>
-      <c r="S3">
-        <v>1000</v>
-      </c>
-      <c r="T3">
-        <v>1.01</v>
-      </c>
-      <c r="U3">
-        <v>1000</v>
-      </c>
-      <c r="V3">
-        <v>1.01</v>
-      </c>
-      <c r="W3">
-        <v>1000</v>
-      </c>
-      <c r="X3">
-        <v>1.01</v>
-      </c>
-      <c r="Y3">
-        <v>1000</v>
-      </c>
-      <c r="Z3">
-        <v>1.01</v>
-      </c>
-      <c r="AA3">
-        <v>1000</v>
-      </c>
-      <c r="AB3">
-        <v>1.01</v>
-      </c>
-      <c r="AC3">
-        <v>1000</v>
-      </c>
-      <c r="AD3">
-        <v>1.01</v>
-      </c>
-      <c r="AE3">
-        <v>1000</v>
-      </c>
-      <c r="AF3">
-        <v>1.01</v>
-      </c>
-      <c r="AG3">
-        <v>1000</v>
-      </c>
-      <c r="AH3">
-        <v>1.01</v>
-      </c>
-      <c r="AI3">
-        <v>1000</v>
-      </c>
-      <c r="AJ3">
-        <v>1.01</v>
-      </c>
-      <c r="AK3">
-        <v>1000</v>
-      </c>
-      <c r="AL3">
-        <v>1.01</v>
-      </c>
-      <c r="AM3">
-        <v>1000</v>
-      </c>
-      <c r="AN3">
-        <v>1.01</v>
-      </c>
-      <c r="AO3">
-        <v>1000</v>
-      </c>
-      <c r="AP3">
-        <v>1.01</v>
-      </c>
-      <c r="AQ3">
-        <v>1000</v>
-      </c>
-      <c r="AR3">
-        <v>1.01</v>
-      </c>
       <c r="AS3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT3">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="AU3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV3">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AW3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX3">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AY3">
         <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BA3">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="BB3">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BC3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD3">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1772,13 +1874,13 @@
         <v>184</v>
       </c>
       <c r="BK3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BL3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BM3" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1798,160 +1900,160 @@
         <v>123</v>
       </c>
       <c r="F4">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="G4">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="H4">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I4">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="J4">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="K4">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="L4">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="M4">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="N4">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4" t="s">
         <v>154</v>
@@ -1969,13 +2071,13 @@
         <v>185</v>
       </c>
       <c r="BK4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1995,160 +2097,160 @@
         <v>124</v>
       </c>
       <c r="F5">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G5">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I5">
+        <v>2.22</v>
+      </c>
+      <c r="J5">
+        <v>3.85</v>
+      </c>
+      <c r="K5">
+        <v>4.7</v>
+      </c>
+      <c r="L5">
         <v>2.34</v>
       </c>
-      <c r="J5">
+      <c r="M5">
+        <v>2.68</v>
+      </c>
+      <c r="N5">
+        <v>1.62</v>
+      </c>
+      <c r="O5">
+        <v>1.74</v>
+      </c>
+      <c r="P5">
+        <v>1.59</v>
+      </c>
+      <c r="Q5">
+        <v>1.69</v>
+      </c>
+      <c r="R5">
+        <v>2.44</v>
+      </c>
+      <c r="S5">
+        <v>2.7</v>
+      </c>
+      <c r="T5">
         <v>3.75</v>
       </c>
-      <c r="K5">
-        <v>5.1</v>
-      </c>
-      <c r="L5">
-        <v>2.24</v>
-      </c>
-      <c r="M5">
-        <v>2.6</v>
-      </c>
-      <c r="N5">
-        <v>1.63</v>
-      </c>
-      <c r="O5">
-        <v>1.81</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5" t="s">
         <v>155</v>
@@ -2166,13 +2268,13 @@
         <v>186</v>
       </c>
       <c r="BK5" t="s">
-        <v>215</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2192,160 +2294,160 @@
         <v>125</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G6">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="H6">
-        <v>1.76</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="J6">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="K6">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="L6">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="M6">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="N6">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O6">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6" t="s">
         <v>156</v>
@@ -2363,13 +2465,13 @@
         <v>187</v>
       </c>
       <c r="BK6" t="s">
-        <v>216</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2389,160 +2491,160 @@
         <v>126</v>
       </c>
       <c r="F7">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="G7">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="H7">
-        <v>1.05</v>
+        <v>4.7</v>
       </c>
       <c r="I7">
-        <v>980</v>
+        <v>5.8</v>
       </c>
       <c r="J7">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="K7">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L7">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="M7">
         <v>2.16</v>
       </c>
       <c r="N7">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O7">
         <v>2.18</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF7" t="s">
         <v>157</v>
@@ -2560,13 +2662,13 @@
         <v>188</v>
       </c>
       <c r="BK7" t="s">
-        <v>217</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2586,160 +2688,160 @@
         <v>127</v>
       </c>
       <c r="F8">
-        <v>1.21</v>
+        <v>1.79</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H8">
-        <v>1.04</v>
+        <v>2.74</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J8">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="K8">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L8">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="M8">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8" t="s">
         <v>158</v>
@@ -2757,13 +2859,13 @@
         <v>189</v>
       </c>
       <c r="BK8" t="s">
-        <v>218</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2783,160 +2885,160 @@
         <v>128</v>
       </c>
       <c r="F9">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
         <v>8.800000000000001</v>
       </c>
       <c r="H9">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I9">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="J9">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="K9">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N9">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="O9">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BF9" t="s">
         <v>159</v>
@@ -2954,13 +3056,13 @@
         <v>190</v>
       </c>
       <c r="BK9" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2980,7 +3082,7 @@
         <v>129</v>
       </c>
       <c r="F10">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>4.6</v>
@@ -2992,148 +3094,148 @@
         <v>2.02</v>
       </c>
       <c r="J10">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K10">
+        <v>3.85</v>
+      </c>
+      <c r="L10">
+        <v>1.86</v>
+      </c>
+      <c r="M10">
+        <v>2.1</v>
+      </c>
+      <c r="N10">
+        <v>1.9</v>
+      </c>
+      <c r="O10">
+        <v>2.18</v>
+      </c>
+      <c r="P10">
+        <v>1.83</v>
+      </c>
+      <c r="Q10">
+        <v>1.99</v>
+      </c>
+      <c r="R10">
+        <v>2.02</v>
+      </c>
+      <c r="S10">
+        <v>2.22</v>
+      </c>
+      <c r="T10">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>16.5</v>
+      </c>
+      <c r="V10">
+        <v>6.8</v>
+      </c>
+      <c r="W10">
+        <v>11</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>14.5</v>
+      </c>
+      <c r="Z10">
+        <v>18.5</v>
+      </c>
+      <c r="AA10">
+        <v>28</v>
+      </c>
+      <c r="AB10">
+        <v>12.5</v>
+      </c>
+      <c r="AC10">
+        <v>18.5</v>
+      </c>
+      <c r="AD10">
+        <v>7.4</v>
+      </c>
+      <c r="AE10">
+        <v>10.5</v>
+      </c>
+      <c r="AF10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>13</v>
+      </c>
+      <c r="AH10">
+        <v>18</v>
+      </c>
+      <c r="AI10">
+        <v>27</v>
+      </c>
+      <c r="AJ10">
+        <v>25</v>
+      </c>
+      <c r="AK10">
+        <v>38</v>
+      </c>
+      <c r="AL10">
+        <v>14</v>
+      </c>
+      <c r="AM10">
+        <v>21</v>
+      </c>
+      <c r="AN10">
+        <v>16</v>
+      </c>
+      <c r="AO10">
+        <v>24</v>
+      </c>
+      <c r="AP10">
+        <v>29</v>
+      </c>
+      <c r="AQ10">
+        <v>48</v>
+      </c>
+      <c r="AR10">
+        <v>4.2</v>
+      </c>
+      <c r="AS10">
+        <v>110</v>
+      </c>
+      <c r="AT10">
+        <v>4.2</v>
+      </c>
+      <c r="AU10">
+        <v>65</v>
+      </c>
+      <c r="AV10">
+        <v>4.1</v>
+      </c>
+      <c r="AW10">
+        <v>75</v>
+      </c>
+      <c r="AX10">
+        <v>4.2</v>
+      </c>
+      <c r="AY10">
+        <v>140</v>
+      </c>
+      <c r="AZ10">
+        <v>4.1</v>
+      </c>
+      <c r="BA10">
+        <v>70</v>
+      </c>
+      <c r="BB10">
+        <v>3.5</v>
+      </c>
+      <c r="BC10">
+        <v>18</v>
+      </c>
+      <c r="BD10">
         <v>4.3</v>
       </c>
-      <c r="L10">
-        <v>1.91</v>
-      </c>
-      <c r="M10">
-        <v>2.04</v>
-      </c>
-      <c r="N10">
-        <v>1.98</v>
-      </c>
-      <c r="O10">
-        <v>2.1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF10" t="s">
         <v>160</v>
@@ -3151,13 +3253,13 @@
         <v>191</v>
       </c>
       <c r="BK10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>252</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3183,154 +3285,154 @@
         <v>3.8</v>
       </c>
       <c r="H11">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="I11">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="J11">
         <v>3.55</v>
       </c>
       <c r="K11">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L11">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="M11">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="N11">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O11">
         <v>2.06</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BF11" t="s">
         <v>161</v>
@@ -3348,13 +3450,13 @@
         <v>192</v>
       </c>
       <c r="BK11" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3374,160 +3476,160 @@
         <v>131</v>
       </c>
       <c r="F12">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="G12">
+        <v>2.52</v>
+      </c>
+      <c r="H12">
+        <v>3.1</v>
+      </c>
+      <c r="I12">
+        <v>3.35</v>
+      </c>
+      <c r="J12">
+        <v>3.45</v>
+      </c>
+      <c r="K12">
+        <v>3.6</v>
+      </c>
+      <c r="L12">
+        <v>1.71</v>
+      </c>
+      <c r="M12">
+        <v>1.8</v>
+      </c>
+      <c r="N12">
+        <v>2.26</v>
+      </c>
+      <c r="O12">
         <v>2.4</v>
       </c>
-      <c r="H12">
-        <v>1.92</v>
-      </c>
-      <c r="I12">
-        <v>3.5</v>
-      </c>
-      <c r="J12">
-        <v>3.35</v>
-      </c>
-      <c r="K12">
-        <v>1000</v>
-      </c>
-      <c r="L12">
-        <v>1.27</v>
-      </c>
-      <c r="M12">
-        <v>1000</v>
-      </c>
-      <c r="N12">
-        <v>1.01</v>
-      </c>
-      <c r="O12">
-        <v>4.6</v>
-      </c>
       <c r="P12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AZ12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BE12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF12" t="s">
         <v>162</v>
@@ -3545,13 +3647,13 @@
         <v>193</v>
       </c>
       <c r="BK12" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3571,160 +3673,160 @@
         <v>132</v>
       </c>
       <c r="F13">
-        <v>1.31</v>
+        <v>2.38</v>
       </c>
       <c r="G13">
-        <v>980</v>
+        <v>2.48</v>
       </c>
       <c r="H13">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>9.800000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="J13">
-        <v>1.48</v>
+        <v>3.3</v>
       </c>
       <c r="K13">
-        <v>940</v>
+        <v>3.6</v>
       </c>
       <c r="L13">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="M13">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="N13">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="O13">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF13" t="s">
         <v>163</v>
@@ -3742,13 +3844,13 @@
         <v>194</v>
       </c>
       <c r="BK13" t="s">
-        <v>223</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3768,160 +3870,160 @@
         <v>133</v>
       </c>
       <c r="F14">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G14">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H14">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I14">
         <v>2.3</v>
       </c>
       <c r="J14">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K14">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L14">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M14">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="N14">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BF14" t="s">
         <v>164</v>
@@ -3939,13 +4041,13 @@
         <v>195</v>
       </c>
       <c r="BK14" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>256</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -3965,184 +4067,184 @@
         <v>134</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L15">
-        <v>1.27</v>
+        <v>1.56</v>
       </c>
       <c r="M15">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="N15">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="O15">
-        <v>4.6</v>
+        <v>2.78</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF15" t="s">
         <v>165</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>191603</v>
       </c>
       <c r="BH15">
-        <v>0</v>
+        <v>505984</v>
       </c>
       <c r="BI15">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>196</v>
       </c>
       <c r="BK15" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4162,157 +4264,157 @@
         <v>135</v>
       </c>
       <c r="F16">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="G16">
+        <v>2.12</v>
+      </c>
+      <c r="H16">
+        <v>3.45</v>
+      </c>
+      <c r="I16">
+        <v>4.1</v>
+      </c>
+      <c r="J16">
+        <v>3.75</v>
+      </c>
+      <c r="K16">
+        <v>4.2</v>
+      </c>
+      <c r="L16">
+        <v>2.22</v>
+      </c>
+      <c r="M16">
+        <v>2.42</v>
+      </c>
+      <c r="N16">
+        <v>1.7</v>
+      </c>
+      <c r="O16">
+        <v>1.81</v>
+      </c>
+      <c r="P16">
+        <v>1.65</v>
+      </c>
+      <c r="Q16">
+        <v>1.75</v>
+      </c>
+      <c r="R16">
         <v>2.32</v>
       </c>
-      <c r="H16">
-        <v>2.22</v>
-      </c>
-      <c r="I16">
+      <c r="S16">
+        <v>2.52</v>
+      </c>
+      <c r="T16">
+        <v>5.3</v>
+      </c>
+      <c r="U16">
+        <v>21</v>
+      </c>
+      <c r="V16">
+        <v>5.2</v>
+      </c>
+      <c r="W16">
+        <v>19</v>
+      </c>
+      <c r="X16">
+        <v>5.8</v>
+      </c>
+      <c r="Y16">
+        <v>980</v>
+      </c>
+      <c r="Z16">
+        <v>6.4</v>
+      </c>
+      <c r="AA16">
+        <v>980</v>
+      </c>
+      <c r="AB16">
         <v>10.5</v>
       </c>
-      <c r="J16">
-        <v>2.92</v>
-      </c>
-      <c r="K16">
-        <v>980</v>
-      </c>
-      <c r="L16">
-        <v>1.81</v>
-      </c>
-      <c r="M16">
-        <v>3.05</v>
-      </c>
-      <c r="N16">
-        <v>1.49</v>
-      </c>
-      <c r="O16">
-        <v>2.22</v>
-      </c>
-      <c r="P16">
-        <v>1.01</v>
-      </c>
-      <c r="Q16">
-        <v>1000</v>
-      </c>
-      <c r="R16">
-        <v>1.01</v>
-      </c>
-      <c r="S16">
-        <v>1000</v>
-      </c>
-      <c r="T16">
-        <v>1.44</v>
-      </c>
-      <c r="U16">
-        <v>1000</v>
-      </c>
-      <c r="V16">
-        <v>1.13</v>
-      </c>
-      <c r="W16">
-        <v>1000</v>
-      </c>
-      <c r="X16">
-        <v>1.13</v>
-      </c>
-      <c r="Y16">
-        <v>1000</v>
-      </c>
-      <c r="Z16">
-        <v>1.13</v>
-      </c>
-      <c r="AA16">
-        <v>1000</v>
-      </c>
-      <c r="AB16">
-        <v>2.98</v>
-      </c>
       <c r="AC16">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD16">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AE16">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AF16">
-        <v>1.13</v>
+        <v>5</v>
       </c>
       <c r="AG16">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH16">
-        <v>1.13</v>
+        <v>6</v>
       </c>
       <c r="AI16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ16">
-        <v>1.13</v>
+        <v>4.9</v>
       </c>
       <c r="AK16">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL16">
-        <v>1.13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM16">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AN16">
-        <v>1.13</v>
+        <v>5.1</v>
       </c>
       <c r="AO16">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AP16">
-        <v>16.5</v>
+        <v>6.2</v>
       </c>
       <c r="AQ16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR16">
-        <v>1.13</v>
+        <v>5.6</v>
       </c>
       <c r="AS16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT16">
-        <v>1.13</v>
+        <v>5.4</v>
       </c>
       <c r="AU16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV16">
-        <v>1.13</v>
+        <v>5.9</v>
       </c>
       <c r="AW16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX16">
-        <v>1.13</v>
+        <v>6.6</v>
       </c>
       <c r="AY16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ16">
-        <v>1.13</v>
+        <v>4.4</v>
       </c>
       <c r="BA16">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="BB16">
-        <v>1.13</v>
+        <v>5.9</v>
       </c>
       <c r="BC16">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD16">
-        <v>1.13</v>
+        <v>7</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4330,16 +4432,16 @@
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BK16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BL16" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="BM16" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4359,157 +4461,157 @@
         <v>136</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G17">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="H17">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="I17">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="J17">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L17">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="M17">
-        <v>4.5</v>
+        <v>2.72</v>
       </c>
       <c r="N17">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="O17">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="P17">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="Q17">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="R17">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="S17">
-        <v>1000</v>
+        <v>1.92</v>
       </c>
       <c r="T17">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="U17">
         <v>980</v>
       </c>
       <c r="V17">
+        <v>8.4</v>
+      </c>
+      <c r="W17">
+        <v>10.5</v>
+      </c>
+      <c r="X17">
+        <v>6.8</v>
+      </c>
+      <c r="Y17">
+        <v>980</v>
+      </c>
+      <c r="Z17">
         <v>8.6</v>
       </c>
-      <c r="W17">
+      <c r="AA17">
         <v>11.5</v>
       </c>
-      <c r="X17">
-        <v>7.2</v>
-      </c>
-      <c r="Y17">
-        <v>9.6</v>
-      </c>
-      <c r="Z17">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA17">
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
+        <v>980</v>
+      </c>
+      <c r="AD17">
         <v>12</v>
       </c>
-      <c r="AB17">
-        <v>6.2</v>
-      </c>
-      <c r="AC17">
-        <v>980</v>
-      </c>
-      <c r="AD17">
-        <v>11.5</v>
-      </c>
       <c r="AE17">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AF17">
-        <v>8.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="AG17">
         <v>12</v>
       </c>
       <c r="AH17">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="AI17">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AJ17">
+        <v>7.8</v>
+      </c>
+      <c r="AK17">
+        <v>980</v>
+      </c>
+      <c r="AL17">
+        <v>7</v>
+      </c>
+      <c r="AM17">
+        <v>980</v>
+      </c>
+      <c r="AN17">
         <v>6.8</v>
       </c>
-      <c r="AK17">
-        <v>980</v>
-      </c>
-      <c r="AL17">
-        <v>6.2</v>
-      </c>
-      <c r="AM17">
-        <v>980</v>
-      </c>
-      <c r="AN17">
-        <v>5.9</v>
-      </c>
       <c r="AO17">
         <v>980</v>
       </c>
       <c r="AP17">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AQ17">
         <v>980</v>
       </c>
       <c r="AR17">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AS17">
         <v>1000</v>
       </c>
       <c r="AT17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU17">
         <v>980</v>
       </c>
       <c r="AV17">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AW17">
         <v>980</v>
       </c>
       <c r="AX17">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AY17">
         <v>980</v>
       </c>
       <c r="AZ17">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="BA17">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB17">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="BC17">
         <v>4.9</v>
       </c>
       <c r="BD17">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4527,16 +4629,16 @@
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BK17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BL17" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="BM17" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4556,160 +4658,160 @@
         <v>137</v>
       </c>
       <c r="F18">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="G18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H18">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I18">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="J18">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K18">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L18">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="M18">
+        <v>2.12</v>
+      </c>
+      <c r="N18">
+        <v>1.9</v>
+      </c>
+      <c r="O18">
         <v>2.1</v>
       </c>
-      <c r="N18">
-        <v>1.91</v>
-      </c>
-      <c r="O18">
-        <v>2.12</v>
-      </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BF18" t="s">
         <v>168</v>
@@ -4724,16 +4826,16 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BK18" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>260</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4753,160 +4855,160 @@
         <v>138</v>
       </c>
       <c r="F19">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="G19">
-        <v>11.5</v>
+        <v>2.12</v>
       </c>
       <c r="H19">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="I19">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="J19">
+        <v>3.25</v>
+      </c>
+      <c r="K19">
+        <v>6.6</v>
+      </c>
+      <c r="L19">
+        <v>1.65</v>
+      </c>
+      <c r="M19">
+        <v>2.2</v>
+      </c>
+      <c r="N19">
+        <v>1.83</v>
+      </c>
+      <c r="O19">
+        <v>2.52</v>
+      </c>
+      <c r="P19">
+        <v>1.57</v>
+      </c>
+      <c r="Q19">
+        <v>2.6</v>
+      </c>
+      <c r="R19">
+        <v>1.63</v>
+      </c>
+      <c r="S19">
+        <v>2.76</v>
+      </c>
+      <c r="T19">
         <v>1.03</v>
       </c>
-      <c r="K19">
-        <v>980</v>
-      </c>
-      <c r="L19">
-        <v>1.27</v>
-      </c>
-      <c r="M19">
-        <v>2.1</v>
-      </c>
-      <c r="N19">
-        <v>1.9</v>
-      </c>
-      <c r="O19">
-        <v>4.6</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
       <c r="U19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF19" t="s">
         <v>169</v>
@@ -4921,16 +5023,16 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BK19" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4950,160 +5052,160 @@
         <v>139</v>
       </c>
       <c r="F20">
+        <v>2.46</v>
+      </c>
+      <c r="G20">
+        <v>2.6</v>
+      </c>
+      <c r="H20">
+        <v>3.05</v>
+      </c>
+      <c r="I20">
+        <v>3.6</v>
+      </c>
+      <c r="J20">
+        <v>3.2</v>
+      </c>
+      <c r="K20">
+        <v>3.45</v>
+      </c>
+      <c r="L20">
+        <v>1.53</v>
+      </c>
+      <c r="M20">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.51</v>
+      </c>
+      <c r="O20">
+        <v>2.9</v>
+      </c>
+      <c r="P20">
+        <v>1.37</v>
+      </c>
+      <c r="Q20">
+        <v>2.4</v>
+      </c>
+      <c r="R20">
+        <v>1.72</v>
+      </c>
+      <c r="S20">
+        <v>1000</v>
+      </c>
+      <c r="T20">
+        <v>3.05</v>
+      </c>
+      <c r="U20">
+        <v>980</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <v>980</v>
+      </c>
+      <c r="X20">
+        <v>1.21</v>
+      </c>
+      <c r="Y20">
+        <v>980</v>
+      </c>
+      <c r="Z20">
+        <v>1.27</v>
+      </c>
+      <c r="AA20">
+        <v>1000</v>
+      </c>
+      <c r="AB20">
+        <v>1.27</v>
+      </c>
+      <c r="AC20">
+        <v>980</v>
+      </c>
+      <c r="AD20">
+        <v>6.4</v>
+      </c>
+      <c r="AE20">
+        <v>980</v>
+      </c>
+      <c r="AF20">
+        <v>3.05</v>
+      </c>
+      <c r="AG20">
+        <v>980</v>
+      </c>
+      <c r="AH20">
+        <v>1.58</v>
+      </c>
+      <c r="AI20">
+        <v>980</v>
+      </c>
+      <c r="AJ20">
+        <v>3.15</v>
+      </c>
+      <c r="AK20">
+        <v>980</v>
+      </c>
+      <c r="AL20">
+        <v>9.6</v>
+      </c>
+      <c r="AM20">
+        <v>980</v>
+      </c>
+      <c r="AN20">
         <v>2.32</v>
       </c>
-      <c r="G20">
-        <v>2.86</v>
-      </c>
-      <c r="H20">
-        <v>2.62</v>
-      </c>
-      <c r="I20">
-        <v>3.85</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>4.6</v>
-      </c>
-      <c r="L20">
-        <v>1.81</v>
-      </c>
-      <c r="M20">
-        <v>2.24</v>
-      </c>
-      <c r="N20">
-        <v>1.8</v>
-      </c>
-      <c r="O20">
-        <v>2.24</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
       <c r="AO20">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF20" t="s">
         <v>170</v>
@@ -5118,16 +5220,16 @@
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BK20" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5147,160 +5249,160 @@
         <v>140</v>
       </c>
       <c r="F21">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G21">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H21">
         <v>1.53</v>
       </c>
       <c r="I21">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
         <v>5.1</v>
-      </c>
-      <c r="K21">
-        <v>5.2</v>
       </c>
       <c r="L21">
         <v>2.48</v>
       </c>
       <c r="M21">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="N21">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="O21">
         <v>1.68</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BF21" t="s">
         <v>171</v>
@@ -5315,16 +5417,16 @@
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BK21" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5344,37 +5446,37 @@
         <v>141</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G22">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H22">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="I22">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="J22">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K22">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L22">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="M22">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="N22">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O22">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="P22">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q22">
         <v>1.77</v>
@@ -5383,115 +5485,115 @@
         <v>2.3</v>
       </c>
       <c r="S22">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="T22">
+        <v>25</v>
+      </c>
+      <c r="U22">
         <v>27</v>
       </c>
-      <c r="U22">
-        <v>29</v>
-      </c>
       <c r="V22">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W22">
         <v>11.5</v>
       </c>
       <c r="X22">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y22">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z22">
         <v>13.5</v>
       </c>
       <c r="AA22">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB22">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC22">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD22">
         <v>11.5</v>
       </c>
       <c r="AE22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF22">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG22">
         <v>9.4</v>
       </c>
       <c r="AH22">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI22">
         <v>13</v>
       </c>
       <c r="AJ22">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AK22">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL22">
         <v>24</v>
       </c>
       <c r="AM22">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AN22">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO22">
         <v>21</v>
       </c>
       <c r="AP22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR22">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AS22">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AT22">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AU22">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AV22">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AW22">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AX22">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AY22">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AZ22">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BA22">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB22">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BC22">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="BD22">
         <v>180</v>
@@ -5512,16 +5614,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BK22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="BL22" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="BM22" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5541,157 +5643,157 @@
         <v>142</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G23">
-        <v>980</v>
+        <v>3.35</v>
       </c>
       <c r="H23">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="I23">
-        <v>980</v>
+        <v>2.6</v>
       </c>
       <c r="J23">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23">
-        <v>950</v>
+        <v>3.35</v>
       </c>
       <c r="L23">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="M23">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="N23">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="O23">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="P23">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="Q23">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="R23">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="S23">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="T23">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U23">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="V23">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="W23">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="X23">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="Y23">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z23">
-        <v>1.01</v>
+        <v>27</v>
       </c>
       <c r="AA23">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB23">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AC23">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD23">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AE23">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AF23">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AG23">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH23">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="AI23">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ23">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="AK23">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL23">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AM23">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AN23">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="AO23">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AP23">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AQ23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR23">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT23">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AU23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV23">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX23">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ23">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BA23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB23">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BC23">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="BD23">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5709,16 +5811,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BK23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BL23" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="BM23" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5738,85 +5840,85 @@
         <v>143</v>
       </c>
       <c r="F24">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="G24">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="H24">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>980</v>
+        <v>2.16</v>
       </c>
       <c r="J24">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K24">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L24">
-        <v>1.28</v>
+        <v>1.73</v>
       </c>
       <c r="M24">
-        <v>3.4</v>
+        <v>1.93</v>
       </c>
       <c r="N24">
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="O24">
-        <v>4.6</v>
+        <v>2.38</v>
       </c>
       <c r="P24">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="Q24">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S24">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T24">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="U24">
         <v>12.5</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="W24">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="X24">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y24">
         <v>14.5</v>
       </c>
       <c r="Z24">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AA24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB24">
         <v>10.5</v>
       </c>
       <c r="AC24">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD24">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE24">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AF24">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG24">
         <v>13.5</v>
@@ -5825,70 +5927,70 @@
         <v>21</v>
       </c>
       <c r="AI24">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ24">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK24">
         <v>36</v>
       </c>
       <c r="AL24">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM24">
+        <v>21</v>
+      </c>
+      <c r="AN24">
+        <v>17</v>
+      </c>
+      <c r="AO24">
+        <v>26</v>
+      </c>
+      <c r="AP24">
+        <v>5.3</v>
+      </c>
+      <c r="AQ24">
+        <v>55</v>
+      </c>
+      <c r="AR24">
+        <v>5.4</v>
+      </c>
+      <c r="AS24">
+        <v>980</v>
+      </c>
+      <c r="AT24">
+        <v>5.2</v>
+      </c>
+      <c r="AU24">
+        <v>70</v>
+      </c>
+      <c r="AV24">
+        <v>5.3</v>
+      </c>
+      <c r="AW24">
+        <v>980</v>
+      </c>
+      <c r="AX24">
+        <v>5.5</v>
+      </c>
+      <c r="AY24">
+        <v>980</v>
+      </c>
+      <c r="AZ24">
+        <v>5.3</v>
+      </c>
+      <c r="BA24">
+        <v>80</v>
+      </c>
+      <c r="BB24">
+        <v>4.5</v>
+      </c>
+      <c r="BC24">
         <v>22</v>
       </c>
-      <c r="AN24">
-        <v>18</v>
-      </c>
-      <c r="AO24">
-        <v>27</v>
-      </c>
-      <c r="AP24">
-        <v>4</v>
-      </c>
-      <c r="AQ24">
-        <v>60</v>
-      </c>
-      <c r="AR24">
-        <v>4.2</v>
-      </c>
-      <c r="AS24">
-        <v>980</v>
-      </c>
-      <c r="AT24">
-        <v>4.1</v>
-      </c>
-      <c r="AU24">
-        <v>80</v>
-      </c>
-      <c r="AV24">
-        <v>4.2</v>
-      </c>
-      <c r="AW24">
-        <v>980</v>
-      </c>
-      <c r="AX24">
-        <v>4.2</v>
-      </c>
-      <c r="AY24">
-        <v>980</v>
-      </c>
-      <c r="AZ24">
-        <v>4.2</v>
-      </c>
-      <c r="BA24">
-        <v>980</v>
-      </c>
-      <c r="BB24">
-        <v>3.7</v>
-      </c>
-      <c r="BC24">
-        <v>25</v>
-      </c>
       <c r="BD24">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -5906,16 +6008,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BK24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BL24" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="BM24" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -5938,31 +6040,31 @@
         <v>4.6</v>
       </c>
       <c r="G25">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="H25">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="J25">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="K25">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="L25">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="M25">
-        <v>6.4</v>
+        <v>2.52</v>
       </c>
       <c r="N25">
-        <v>1.18</v>
+        <v>1.66</v>
       </c>
       <c r="O25">
-        <v>4.6</v>
+        <v>2.84</v>
       </c>
       <c r="P25">
         <v>1.01</v>
@@ -6103,16 +6205,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BK25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BL25" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="BM25" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6132,34 +6234,34 @@
         <v>145</v>
       </c>
       <c r="F26">
-        <v>2.06</v>
+        <v>1.12</v>
       </c>
       <c r="G26">
-        <v>2.92</v>
+        <v>980</v>
       </c>
       <c r="H26">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="I26">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>3.05</v>
+        <v>1.2</v>
       </c>
       <c r="K26">
-        <v>5.4</v>
+        <v>330</v>
       </c>
       <c r="L26">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="M26">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="N26">
-        <v>1.91</v>
+        <v>1.23</v>
       </c>
       <c r="O26">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="P26">
         <v>1.01</v>
@@ -6300,16 +6402,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BK26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BL26" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="BM26" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6329,94 +6431,94 @@
         <v>146</v>
       </c>
       <c r="F27">
+        <v>3.5</v>
+      </c>
+      <c r="G27">
+        <v>3.8</v>
+      </c>
+      <c r="H27">
+        <v>2.3</v>
+      </c>
+      <c r="I27">
+        <v>2.44</v>
+      </c>
+      <c r="J27">
         <v>3.25</v>
       </c>
-      <c r="G27">
-        <v>3.6</v>
-      </c>
-      <c r="H27">
-        <v>2.28</v>
-      </c>
-      <c r="I27">
+      <c r="K27">
+        <v>3.5</v>
+      </c>
+      <c r="L27">
+        <v>1.69</v>
+      </c>
+      <c r="M27">
+        <v>1.73</v>
+      </c>
+      <c r="N27">
+        <v>2.36</v>
+      </c>
+      <c r="O27">
         <v>2.46</v>
       </c>
-      <c r="J27">
-        <v>3.35</v>
-      </c>
-      <c r="K27">
-        <v>3.7</v>
-      </c>
-      <c r="L27">
-        <v>1.87</v>
-      </c>
-      <c r="M27">
-        <v>1.99</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>2.16</v>
-      </c>
       <c r="P27">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="Q27">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="R27">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="T27">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="U27">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="V27">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="W27">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y27">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z27">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="AA27">
         <v>40</v>
       </c>
       <c r="AB27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC27">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD27">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AE27">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF27">
         <v>10</v>
       </c>
       <c r="AG27">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI27">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ27">
         <v>20</v>
@@ -6425,61 +6527,61 @@
         <v>29</v>
       </c>
       <c r="AL27">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM27">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN27">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP27">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="AQ27">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR27">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AS27">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AT27">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="AU27">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AV27">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AW27">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AX27">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="AY27">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AZ27">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="BA27">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="BB27">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="BC27">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="BD27">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6497,16 +6599,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BK27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BL27" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="BM27" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6526,115 +6628,115 @@
         <v>147</v>
       </c>
       <c r="F28">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G28">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H28">
         <v>2.7</v>
       </c>
       <c r="I28">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="J28">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K28">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L28">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M28">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N28">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O28">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="P28">
         <v>1.96</v>
       </c>
       <c r="Q28">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R28">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S28">
         <v>2.04</v>
       </c>
       <c r="T28">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U28">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="V28">
         <v>7.8</v>
       </c>
       <c r="W28">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="X28">
         <v>15</v>
       </c>
       <c r="Y28">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z28">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA28">
         <v>980</v>
       </c>
       <c r="AB28">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD28">
         <v>6.6</v>
       </c>
       <c r="AE28">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF28">
         <v>11.5</v>
       </c>
       <c r="AG28">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH28">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AI28">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ28">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK28">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL28">
         <v>12</v>
       </c>
       <c r="AM28">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AN28">
         <v>17.5</v>
       </c>
       <c r="AO28">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP28">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AQ28">
         <v>980</v>
@@ -6649,10 +6751,10 @@
         <v>5.9</v>
       </c>
       <c r="AU28">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AV28">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AW28">
         <v>980</v>
@@ -6661,22 +6763,22 @@
         <v>6.4</v>
       </c>
       <c r="AY28">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ28">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="BA28">
         <v>980</v>
       </c>
       <c r="BB28">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BC28">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="BD28">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -6694,16 +6796,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BK28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="BL28" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="BM28" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6723,19 +6825,19 @@
         <v>148</v>
       </c>
       <c r="F29">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="G29">
-        <v>2.36</v>
+        <v>1.89</v>
       </c>
       <c r="H29">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="J29">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="K29">
         <v>980</v>
@@ -6747,7 +6849,7 @@
         <v>970</v>
       </c>
       <c r="N29">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="O29">
         <v>4.6</v>
@@ -6765,7 +6867,7 @@
         <v>1000</v>
       </c>
       <c r="T29">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="U29">
         <v>1000</v>
@@ -6891,16 +6993,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BK29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BL29" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="BM29" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -6920,34 +7022,34 @@
         <v>149</v>
       </c>
       <c r="F30">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="G30">
-        <v>990</v>
+        <v>3.95</v>
       </c>
       <c r="H30">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="I30">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="J30">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="K30">
-        <v>950</v>
+        <v>9.6</v>
       </c>
       <c r="L30">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="M30">
-        <v>13.5</v>
+        <v>2.08</v>
       </c>
       <c r="N30">
-        <v>1.08</v>
+        <v>1.94</v>
       </c>
       <c r="O30">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="P30">
         <v>1.01</v>
@@ -7088,16 +7190,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BK30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BL30" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="BM30" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7117,34 +7219,34 @@
         <v>150</v>
       </c>
       <c r="F31">
-        <v>1.48</v>
+        <v>3.9</v>
       </c>
       <c r="G31">
-        <v>250</v>
+        <v>10.5</v>
       </c>
       <c r="H31">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="I31">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J31">
-        <v>2.82</v>
+        <v>2.46</v>
       </c>
       <c r="K31">
-        <v>950</v>
+        <v>7.6</v>
       </c>
       <c r="L31">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>2.28</v>
       </c>
       <c r="N31">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="O31">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
         <v>1.01</v>
@@ -7285,16 +7387,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BK31" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BL31" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="BM31" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7314,34 +7416,34 @@
         <v>151</v>
       </c>
       <c r="F32">
-        <v>1.09</v>
+        <v>2.24</v>
       </c>
       <c r="G32">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="H32">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="J32">
-        <v>1.44</v>
+        <v>2.96</v>
       </c>
       <c r="K32">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L32">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>2.18</v>
       </c>
       <c r="N32">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="O32">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
         <v>1.01</v>
@@ -7356,7 +7458,7 @@
         <v>1000</v>
       </c>
       <c r="T32">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U32">
         <v>1000</v>
@@ -7482,16 +7584,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BK32" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BL32" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="BM32" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
@@ -1506,34 +1506,34 @@
         <v>121</v>
       </c>
       <c r="F2">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>2.68</v>
       </c>
       <c r="H2">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="J2">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L2">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="M2">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="N2">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="O2">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1703,157 +1703,157 @@
         <v>122</v>
       </c>
       <c r="F3">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I3">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="M3">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="P3">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q3">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R3">
         <v>2.1</v>
       </c>
       <c r="S3">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T3">
         <v>12.5</v>
       </c>
       <c r="U3">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="W3">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="X3">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y3">
         <v>980</v>
       </c>
       <c r="Z3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AA3">
         <v>980</v>
       </c>
       <c r="AB3">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC3">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD3">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE3">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AF3">
         <v>12</v>
       </c>
       <c r="AG3">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH3">
+        <v>5.8</v>
+      </c>
+      <c r="AI3">
+        <v>980</v>
+      </c>
+      <c r="AJ3">
+        <v>12.5</v>
+      </c>
+      <c r="AK3">
+        <v>17</v>
+      </c>
+      <c r="AL3">
+        <v>9.6</v>
+      </c>
+      <c r="AM3">
+        <v>12.5</v>
+      </c>
+      <c r="AN3">
+        <v>14</v>
+      </c>
+      <c r="AO3">
+        <v>19</v>
+      </c>
+      <c r="AP3">
         <v>6</v>
       </c>
-      <c r="AI3">
-        <v>980</v>
-      </c>
-      <c r="AJ3">
-        <v>12</v>
-      </c>
-      <c r="AK3">
-        <v>16</v>
-      </c>
-      <c r="AL3">
-        <v>9</v>
-      </c>
-      <c r="AM3">
-        <v>12</v>
-      </c>
-      <c r="AN3">
-        <v>14.5</v>
-      </c>
-      <c r="AO3">
-        <v>980</v>
-      </c>
-      <c r="AP3">
-        <v>6.2</v>
-      </c>
       <c r="AQ3">
         <v>980</v>
       </c>
       <c r="AR3">
+        <v>5.7</v>
+      </c>
+      <c r="AS3">
+        <v>980</v>
+      </c>
+      <c r="AT3">
+        <v>5.4</v>
+      </c>
+      <c r="AU3">
+        <v>980</v>
+      </c>
+      <c r="AV3">
         <v>5.8</v>
       </c>
-      <c r="AS3">
-        <v>980</v>
-      </c>
-      <c r="AT3">
-        <v>5.5</v>
-      </c>
-      <c r="AU3">
-        <v>980</v>
-      </c>
-      <c r="AV3">
-        <v>6</v>
-      </c>
       <c r="AW3">
         <v>980</v>
       </c>
       <c r="AX3">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AY3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ3">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="BA3">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="BB3">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="BC3">
         <v>980</v>
       </c>
       <c r="BD3">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1903,49 +1903,49 @@
         <v>2.2</v>
       </c>
       <c r="G4">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H4">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J4">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="K4">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L4">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M4">
         <v>1.62</v>
       </c>
       <c r="N4">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O4">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q4">
         <v>2.52</v>
       </c>
       <c r="R4">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T4">
         <v>6.8</v>
       </c>
       <c r="U4">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V4">
         <v>9.4</v>
@@ -1954,19 +1954,19 @@
         <v>980</v>
       </c>
       <c r="X4">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="Y4">
         <v>980</v>
       </c>
       <c r="Z4">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="AA4">
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="AC4">
         <v>980</v>
@@ -1978,13 +1978,13 @@
         <v>980</v>
       </c>
       <c r="AF4">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AG4">
         <v>980</v>
       </c>
       <c r="AH4">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="AI4">
         <v>1000</v>
@@ -2002,55 +2002,55 @@
         <v>980</v>
       </c>
       <c r="AN4">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AO4">
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>8.4</v>
+        <v>3.25</v>
       </c>
       <c r="AQ4">
         <v>1000</v>
       </c>
       <c r="AR4">
-        <v>2.52</v>
+        <v>4.8</v>
       </c>
       <c r="AS4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT4">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="AU4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV4">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="AW4">
         <v>1000</v>
       </c>
       <c r="AX4">
-        <v>9</v>
+        <v>3.35</v>
       </c>
       <c r="AY4">
         <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="BA4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB4">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="BC4">
         <v>1000</v>
       </c>
       <c r="BD4">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -2097,145 +2097,145 @@
         <v>124</v>
       </c>
       <c r="F5">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G5">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H5">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I5">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J5">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5">
         <v>4.7</v>
       </c>
       <c r="L5">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="M5">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O5">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="P5">
         <v>1.59</v>
       </c>
       <c r="Q5">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R5">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="S5">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T5">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="U5">
         <v>980</v>
       </c>
       <c r="V5">
+        <v>11.5</v>
+      </c>
+      <c r="W5">
+        <v>16.5</v>
+      </c>
+      <c r="X5">
+        <v>13.5</v>
+      </c>
+      <c r="Y5">
+        <v>980</v>
+      </c>
+      <c r="Z5">
+        <v>3.85</v>
+      </c>
+      <c r="AA5">
+        <v>980</v>
+      </c>
+      <c r="AB5">
         <v>3.65</v>
       </c>
-      <c r="W5">
-        <v>980</v>
-      </c>
-      <c r="X5">
-        <v>3.65</v>
-      </c>
-      <c r="Y5">
-        <v>980</v>
-      </c>
-      <c r="Z5">
+      <c r="AC5">
+        <v>980</v>
+      </c>
+      <c r="AD5">
+        <v>7.6</v>
+      </c>
+      <c r="AE5">
+        <v>12</v>
+      </c>
+      <c r="AF5">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>13.5</v>
+      </c>
+      <c r="AH5">
+        <v>3.95</v>
+      </c>
+      <c r="AI5">
+        <v>980</v>
+      </c>
+      <c r="AJ5">
+        <v>4.1</v>
+      </c>
+      <c r="AK5">
+        <v>980</v>
+      </c>
+      <c r="AL5">
+        <v>13</v>
+      </c>
+      <c r="AM5">
+        <v>980</v>
+      </c>
+      <c r="AN5">
+        <v>14</v>
+      </c>
+      <c r="AO5">
+        <v>980</v>
+      </c>
+      <c r="AP5">
+        <v>4.1</v>
+      </c>
+      <c r="AQ5">
+        <v>980</v>
+      </c>
+      <c r="AR5">
+        <v>4.2</v>
+      </c>
+      <c r="AS5">
+        <v>980</v>
+      </c>
+      <c r="AT5">
+        <v>3.95</v>
+      </c>
+      <c r="AU5">
+        <v>980</v>
+      </c>
+      <c r="AV5">
+        <v>4.1</v>
+      </c>
+      <c r="AW5">
+        <v>980</v>
+      </c>
+      <c r="AX5">
+        <v>4.4</v>
+      </c>
+      <c r="AY5">
+        <v>980</v>
+      </c>
+      <c r="AZ5">
         <v>3.8</v>
-      </c>
-      <c r="AA5">
-        <v>980</v>
-      </c>
-      <c r="AB5">
-        <v>3.7</v>
-      </c>
-      <c r="AC5">
-        <v>980</v>
-      </c>
-      <c r="AD5">
-        <v>7.4</v>
-      </c>
-      <c r="AE5">
-        <v>980</v>
-      </c>
-      <c r="AF5">
-        <v>3.45</v>
-      </c>
-      <c r="AG5">
-        <v>980</v>
-      </c>
-      <c r="AH5">
-        <v>3.65</v>
-      </c>
-      <c r="AI5">
-        <v>980</v>
-      </c>
-      <c r="AJ5">
-        <v>3.85</v>
-      </c>
-      <c r="AK5">
-        <v>980</v>
-      </c>
-      <c r="AL5">
-        <v>3.6</v>
-      </c>
-      <c r="AM5">
-        <v>980</v>
-      </c>
-      <c r="AN5">
-        <v>3.75</v>
-      </c>
-      <c r="AO5">
-        <v>980</v>
-      </c>
-      <c r="AP5">
-        <v>3.8</v>
-      </c>
-      <c r="AQ5">
-        <v>980</v>
-      </c>
-      <c r="AR5">
-        <v>4</v>
-      </c>
-      <c r="AS5">
-        <v>980</v>
-      </c>
-      <c r="AT5">
-        <v>3.9</v>
-      </c>
-      <c r="AU5">
-        <v>980</v>
-      </c>
-      <c r="AV5">
-        <v>4</v>
-      </c>
-      <c r="AW5">
-        <v>980</v>
-      </c>
-      <c r="AX5">
-        <v>4.1</v>
-      </c>
-      <c r="AY5">
-        <v>980</v>
-      </c>
-      <c r="AZ5">
-        <v>3.75</v>
       </c>
       <c r="BA5">
         <v>980</v>
@@ -2244,10 +2244,10 @@
         <v>3.25</v>
       </c>
       <c r="BC5">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="BD5">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -2294,7 +2294,7 @@
         <v>125</v>
       </c>
       <c r="F6">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G6">
         <v>2.1</v>
@@ -2306,25 +2306,25 @@
         <v>4.5</v>
       </c>
       <c r="J6">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K6">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L6">
         <v>1.91</v>
       </c>
       <c r="M6">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="O6">
         <v>2.1</v>
       </c>
       <c r="P6">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2333,7 +2333,7 @@
         <v>2.04</v>
       </c>
       <c r="S6">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T6">
         <v>11</v>
@@ -2342,19 +2342,19 @@
         <v>980</v>
       </c>
       <c r="V6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>980</v>
       </c>
       <c r="X6">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y6">
         <v>980</v>
       </c>
       <c r="Z6">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA6">
         <v>980</v>
@@ -2363,7 +2363,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC6">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD6">
         <v>7</v>
@@ -2372,16 +2372,16 @@
         <v>9.4</v>
       </c>
       <c r="AF6">
-        <v>13.5</v>
+        <v>5.2</v>
       </c>
       <c r="AG6">
         <v>980</v>
       </c>
       <c r="AH6">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ6">
         <v>9.800000000000001</v>
@@ -2393,7 +2393,7 @@
         <v>9</v>
       </c>
       <c r="AM6">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AN6">
         <v>15</v>
@@ -2405,46 +2405,46 @@
         <v>6</v>
       </c>
       <c r="AQ6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR6">
+        <v>5.2</v>
+      </c>
+      <c r="AS6">
+        <v>980</v>
+      </c>
+      <c r="AT6">
         <v>5.5</v>
       </c>
-      <c r="AS6">
-        <v>980</v>
-      </c>
-      <c r="AT6">
-        <v>17.5</v>
-      </c>
       <c r="AU6">
         <v>980</v>
       </c>
       <c r="AV6">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AW6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX6">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="AY6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ6">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="BA6">
         <v>980</v>
       </c>
       <c r="BB6">
-        <v>1.97</v>
+        <v>5.9</v>
       </c>
       <c r="BC6">
         <v>980</v>
       </c>
       <c r="BD6">
-        <v>2.02</v>
+        <v>6.4</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2491,7 +2491,7 @@
         <v>126</v>
       </c>
       <c r="F7">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G7">
         <v>1.84</v>
@@ -2500,37 +2500,37 @@
         <v>4.7</v>
       </c>
       <c r="I7">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J7">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K7">
         <v>4.3</v>
       </c>
       <c r="L7">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="M7">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="N7">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O7">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="P7">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="Q7">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="R7">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="T7">
         <v>11.5</v>
@@ -2545,13 +2545,13 @@
         <v>980</v>
       </c>
       <c r="X7">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y7">
         <v>980</v>
       </c>
       <c r="Z7">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA7">
         <v>980</v>
@@ -2605,7 +2605,7 @@
         <v>980</v>
       </c>
       <c r="AR7">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AS7">
         <v>980</v>
@@ -2617,31 +2617,31 @@
         <v>980</v>
       </c>
       <c r="AV7">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AW7">
         <v>980</v>
       </c>
       <c r="AX7">
+        <v>6.6</v>
+      </c>
+      <c r="AY7">
+        <v>980</v>
+      </c>
+      <c r="AZ7">
+        <v>4.5</v>
+      </c>
+      <c r="BA7">
+        <v>980</v>
+      </c>
+      <c r="BB7">
         <v>6.4</v>
       </c>
-      <c r="AY7">
-        <v>980</v>
-      </c>
-      <c r="AZ7">
-        <v>4.4</v>
-      </c>
-      <c r="BA7">
-        <v>980</v>
-      </c>
-      <c r="BB7">
-        <v>6.2</v>
-      </c>
       <c r="BC7">
         <v>980</v>
       </c>
       <c r="BD7">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2688,34 +2688,34 @@
         <v>127</v>
       </c>
       <c r="F8">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="G8">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="H8">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="I8">
         <v>5.3</v>
       </c>
       <c r="J8">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="K8">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L8">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="P8">
         <v>1.01</v>
@@ -2888,13 +2888,13 @@
         <v>8.6</v>
       </c>
       <c r="G9">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="I9">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J9">
         <v>5.9</v>
@@ -2903,139 +2903,139 @@
         <v>6</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M9">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="O9">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P9">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="Q9">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R9">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="S9">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="T9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V9">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="W9">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y9">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z9">
         <v>12</v>
       </c>
       <c r="AA9">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AD9">
         <v>13</v>
       </c>
       <c r="AE9">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF9">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9">
         <v>10.5</v>
       </c>
       <c r="AH9">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AI9">
         <v>13</v>
       </c>
       <c r="AJ9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK9">
         <v>90</v>
       </c>
       <c r="AL9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM9">
         <v>32</v>
       </c>
       <c r="AN9">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO9">
         <v>22</v>
       </c>
       <c r="AP9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR9">
+        <v>18</v>
+      </c>
+      <c r="AS9">
+        <v>280</v>
+      </c>
+      <c r="AT9">
+        <v>16.5</v>
+      </c>
+      <c r="AU9">
+        <v>110</v>
+      </c>
+      <c r="AV9">
         <v>15.5</v>
       </c>
-      <c r="AS9">
-        <v>310</v>
-      </c>
-      <c r="AT9">
-        <v>14</v>
-      </c>
-      <c r="AU9">
-        <v>100</v>
-      </c>
-      <c r="AV9">
-        <v>13.5</v>
-      </c>
       <c r="AW9">
+        <v>85</v>
+      </c>
+      <c r="AX9">
+        <v>16</v>
+      </c>
+      <c r="AY9">
+        <v>90</v>
+      </c>
+      <c r="AZ9">
+        <v>15.5</v>
+      </c>
+      <c r="BA9">
         <v>80</v>
       </c>
-      <c r="AX9">
-        <v>13.5</v>
-      </c>
-      <c r="AY9">
-        <v>85</v>
-      </c>
-      <c r="AZ9">
-        <v>13.5</v>
-      </c>
-      <c r="BA9">
-        <v>75</v>
-      </c>
       <c r="BB9">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="BC9">
         <v>4.3</v>
       </c>
       <c r="BD9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="BE9">
         <v>980</v>
@@ -3082,88 +3082,88 @@
         <v>129</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G10">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H10">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="I10">
         <v>2.02</v>
       </c>
       <c r="J10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K10">
         <v>3.85</v>
       </c>
       <c r="L10">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="M10">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="N10">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="O10">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="P10">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="Q10">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="R10">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S10">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="T10">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="U10">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V10">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="W10">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y10">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z10">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB10">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC10">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD10">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE10">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF10">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH10">
         <v>18</v>
@@ -3184,10 +3184,10 @@
         <v>21</v>
       </c>
       <c r="AN10">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP10">
         <v>29</v>
@@ -3196,43 +3196,43 @@
         <v>48</v>
       </c>
       <c r="AR10">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AS10">
         <v>110</v>
       </c>
       <c r="AT10">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AU10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AV10">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AW10">
+        <v>80</v>
+      </c>
+      <c r="AX10">
+        <v>4.9</v>
+      </c>
+      <c r="AY10">
+        <v>150</v>
+      </c>
+      <c r="AZ10">
+        <v>6.2</v>
+      </c>
+      <c r="BA10">
         <v>75</v>
       </c>
-      <c r="AX10">
-        <v>4.2</v>
-      </c>
-      <c r="AY10">
-        <v>140</v>
-      </c>
-      <c r="AZ10">
-        <v>4.1</v>
-      </c>
-      <c r="BA10">
-        <v>70</v>
-      </c>
       <c r="BB10">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="BC10">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BD10">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -3282,31 +3282,31 @@
         <v>3.5</v>
       </c>
       <c r="G11">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H11">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I11">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J11">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11">
         <v>3.7</v>
       </c>
       <c r="L11">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="M11">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="N11">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O11">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="P11">
         <v>1.79</v>
@@ -3330,37 +3330,37 @@
         <v>9.4</v>
       </c>
       <c r="W11">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="X11">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y11">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z11">
         <v>23</v>
       </c>
       <c r="AA11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB11">
         <v>12.5</v>
       </c>
       <c r="AC11">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD11">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE11">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AF11">
         <v>9.800000000000001</v>
       </c>
       <c r="AG11">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11">
         <v>20</v>
@@ -3378,7 +3378,7 @@
         <v>13.5</v>
       </c>
       <c r="AM11">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN11">
         <v>16</v>
@@ -3387,49 +3387,49 @@
         <v>20</v>
       </c>
       <c r="AP11">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AQ11">
         <v>42</v>
       </c>
       <c r="AR11">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AS11">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AT11">
+        <v>7.2</v>
+      </c>
+      <c r="AU11">
+        <v>46</v>
+      </c>
+      <c r="AV11">
         <v>7</v>
-      </c>
-      <c r="AU11">
-        <v>48</v>
-      </c>
-      <c r="AV11">
-        <v>6</v>
       </c>
       <c r="AW11">
         <v>60</v>
       </c>
       <c r="AX11">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AY11">
         <v>110</v>
       </c>
       <c r="AZ11">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="BA11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BB11">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="BC11">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BD11">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="BE11">
         <v>980</v>
@@ -3476,25 +3476,25 @@
         <v>131</v>
       </c>
       <c r="F12">
+        <v>2.38</v>
+      </c>
+      <c r="G12">
         <v>2.42</v>
       </c>
-      <c r="G12">
-        <v>2.52</v>
-      </c>
       <c r="H12">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
         <v>3.35</v>
       </c>
       <c r="J12">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K12">
         <v>3.6</v>
       </c>
       <c r="L12">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="M12">
         <v>1.8</v>
@@ -3503,16 +3503,16 @@
         <v>2.26</v>
       </c>
       <c r="O12">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R12">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="S12">
         <v>2</v>
@@ -3521,7 +3521,7 @@
         <v>9.6</v>
       </c>
       <c r="U12">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V12">
         <v>10</v>
@@ -3530,46 +3530,46 @@
         <v>11.5</v>
       </c>
       <c r="X12">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z12">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA12">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB12">
         <v>8.199999999999999</v>
       </c>
       <c r="AC12">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12">
         <v>7.2</v>
       </c>
       <c r="AE12">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF12">
         <v>13</v>
       </c>
       <c r="AG12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AI12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ12">
         <v>12.5</v>
       </c>
       <c r="AK12">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL12">
         <v>10.5</v>
@@ -3578,37 +3578,37 @@
         <v>11.5</v>
       </c>
       <c r="AN12">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO12">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP12">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ12">
         <v>65</v>
       </c>
       <c r="AR12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AT12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU12">
         <v>30</v>
       </c>
       <c r="AV12">
+        <v>38</v>
+      </c>
+      <c r="AW12">
+        <v>50</v>
+      </c>
+      <c r="AX12">
         <v>13</v>
-      </c>
-      <c r="AW12">
-        <v>55</v>
-      </c>
-      <c r="AX12">
-        <v>15</v>
       </c>
       <c r="AY12">
         <v>140</v>
@@ -3617,16 +3617,16 @@
         <v>22</v>
       </c>
       <c r="BA12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB12">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="BC12">
         <v>55</v>
       </c>
       <c r="BD12">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3673,13 +3673,13 @@
         <v>132</v>
       </c>
       <c r="F13">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G13">
         <v>2.48</v>
       </c>
       <c r="H13">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13">
         <v>3.45</v>
@@ -3688,70 +3688,70 @@
         <v>3.3</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L13">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="M13">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="N13">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="O13">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="P13">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q13">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="R13">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="S13">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <v>9.4</v>
+      </c>
+      <c r="W13">
+        <v>12.5</v>
+      </c>
+      <c r="X13">
+        <v>17.5</v>
+      </c>
+      <c r="Y13">
+        <v>24</v>
+      </c>
+      <c r="Z13">
+        <v>6.6</v>
+      </c>
+      <c r="AA13">
+        <v>70</v>
+      </c>
+      <c r="AB13">
+        <v>7.6</v>
+      </c>
+      <c r="AC13">
         <v>10</v>
       </c>
-      <c r="U13">
-        <v>12.5</v>
-      </c>
-      <c r="V13">
-        <v>10</v>
-      </c>
-      <c r="W13">
-        <v>13</v>
-      </c>
-      <c r="X13">
-        <v>18</v>
-      </c>
-      <c r="Y13">
-        <v>25</v>
-      </c>
-      <c r="Z13">
-        <v>6.8</v>
-      </c>
-      <c r="AA13">
-        <v>65</v>
-      </c>
-      <c r="AB13">
-        <v>8</v>
-      </c>
-      <c r="AC13">
-        <v>10.5</v>
-      </c>
       <c r="AD13">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AE13">
         <v>8.4</v>
       </c>
       <c r="AF13">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG13">
         <v>16</v>
@@ -3760,7 +3760,7 @@
         <v>6.4</v>
       </c>
       <c r="AI13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ13">
         <v>12</v>
@@ -3775,55 +3775,55 @@
         <v>13</v>
       </c>
       <c r="AN13">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP13">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AQ13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR13">
         <v>6.2</v>
       </c>
       <c r="AS13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AT13">
-        <v>22</v>
+        <v>6.2</v>
       </c>
       <c r="AU13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AV13">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AW13">
+        <v>55</v>
+      </c>
+      <c r="AX13">
+        <v>7</v>
+      </c>
+      <c r="AY13">
+        <v>140</v>
+      </c>
+      <c r="AZ13">
+        <v>10.5</v>
+      </c>
+      <c r="BA13">
+        <v>27</v>
+      </c>
+      <c r="BB13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC13">
         <v>48</v>
       </c>
-      <c r="AX13">
+      <c r="BD13">
         <v>7.2</v>
-      </c>
-      <c r="AY13">
-        <v>130</v>
-      </c>
-      <c r="AZ13">
-        <v>5.8</v>
-      </c>
-      <c r="BA13">
-        <v>24</v>
-      </c>
-      <c r="BB13">
-        <v>6.4</v>
-      </c>
-      <c r="BC13">
-        <v>44</v>
-      </c>
-      <c r="BD13">
-        <v>7.6</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -3870,10 +3870,10 @@
         <v>133</v>
       </c>
       <c r="F14">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G14">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H14">
         <v>2.2</v>
@@ -3882,7 +3882,7 @@
         <v>2.3</v>
       </c>
       <c r="J14">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K14">
         <v>3.95</v>
@@ -3900,13 +3900,13 @@
         <v>1.9</v>
       </c>
       <c r="P14">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q14">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R14">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S14">
         <v>2.46</v>
@@ -3918,10 +3918,10 @@
         <v>18.5</v>
       </c>
       <c r="V14">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="W14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X14">
         <v>12</v>
@@ -3930,7 +3930,7 @@
         <v>16.5</v>
       </c>
       <c r="Z14">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AA14">
         <v>32</v>
@@ -3942,16 +3942,16 @@
         <v>16.5</v>
       </c>
       <c r="AD14">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE14">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF14">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG14">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH14">
         <v>18</v>
@@ -3966,7 +3966,7 @@
         <v>27</v>
       </c>
       <c r="AL14">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AM14">
         <v>16</v>
@@ -3978,49 +3978,49 @@
         <v>19</v>
       </c>
       <c r="AP14">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AQ14">
         <v>38</v>
       </c>
       <c r="AR14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS14">
         <v>65</v>
       </c>
       <c r="AT14">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AU14">
         <v>40</v>
       </c>
       <c r="AV14">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AW14">
         <v>48</v>
       </c>
       <c r="AX14">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AY14">
         <v>90</v>
       </c>
       <c r="AZ14">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="BA14">
         <v>34</v>
       </c>
       <c r="BB14">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="BC14">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BD14">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="BE14">
         <v>980</v>
@@ -4067,46 +4067,46 @@
         <v>134</v>
       </c>
       <c r="F15">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H15">
-        <v>2.5</v>
+        <v>3.55</v>
       </c>
       <c r="I15">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="J15">
         <v>3.35</v>
       </c>
       <c r="K15">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L15">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="M15">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="N15">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="O15">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="P15">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="Q15">
-        <v>2.6</v>
+        <v>2.04</v>
       </c>
       <c r="R15">
-        <v>1.63</v>
+        <v>1.96</v>
       </c>
       <c r="S15">
-        <v>2.9</v>
+        <v>2.12</v>
       </c>
       <c r="T15">
         <v>9.6</v>
@@ -4115,49 +4115,49 @@
         <v>980</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>11</v>
       </c>
       <c r="W15">
         <v>980</v>
       </c>
       <c r="X15">
-        <v>1.74</v>
+        <v>5.5</v>
       </c>
       <c r="Y15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z15">
-        <v>1.19</v>
+        <v>5.4</v>
       </c>
       <c r="AA15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB15">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC15">
         <v>980</v>
       </c>
       <c r="AD15">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE15">
         <v>980</v>
       </c>
       <c r="AF15">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AG15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH15">
-        <v>1.31</v>
+        <v>6</v>
       </c>
       <c r="AI15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ15">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AK15">
         <v>980</v>
@@ -4169,55 +4169,55 @@
         <v>980</v>
       </c>
       <c r="AN15">
-        <v>1.74</v>
+        <v>5.5</v>
       </c>
       <c r="AO15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP15">
-        <v>1.19</v>
+        <v>6.2</v>
       </c>
       <c r="AQ15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR15">
-        <v>1.74</v>
+        <v>5.6</v>
       </c>
       <c r="AS15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT15">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="AU15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV15">
-        <v>1.47</v>
+        <v>6</v>
       </c>
       <c r="AW15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX15">
-        <v>1.19</v>
+        <v>6.4</v>
       </c>
       <c r="AY15">
         <v>1000</v>
       </c>
       <c r="AZ15">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BA15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB15">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="BC15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD15">
-        <v>1.03</v>
+        <v>2.96</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -4264,139 +4264,139 @@
         <v>135</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G16">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H16">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I16">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L16">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="M16">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O16">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="P16">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q16">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="R16">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="S16">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="T16">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="U16">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="V16">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="W16">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="X16">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y16">
         <v>980</v>
       </c>
       <c r="Z16">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AA16">
         <v>980</v>
       </c>
       <c r="AB16">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC16">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AD16">
         <v>8</v>
       </c>
       <c r="AE16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF16">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AG16">
         <v>16.5</v>
       </c>
       <c r="AH16">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AI16">
         <v>980</v>
       </c>
       <c r="AJ16">
-        <v>4.9</v>
+        <v>13.5</v>
       </c>
       <c r="AK16">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL16">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AM16">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AN16">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AO16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP16">
+        <v>6.6</v>
+      </c>
+      <c r="AQ16">
+        <v>980</v>
+      </c>
+      <c r="AR16">
+        <v>5.9</v>
+      </c>
+      <c r="AS16">
+        <v>25</v>
+      </c>
+      <c r="AT16">
+        <v>5.6</v>
+      </c>
+      <c r="AU16">
+        <v>20</v>
+      </c>
+      <c r="AV16">
         <v>6.2</v>
       </c>
-      <c r="AQ16">
-        <v>980</v>
-      </c>
-      <c r="AR16">
-        <v>5.6</v>
-      </c>
-      <c r="AS16">
-        <v>980</v>
-      </c>
-      <c r="AT16">
-        <v>5.4</v>
-      </c>
-      <c r="AU16">
-        <v>980</v>
-      </c>
-      <c r="AV16">
-        <v>5.9</v>
-      </c>
       <c r="AW16">
         <v>980</v>
       </c>
       <c r="AX16">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY16">
         <v>980</v>
@@ -4405,16 +4405,16 @@
         <v>4.4</v>
       </c>
       <c r="BA16">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="BB16">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BC16">
         <v>980</v>
       </c>
       <c r="BD16">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4461,13 +4461,13 @@
         <v>136</v>
       </c>
       <c r="F17">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="G17">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="I17">
         <v>1.32</v>
@@ -4479,13 +4479,13 @@
         <v>6.8</v>
       </c>
       <c r="L17">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M17">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="N17">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O17">
         <v>1.72</v>
@@ -4497,19 +4497,19 @@
         <v>2.24</v>
       </c>
       <c r="R17">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
         <v>1.92</v>
       </c>
       <c r="T17">
-        <v>6.4</v>
+        <v>19.5</v>
       </c>
       <c r="U17">
         <v>980</v>
       </c>
       <c r="V17">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="W17">
         <v>10.5</v>
@@ -4518,22 +4518,22 @@
         <v>6.8</v>
       </c>
       <c r="Y17">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z17">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA17">
         <v>11.5</v>
       </c>
       <c r="AB17">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC17">
         <v>980</v>
       </c>
       <c r="AD17">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE17">
         <v>16</v>
@@ -4545,13 +4545,13 @@
         <v>12</v>
       </c>
       <c r="AH17">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AI17">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ17">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AK17">
         <v>980</v>
@@ -4563,13 +4563,13 @@
         <v>980</v>
       </c>
       <c r="AN17">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO17">
         <v>980</v>
       </c>
       <c r="AP17">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AQ17">
         <v>980</v>
@@ -4581,37 +4581,37 @@
         <v>1000</v>
       </c>
       <c r="AT17">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AU17">
         <v>980</v>
       </c>
       <c r="AV17">
+        <v>7.6</v>
+      </c>
+      <c r="AW17">
+        <v>980</v>
+      </c>
+      <c r="AX17">
+        <v>7.6</v>
+      </c>
+      <c r="AY17">
+        <v>980</v>
+      </c>
+      <c r="AZ17">
+        <v>7.6</v>
+      </c>
+      <c r="BA17">
+        <v>980</v>
+      </c>
+      <c r="BB17">
+        <v>3</v>
+      </c>
+      <c r="BC17">
+        <v>4.8</v>
+      </c>
+      <c r="BD17">
         <v>7.8</v>
-      </c>
-      <c r="AW17">
-        <v>980</v>
-      </c>
-      <c r="AX17">
-        <v>8</v>
-      </c>
-      <c r="AY17">
-        <v>980</v>
-      </c>
-      <c r="AZ17">
-        <v>7.8</v>
-      </c>
-      <c r="BA17">
-        <v>980</v>
-      </c>
-      <c r="BB17">
-        <v>3.1</v>
-      </c>
-      <c r="BC17">
-        <v>4.9</v>
-      </c>
-      <c r="BD17">
-        <v>4.2</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4658,37 +4658,37 @@
         <v>137</v>
       </c>
       <c r="F18">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G18">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H18">
         <v>2.42</v>
       </c>
       <c r="I18">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J18">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K18">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L18">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="M18">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="N18">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O18">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="P18">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q18">
         <v>1.85</v>
@@ -4697,22 +4697,22 @@
         <v>2.18</v>
       </c>
       <c r="S18">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T18">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V18">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="W18">
+        <v>14</v>
+      </c>
+      <c r="X18">
         <v>13.5</v>
-      </c>
-      <c r="X18">
-        <v>13</v>
       </c>
       <c r="Y18">
         <v>19.5</v>
@@ -4721,22 +4721,22 @@
         <v>27</v>
       </c>
       <c r="AA18">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB18">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC18">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD18">
         <v>6.8</v>
       </c>
       <c r="AE18">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AF18">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG18">
         <v>14.5</v>
@@ -4748,7 +4748,7 @@
         <v>32</v>
       </c>
       <c r="AJ18">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK18">
         <v>26</v>
@@ -4760,16 +4760,16 @@
         <v>16.5</v>
       </c>
       <c r="AN18">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO18">
         <v>22</v>
       </c>
       <c r="AP18">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AQ18">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AR18">
         <v>4.5</v>
@@ -4784,31 +4784,31 @@
         <v>42</v>
       </c>
       <c r="AV18">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AW18">
         <v>55</v>
       </c>
       <c r="AX18">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AY18">
         <v>980</v>
       </c>
       <c r="AZ18">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="BA18">
         <v>34</v>
       </c>
       <c r="BB18">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="BC18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD18">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BE18">
         <v>980</v>
@@ -4855,157 +4855,157 @@
         <v>138</v>
       </c>
       <c r="F19">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="G19">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H19">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I19">
-        <v>9.6</v>
+        <v>5.3</v>
       </c>
       <c r="J19">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K19">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L19">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="M19">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="N19">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="O19">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="P19">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="Q19">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="R19">
-        <v>1.63</v>
+        <v>1.96</v>
       </c>
       <c r="S19">
-        <v>2.76</v>
+        <v>2.14</v>
       </c>
       <c r="T19">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="U19">
         <v>980</v>
       </c>
       <c r="V19">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="W19">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X19">
-        <v>1.03</v>
+        <v>2.96</v>
       </c>
       <c r="Y19">
         <v>1000</v>
       </c>
       <c r="Z19">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="AA19">
         <v>1000</v>
       </c>
       <c r="AB19">
-        <v>1.34</v>
+        <v>3.95</v>
       </c>
       <c r="AC19">
         <v>980</v>
       </c>
       <c r="AD19">
-        <v>1.34</v>
+        <v>3.9</v>
       </c>
       <c r="AE19">
         <v>980</v>
       </c>
       <c r="AF19">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="AG19">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH19">
-        <v>1.03</v>
+        <v>6.6</v>
       </c>
       <c r="AI19">
         <v>1000</v>
       </c>
       <c r="AJ19">
-        <v>1.21</v>
+        <v>2.2</v>
       </c>
       <c r="AK19">
         <v>980</v>
       </c>
       <c r="AL19">
-        <v>1.2</v>
+        <v>2.52</v>
       </c>
       <c r="AM19">
         <v>980</v>
       </c>
       <c r="AN19">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="AO19">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP19">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AQ19">
         <v>1000</v>
       </c>
       <c r="AR19">
-        <v>1.09</v>
+        <v>3.95</v>
       </c>
       <c r="AS19">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT19">
-        <v>1.09</v>
+        <v>5.2</v>
       </c>
       <c r="AU19">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV19">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AW19">
         <v>1000</v>
       </c>
       <c r="AX19">
-        <v>1.03</v>
+        <v>14</v>
       </c>
       <c r="AY19">
         <v>1000</v>
       </c>
       <c r="AZ19">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="BA19">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB19">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="BC19">
         <v>1000</v>
       </c>
       <c r="BD19">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="BE19">
         <v>1000</v>
@@ -5052,157 +5052,157 @@
         <v>139</v>
       </c>
       <c r="F20">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G20">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H20">
         <v>3.05</v>
       </c>
       <c r="I20">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J20">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K20">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L20">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="M20">
-        <v>8.800000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="N20">
-        <v>1.51</v>
+        <v>1.92</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="P20">
-        <v>1.37</v>
+        <v>1.76</v>
       </c>
       <c r="Q20">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="R20">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="S20">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="T20">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="U20">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="V20">
         <v>10</v>
       </c>
       <c r="W20">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="X20">
-        <v>1.21</v>
+        <v>15.5</v>
       </c>
       <c r="Y20">
         <v>980</v>
       </c>
       <c r="Z20">
-        <v>1.27</v>
+        <v>4.2</v>
       </c>
       <c r="AA20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB20">
-        <v>1.27</v>
+        <v>7.8</v>
       </c>
       <c r="AC20">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AD20">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE20">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF20">
-        <v>3.05</v>
+        <v>11</v>
       </c>
       <c r="AG20">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH20">
-        <v>1.58</v>
+        <v>4.4</v>
       </c>
       <c r="AI20">
         <v>980</v>
       </c>
       <c r="AJ20">
-        <v>3.15</v>
+        <v>12.5</v>
       </c>
       <c r="AK20">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL20">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM20">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AN20">
-        <v>2.32</v>
+        <v>15</v>
       </c>
       <c r="AO20">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP20">
-        <v>1.27</v>
+        <v>4.2</v>
       </c>
       <c r="AQ20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR20">
-        <v>1.64</v>
+        <v>4.2</v>
       </c>
       <c r="AS20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT20">
-        <v>1.23</v>
+        <v>19.5</v>
       </c>
       <c r="AU20">
         <v>980</v>
       </c>
       <c r="AV20">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="AW20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX20">
-        <v>1.27</v>
+        <v>4.4</v>
       </c>
       <c r="AY20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ20">
-        <v>1.21</v>
+        <v>3.85</v>
       </c>
       <c r="BA20">
         <v>980</v>
       </c>
       <c r="BB20">
-        <v>1.23</v>
+        <v>4</v>
       </c>
       <c r="BC20">
         <v>980</v>
       </c>
       <c r="BD20">
-        <v>1.36</v>
+        <v>4.5</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -5249,67 +5249,67 @@
         <v>140</v>
       </c>
       <c r="F21">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G21">
         <v>7</v>
       </c>
       <c r="H21">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I21">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="J21">
+        <v>4.9</v>
+      </c>
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="K21">
-        <v>5.1</v>
-      </c>
       <c r="L21">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="M21">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="N21">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O21">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="P21">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="Q21">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R21">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S21">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="T21">
         <v>20</v>
       </c>
       <c r="U21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V21">
         <v>10</v>
       </c>
       <c r="W21">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X21">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y21">
         <v>10.5</v>
       </c>
       <c r="Z21">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA21">
         <v>15</v>
@@ -5318,10 +5318,10 @@
         <v>25</v>
       </c>
       <c r="AC21">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE21">
         <v>11</v>
@@ -5339,13 +5339,13 @@
         <v>14.5</v>
       </c>
       <c r="AJ21">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AK21">
         <v>60</v>
       </c>
       <c r="AL21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM21">
         <v>25</v>
@@ -5357,52 +5357,52 @@
         <v>20</v>
       </c>
       <c r="AP21">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AQ21">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AR21">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AS21">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AT21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU21">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AV21">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AW21">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AX21">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY21">
         <v>95</v>
       </c>
       <c r="AZ21">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="BA21">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB21">
         <v>5.7</v>
       </c>
       <c r="BC21">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="BD21">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BE21">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF21" t="s">
         <v>171</v>
@@ -5458,34 +5458,34 @@
         <v>1.46</v>
       </c>
       <c r="J22">
+        <v>5.4</v>
+      </c>
+      <c r="K22">
         <v>5.5</v>
       </c>
-      <c r="K22">
-        <v>5.6</v>
-      </c>
       <c r="L22">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="M22">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="N22">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O22">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P22">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q22">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R22">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="S22">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T22">
         <v>25</v>
@@ -5494,19 +5494,19 @@
         <v>27</v>
       </c>
       <c r="V22">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="W22">
         <v>11.5</v>
       </c>
       <c r="X22">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y22">
         <v>10.5</v>
       </c>
       <c r="Z22">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA22">
         <v>14</v>
@@ -5542,13 +5542,13 @@
         <v>70</v>
       </c>
       <c r="AL22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM22">
         <v>27</v>
       </c>
       <c r="AN22">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO22">
         <v>21</v>
@@ -5569,16 +5569,16 @@
         <v>75</v>
       </c>
       <c r="AU22">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AV22">
         <v>65</v>
       </c>
       <c r="AW22">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AX22">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AY22">
         <v>90</v>
@@ -5587,19 +5587,19 @@
         <v>65</v>
       </c>
       <c r="BA22">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB22">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BC22">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="BD22">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="BE22">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF22" t="s">
         <v>172</v>
@@ -5643,7 +5643,7 @@
         <v>142</v>
       </c>
       <c r="F23">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G23">
         <v>3.35</v>
@@ -5652,16 +5652,16 @@
         <v>2.58</v>
       </c>
       <c r="I23">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J23">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K23">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M23">
         <v>1.73</v>
@@ -5670,16 +5670,16 @@
         <v>2.36</v>
       </c>
       <c r="O23">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="P23">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q23">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R23">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="S23">
         <v>2.1</v>
@@ -5688,7 +5688,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="U23">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="V23">
         <v>8</v>
@@ -5703,37 +5703,37 @@
         <v>16.5</v>
       </c>
       <c r="Z23">
-        <v>27</v>
+        <v>8.4</v>
       </c>
       <c r="AA23">
         <v>40</v>
       </c>
       <c r="AB23">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD23">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE23">
         <v>7.6</v>
       </c>
       <c r="AF23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG23">
         <v>13.5</v>
       </c>
       <c r="AH23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI23">
         <v>34</v>
       </c>
       <c r="AJ23">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK23">
         <v>23</v>
@@ -5748,52 +5748,52 @@
         <v>16.5</v>
       </c>
       <c r="AO23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ23">
         <v>980</v>
       </c>
       <c r="AR23">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AS23">
         <v>980</v>
       </c>
       <c r="AT23">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AU23">
         <v>980</v>
       </c>
       <c r="AV23">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AW23">
         <v>980</v>
       </c>
       <c r="AX23">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AY23">
         <v>980</v>
       </c>
       <c r="AZ23">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="BA23">
         <v>980</v>
       </c>
       <c r="BB23">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="BC23">
         <v>30</v>
       </c>
       <c r="BD23">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5843,10 +5843,10 @@
         <v>3.8</v>
       </c>
       <c r="G24">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I24">
         <v>2.16</v>
@@ -5861,10 +5861,10 @@
         <v>1.73</v>
       </c>
       <c r="M24">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N24">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
         <v>2.38</v>
@@ -5882,115 +5882,115 @@
         <v>2.1</v>
       </c>
       <c r="T24">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U24">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V24">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="W24">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X24">
         <v>10.5</v>
       </c>
       <c r="Y24">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA24">
         <v>30</v>
       </c>
       <c r="AB24">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC24">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AD24">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE24">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF24">
         <v>9.800000000000001</v>
       </c>
       <c r="AG24">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI24">
         <v>29</v>
       </c>
       <c r="AJ24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK24">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM24">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AN24">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP24">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AQ24">
         <v>55</v>
       </c>
       <c r="AR24">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AS24">
         <v>980</v>
       </c>
       <c r="AT24">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AU24">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AV24">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AW24">
         <v>980</v>
       </c>
       <c r="AX24">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="AY24">
         <v>980</v>
       </c>
       <c r="AZ24">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="BA24">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="BB24">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="BC24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BD24">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -6037,157 +6037,157 @@
         <v>144</v>
       </c>
       <c r="F25">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="G25">
-        <v>14.5</v>
+        <v>7.4</v>
       </c>
       <c r="H25">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="I25">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="J25">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="K25">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="L25">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="M25">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="N25">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
       <c r="O25">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="P25">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="Q25">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="R25">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1000</v>
+        <v>1.92</v>
       </c>
       <c r="T25">
-        <v>1.49</v>
+        <v>5.2</v>
       </c>
       <c r="U25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V25">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="W25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X25">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="Y25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z25">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="AA25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB25">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AC25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD25">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AE25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF25">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AG25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH25">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="AI25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ25">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="AK25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL25">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="AM25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN25">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="AO25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP25">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="AQ25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR25">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="AS25">
         <v>1000</v>
       </c>
       <c r="AT25">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="AU25">
         <v>1000</v>
       </c>
       <c r="AV25">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="AW25">
         <v>1000</v>
       </c>
       <c r="AX25">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="AY25">
         <v>1000</v>
       </c>
       <c r="AZ25">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="BA25">
         <v>1000</v>
       </c>
       <c r="BB25">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="BC25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD25">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -6234,157 +6234,157 @@
         <v>145</v>
       </c>
       <c r="F26">
-        <v>1.12</v>
+        <v>2.12</v>
       </c>
       <c r="G26">
-        <v>980</v>
+        <v>2.46</v>
       </c>
       <c r="H26">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="J26">
-        <v>1.2</v>
+        <v>3.15</v>
       </c>
       <c r="K26">
-        <v>330</v>
+        <v>3.75</v>
       </c>
       <c r="L26">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="M26">
-        <v>5.3</v>
+        <v>1.81</v>
       </c>
       <c r="N26">
-        <v>1.23</v>
+        <v>2.22</v>
       </c>
       <c r="O26">
+        <v>2.64</v>
+      </c>
+      <c r="P26">
+        <v>1.91</v>
+      </c>
+      <c r="Q26">
+        <v>2.24</v>
+      </c>
+      <c r="R26">
+        <v>1.81</v>
+      </c>
+      <c r="S26">
+        <v>2.1</v>
+      </c>
+      <c r="T26">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U26">
+        <v>980</v>
+      </c>
+      <c r="V26">
         <v>4.6</v>
       </c>
-      <c r="P26">
-        <v>1.01</v>
-      </c>
-      <c r="Q26">
-        <v>1000</v>
-      </c>
-      <c r="R26">
-        <v>1.01</v>
-      </c>
-      <c r="S26">
-        <v>1000</v>
-      </c>
-      <c r="T26">
-        <v>1.49</v>
-      </c>
-      <c r="U26">
-        <v>1000</v>
-      </c>
-      <c r="V26">
-        <v>1.01</v>
-      </c>
       <c r="W26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X26">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="Y26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z26">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AA26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB26">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AC26">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD26">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AE26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF26">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="AG26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH26">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AI26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ26">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AK26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL26">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AM26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN26">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AO26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP26">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AQ26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR26">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AS26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT26">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AU26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV26">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AW26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX26">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AY26">
         <v>1000</v>
       </c>
       <c r="AZ26">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="BA26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB26">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BC26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD26">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6431,34 +6431,34 @@
         <v>146</v>
       </c>
       <c r="F27">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G27">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H27">
         <v>2.3</v>
       </c>
       <c r="I27">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J27">
         <v>3.25</v>
       </c>
       <c r="K27">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L27">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="M27">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="N27">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O27">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="P27">
         <v>1.96</v>
@@ -6467,7 +6467,7 @@
         <v>2.06</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S27">
         <v>2.04</v>
@@ -6476,7 +6476,7 @@
         <v>9.4</v>
       </c>
       <c r="U27">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="V27">
         <v>6.4</v>
@@ -6491,7 +6491,7 @@
         <v>16.5</v>
       </c>
       <c r="Z27">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AA27">
         <v>40</v>
@@ -6500,7 +6500,7 @@
         <v>10</v>
       </c>
       <c r="AC27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD27">
         <v>6.6</v>
@@ -6515,7 +6515,7 @@
         <v>14.5</v>
       </c>
       <c r="AH27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27">
         <v>36</v>
@@ -6539,49 +6539,49 @@
         <v>26</v>
       </c>
       <c r="AP27">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="AQ27">
         <v>65</v>
       </c>
       <c r="AR27">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="AS27">
         <v>90</v>
       </c>
       <c r="AT27">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AU27">
         <v>60</v>
       </c>
       <c r="AV27">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AW27">
         <v>85</v>
       </c>
       <c r="AX27">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="AY27">
         <v>980</v>
       </c>
       <c r="AZ27">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="BA27">
         <v>70</v>
       </c>
       <c r="BB27">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="BC27">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6628,25 +6628,25 @@
         <v>147</v>
       </c>
       <c r="F28">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H28">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I28">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J28">
         <v>3.15</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M28">
         <v>1.76</v>
@@ -6655,67 +6655,67 @@
         <v>2.32</v>
       </c>
       <c r="O28">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="P28">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q28">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R28">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S28">
         <v>2.04</v>
       </c>
       <c r="T28">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="U28">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V28">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="W28">
+        <v>9.4</v>
+      </c>
+      <c r="X28">
+        <v>14.5</v>
+      </c>
+      <c r="Y28">
+        <v>18</v>
+      </c>
+      <c r="Z28">
+        <v>7.2</v>
+      </c>
+      <c r="AA28">
+        <v>46</v>
+      </c>
+      <c r="AB28">
+        <v>9</v>
+      </c>
+      <c r="AC28">
         <v>10.5</v>
-      </c>
-      <c r="X28">
-        <v>15</v>
-      </c>
-      <c r="Y28">
-        <v>18.5</v>
-      </c>
-      <c r="Z28">
-        <v>5.9</v>
-      </c>
-      <c r="AA28">
-        <v>980</v>
-      </c>
-      <c r="AB28">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC28">
-        <v>11</v>
       </c>
       <c r="AD28">
         <v>6.6</v>
       </c>
       <c r="AE28">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AF28">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG28">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI28">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ28">
         <v>14.5</v>
@@ -6727,58 +6727,58 @@
         <v>12</v>
       </c>
       <c r="AM28">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN28">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO28">
         <v>23</v>
       </c>
       <c r="AP28">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AQ28">
         <v>980</v>
       </c>
       <c r="AR28">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AS28">
         <v>980</v>
       </c>
       <c r="AT28">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AU28">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AV28">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AW28">
         <v>980</v>
       </c>
       <c r="AX28">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY28">
         <v>980</v>
       </c>
       <c r="AZ28">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="BA28">
         <v>980</v>
       </c>
       <c r="BB28">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="BC28">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BD28">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -6825,157 +6825,157 @@
         <v>148</v>
       </c>
       <c r="F29">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="G29">
-        <v>1.89</v>
+        <v>1.37</v>
       </c>
       <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>5.3</v>
+      </c>
+      <c r="K29">
+        <v>6.2</v>
+      </c>
+      <c r="L29">
+        <v>2.2</v>
+      </c>
+      <c r="M29">
+        <v>2.58</v>
+      </c>
+      <c r="N29">
+        <v>1.64</v>
+      </c>
+      <c r="O29">
+        <v>1.82</v>
+      </c>
+      <c r="P29">
+        <v>2.12</v>
+      </c>
+      <c r="Q29">
+        <v>2.36</v>
+      </c>
+      <c r="R29">
+        <v>1.74</v>
+      </c>
+      <c r="S29">
+        <v>1.9</v>
+      </c>
+      <c r="T29">
+        <v>17.5</v>
+      </c>
+      <c r="U29">
+        <v>25</v>
+      </c>
+      <c r="V29">
         <v>5</v>
       </c>
-      <c r="I29">
-        <v>980</v>
-      </c>
-      <c r="J29">
-        <v>3.7</v>
-      </c>
-      <c r="K29">
-        <v>980</v>
-      </c>
-      <c r="L29">
-        <v>1.27</v>
-      </c>
-      <c r="M29">
-        <v>970</v>
-      </c>
-      <c r="N29">
-        <v>1.03</v>
-      </c>
-      <c r="O29">
-        <v>4.6</v>
-      </c>
-      <c r="P29">
-        <v>1.01</v>
-      </c>
-      <c r="Q29">
-        <v>1000</v>
-      </c>
-      <c r="R29">
-        <v>1.01</v>
-      </c>
-      <c r="S29">
-        <v>1000</v>
-      </c>
-      <c r="T29">
-        <v>1.47</v>
-      </c>
-      <c r="U29">
-        <v>1000</v>
-      </c>
-      <c r="V29">
-        <v>1.01</v>
-      </c>
       <c r="W29">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="X29">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="Y29">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z29">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="AA29">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB29">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AC29">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD29">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AE29">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF29">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="AG29">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AH29">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="AI29">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ29">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AK29">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL29">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM29">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AN29">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="AO29">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AP29">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="AQ29">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR29">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AS29">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AT29">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AU29">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AV29">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="AW29">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AX29">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="AY29">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ29">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="BA29">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="BB29">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="BC29">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD29">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BE29">
         <v>1000</v>
@@ -7022,157 +7022,157 @@
         <v>149</v>
       </c>
       <c r="F30">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G30">
-        <v>3.95</v>
+        <v>2.1</v>
       </c>
       <c r="H30">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="I30">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="J30">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="K30">
+        <v>3.5</v>
+      </c>
+      <c r="L30">
+        <v>1.61</v>
+      </c>
+      <c r="M30">
+        <v>1.67</v>
+      </c>
+      <c r="N30">
+        <v>2.48</v>
+      </c>
+      <c r="O30">
+        <v>2.62</v>
+      </c>
+      <c r="P30">
+        <v>2.08</v>
+      </c>
+      <c r="Q30">
+        <v>2.24</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>1.92</v>
+      </c>
+      <c r="T30">
+        <v>8.6</v>
+      </c>
+      <c r="U30">
         <v>9.6</v>
       </c>
-      <c r="L30">
-        <v>1.46</v>
-      </c>
-      <c r="M30">
-        <v>2.08</v>
-      </c>
-      <c r="N30">
-        <v>1.94</v>
-      </c>
-      <c r="O30">
-        <v>3.15</v>
-      </c>
-      <c r="P30">
-        <v>1.01</v>
-      </c>
-      <c r="Q30">
-        <v>1000</v>
-      </c>
-      <c r="R30">
-        <v>1.01</v>
-      </c>
-      <c r="S30">
-        <v>1000</v>
-      </c>
-      <c r="T30">
-        <v>1.49</v>
-      </c>
-      <c r="U30">
-        <v>1000</v>
-      </c>
       <c r="V30">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="W30">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X30">
-        <v>1.01</v>
+        <v>27</v>
       </c>
       <c r="Y30">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z30">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AA30">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB30">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AC30">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD30">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AE30">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AF30">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="AG30">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH30">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="AI30">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ30">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK30">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AL30">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AM30">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AN30">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="AO30">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AP30">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AQ30">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AR30">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="AS30">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AT30">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="AU30">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV30">
-        <v>1.01</v>
+        <v>42</v>
       </c>
       <c r="AW30">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX30">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY30">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AZ30">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="BA30">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="BB30">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BC30">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="BD30">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -7219,157 +7219,157 @@
         <v>150</v>
       </c>
       <c r="F31">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="G31">
-        <v>10.5</v>
+        <v>5.1</v>
       </c>
       <c r="H31">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="I31">
-        <v>2.8</v>
+        <v>2.06</v>
       </c>
       <c r="J31">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="K31">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="L31">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="M31">
-        <v>2.28</v>
+        <v>1.72</v>
       </c>
       <c r="N31">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>2.48</v>
       </c>
       <c r="P31">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="Q31">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="R31">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="T31">
-        <v>1.49</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U31">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="V31">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="W31">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="X31">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y31">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z31">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AA31">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB31">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AC31">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD31">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AE31">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF31">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG31">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH31">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="AI31">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AJ31">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AK31">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL31">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AM31">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AN31">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="AO31">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AP31">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AQ31">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AR31">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AS31">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT31">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AU31">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV31">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AW31">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX31">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AY31">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ31">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BA31">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB31">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BC31">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="BD31">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7416,157 +7416,157 @@
         <v>151</v>
       </c>
       <c r="F32">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G32">
-        <v>3.05</v>
+        <v>2.56</v>
       </c>
       <c r="H32">
+        <v>3.3</v>
+      </c>
+      <c r="I32">
+        <v>3.95</v>
+      </c>
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="I32">
+      <c r="K32">
+        <v>3.65</v>
+      </c>
+      <c r="L32">
+        <v>1.65</v>
+      </c>
+      <c r="M32">
+        <v>1.89</v>
+      </c>
+      <c r="N32">
+        <v>2.12</v>
+      </c>
+      <c r="O32">
+        <v>2.54</v>
+      </c>
+      <c r="P32">
+        <v>1.86</v>
+      </c>
+      <c r="Q32">
+        <v>2.18</v>
+      </c>
+      <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2.16</v>
+      </c>
+      <c r="T32">
+        <v>4.2</v>
+      </c>
+      <c r="U32">
+        <v>980</v>
+      </c>
+      <c r="V32">
+        <v>4.4</v>
+      </c>
+      <c r="W32">
+        <v>980</v>
+      </c>
+      <c r="X32">
+        <v>5.3</v>
+      </c>
+      <c r="Y32">
+        <v>980</v>
+      </c>
+      <c r="Z32">
+        <v>6</v>
+      </c>
+      <c r="AA32">
+        <v>980</v>
+      </c>
+      <c r="AB32">
+        <v>3.9</v>
+      </c>
+      <c r="AC32">
+        <v>980</v>
+      </c>
+      <c r="AD32">
+        <v>6.2</v>
+      </c>
+      <c r="AE32">
+        <v>980</v>
+      </c>
+      <c r="AF32">
         <v>4.7</v>
       </c>
-      <c r="J32">
-        <v>2.96</v>
-      </c>
-      <c r="K32">
-        <v>4.6</v>
-      </c>
-      <c r="L32">
-        <v>1.38</v>
-      </c>
-      <c r="M32">
-        <v>2.18</v>
-      </c>
-      <c r="N32">
-        <v>1.86</v>
-      </c>
-      <c r="O32">
-        <v>3.6</v>
-      </c>
-      <c r="P32">
-        <v>1.01</v>
-      </c>
-      <c r="Q32">
-        <v>1000</v>
-      </c>
-      <c r="R32">
-        <v>1.01</v>
-      </c>
-      <c r="S32">
-        <v>1000</v>
-      </c>
-      <c r="T32">
-        <v>1.48</v>
-      </c>
-      <c r="U32">
-        <v>1000</v>
-      </c>
-      <c r="V32">
-        <v>1.01</v>
-      </c>
-      <c r="W32">
-        <v>1000</v>
-      </c>
-      <c r="X32">
-        <v>1.01</v>
-      </c>
-      <c r="Y32">
-        <v>1000</v>
-      </c>
-      <c r="Z32">
-        <v>1.01</v>
-      </c>
-      <c r="AA32">
-        <v>1000</v>
-      </c>
-      <c r="AB32">
-        <v>1.01</v>
-      </c>
-      <c r="AC32">
-        <v>1000</v>
-      </c>
-      <c r="AD32">
-        <v>1.01</v>
-      </c>
-      <c r="AE32">
-        <v>1000</v>
-      </c>
-      <c r="AF32">
-        <v>1.01</v>
-      </c>
       <c r="AG32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH32">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AI32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ32">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AK32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL32">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AM32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN32">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="AO32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP32">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AQ32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR32">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="AS32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT32">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="AU32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV32">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AW32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX32">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AY32">
         <v>1000</v>
       </c>
       <c r="AZ32">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="BA32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB32">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="BC32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD32">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BE32">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="307">
   <si>
     <t>League</t>
   </si>
@@ -751,6 +751,9 @@
     <t>1.227671625</t>
   </si>
   <si>
+    <t>1.227809566</t>
+  </si>
+  <si>
     <t>1.227885176</t>
   </si>
   <si>
@@ -839,6 +842,9 @@
   </si>
   <si>
     <t>1.227671640</t>
+  </si>
+  <si>
+    <t>1.227809491</t>
   </si>
   <si>
     <t>1.227885186</t>
@@ -1506,160 +1512,160 @@
         <v>121</v>
       </c>
       <c r="F2">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G2">
         <v>2.68</v>
       </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K2">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L2">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="M2">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="N2">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="O2">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2" t="s">
         <v>152</v>
@@ -1679,11 +1685,11 @@
       <c r="BK2" t="s">
         <v>214</v>
       </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+      <c r="BL2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1703,37 +1709,37 @@
         <v>122</v>
       </c>
       <c r="F3">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G3">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="H3">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="I3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J3">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K3">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="M3">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="N3">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O3">
         <v>2.06</v>
       </c>
       <c r="P3">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1742,28 +1748,28 @@
         <v>2.1</v>
       </c>
       <c r="S3">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
         <v>12.5</v>
       </c>
       <c r="U3">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V3">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="W3">
         <v>15.5</v>
       </c>
       <c r="X3">
-        <v>5.4</v>
+        <v>20</v>
       </c>
       <c r="Y3">
         <v>980</v>
       </c>
       <c r="Z3">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA3">
         <v>980</v>
@@ -1772,7 +1778,7 @@
         <v>9.4</v>
       </c>
       <c r="AC3">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD3">
         <v>7</v>
@@ -1784,10 +1790,10 @@
         <v>12</v>
       </c>
       <c r="AG3">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH3">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AI3">
         <v>980</v>
@@ -1796,7 +1802,7 @@
         <v>12.5</v>
       </c>
       <c r="AK3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3">
         <v>9.6</v>
@@ -1811,49 +1817,49 @@
         <v>19</v>
       </c>
       <c r="AP3">
+        <v>6.4</v>
+      </c>
+      <c r="AQ3">
+        <v>980</v>
+      </c>
+      <c r="AR3">
+        <v>5.9</v>
+      </c>
+      <c r="AS3">
+        <v>980</v>
+      </c>
+      <c r="AT3">
+        <v>5.6</v>
+      </c>
+      <c r="AU3">
+        <v>980</v>
+      </c>
+      <c r="AV3">
         <v>6</v>
       </c>
-      <c r="AQ3">
-        <v>980</v>
-      </c>
-      <c r="AR3">
-        <v>5.7</v>
-      </c>
-      <c r="AS3">
-        <v>980</v>
-      </c>
-      <c r="AT3">
-        <v>5.4</v>
-      </c>
-      <c r="AU3">
-        <v>980</v>
-      </c>
-      <c r="AV3">
-        <v>5.8</v>
-      </c>
       <c r="AW3">
         <v>980</v>
       </c>
       <c r="AX3">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AY3">
         <v>980</v>
       </c>
       <c r="AZ3">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BA3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB3">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="BC3">
         <v>980</v>
       </c>
       <c r="BD3">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1877,10 +1883,10 @@
         <v>215</v>
       </c>
       <c r="BL3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BM3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1903,154 +1909,154 @@
         <v>2.2</v>
       </c>
       <c r="G4">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J4">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L4">
         <v>1.46</v>
       </c>
       <c r="M4">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="N4">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="P4">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q4">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="R4">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="S4">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T4">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="U4">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="V4">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="W4">
         <v>980</v>
       </c>
       <c r="X4">
-        <v>5.8</v>
+        <v>20</v>
       </c>
       <c r="Y4">
         <v>980</v>
       </c>
       <c r="Z4">
-        <v>4.2</v>
+        <v>2.08</v>
       </c>
       <c r="AA4">
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>3.75</v>
+        <v>6.2</v>
       </c>
       <c r="AC4">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AD4">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AE4">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AF4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AG4">
         <v>980</v>
       </c>
       <c r="AH4">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="AI4">
         <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK4">
         <v>980</v>
       </c>
       <c r="AL4">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM4">
         <v>980</v>
       </c>
       <c r="AN4">
-        <v>5.9</v>
+        <v>20</v>
       </c>
       <c r="AO4">
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AQ4">
         <v>1000</v>
       </c>
       <c r="AR4">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="AS4">
         <v>980</v>
       </c>
       <c r="AT4">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AU4">
         <v>980</v>
       </c>
       <c r="AV4">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="AW4">
         <v>1000</v>
       </c>
       <c r="AX4">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="AY4">
         <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>1.22</v>
+        <v>1.97</v>
       </c>
       <c r="BA4">
         <v>980</v>
       </c>
       <c r="BB4">
-        <v>1.22</v>
+        <v>2.08</v>
       </c>
       <c r="BC4">
         <v>1000</v>
       </c>
       <c r="BD4">
-        <v>7.2</v>
+        <v>2.08</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -2074,10 +2080,10 @@
         <v>216</v>
       </c>
       <c r="BL4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BM4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2097,49 +2103,49 @@
         <v>124</v>
       </c>
       <c r="F5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G5">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H5">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J5">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L5">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="N5">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O5">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P5">
         <v>1.59</v>
       </c>
       <c r="Q5">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R5">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="S5">
         <v>2.68</v>
       </c>
       <c r="T5">
-        <v>3.8</v>
+        <v>17</v>
       </c>
       <c r="U5">
         <v>980</v>
@@ -2157,13 +2163,13 @@
         <v>980</v>
       </c>
       <c r="Z5">
-        <v>3.85</v>
+        <v>19.5</v>
       </c>
       <c r="AA5">
         <v>980</v>
       </c>
       <c r="AB5">
-        <v>3.65</v>
+        <v>16</v>
       </c>
       <c r="AC5">
         <v>980</v>
@@ -2172,7 +2178,7 @@
         <v>7.6</v>
       </c>
       <c r="AE5">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF5">
         <v>9.800000000000001</v>
@@ -2181,13 +2187,13 @@
         <v>13.5</v>
       </c>
       <c r="AH5">
-        <v>3.95</v>
+        <v>17</v>
       </c>
       <c r="AI5">
         <v>980</v>
       </c>
       <c r="AJ5">
-        <v>4.1</v>
+        <v>24</v>
       </c>
       <c r="AK5">
         <v>980</v>
@@ -2202,55 +2208,55 @@
         <v>14</v>
       </c>
       <c r="AO5">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AP5">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="AQ5">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AR5">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="AS5">
         <v>980</v>
       </c>
       <c r="AT5">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AU5">
         <v>980</v>
       </c>
       <c r="AV5">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="AW5">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AX5">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AY5">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AZ5">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="BA5">
         <v>980</v>
       </c>
       <c r="BB5">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="BC5">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="BD5">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="BE5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF5" t="s">
         <v>155</v>
@@ -2271,10 +2277,10 @@
         <v>217</v>
       </c>
       <c r="BL5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BM5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2294,43 +2300,43 @@
         <v>125</v>
       </c>
       <c r="F6">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G6">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J6">
         <v>3.55</v>
       </c>
       <c r="K6">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L6">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="N6">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="O6">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P6">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
       </c>
       <c r="R6">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S6">
         <v>2.24</v>
@@ -2342,19 +2348,19 @@
         <v>980</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="W6">
         <v>980</v>
       </c>
       <c r="X6">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Y6">
         <v>980</v>
       </c>
       <c r="Z6">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AA6">
         <v>980</v>
@@ -2372,13 +2378,13 @@
         <v>9.4</v>
       </c>
       <c r="AF6">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AG6">
         <v>980</v>
       </c>
       <c r="AH6">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AI6">
         <v>980</v>
@@ -2393,7 +2399,7 @@
         <v>9</v>
       </c>
       <c r="AM6">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN6">
         <v>15</v>
@@ -2402,13 +2408,13 @@
         <v>980</v>
       </c>
       <c r="AP6">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ6">
         <v>980</v>
       </c>
       <c r="AR6">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AS6">
         <v>980</v>
@@ -2420,31 +2426,31 @@
         <v>980</v>
       </c>
       <c r="AV6">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AW6">
         <v>980</v>
       </c>
       <c r="AX6">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AY6">
         <v>980</v>
       </c>
       <c r="AZ6">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BA6">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="BB6">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="BC6">
         <v>980</v>
       </c>
       <c r="BD6">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2468,10 +2474,10 @@
         <v>218</v>
       </c>
       <c r="BL6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BM6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2497,10 +2503,10 @@
         <v>1.84</v>
       </c>
       <c r="H7">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J7">
         <v>3.75</v>
@@ -2509,13 +2515,13 @@
         <v>4.3</v>
       </c>
       <c r="L7">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="M7">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="N7">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O7">
         <v>2.14</v>
@@ -2539,7 +2545,7 @@
         <v>980</v>
       </c>
       <c r="V7">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="W7">
         <v>980</v>
@@ -2575,7 +2581,7 @@
         <v>980</v>
       </c>
       <c r="AH7">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI7">
         <v>980</v>
@@ -2599,19 +2605,19 @@
         <v>980</v>
       </c>
       <c r="AP7">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AQ7">
         <v>980</v>
       </c>
       <c r="AR7">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AS7">
         <v>980</v>
       </c>
       <c r="AT7">
-        <v>15.5</v>
+        <v>5.5</v>
       </c>
       <c r="AU7">
         <v>980</v>
@@ -2665,10 +2671,10 @@
         <v>219</v>
       </c>
       <c r="BL7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BM7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2688,43 +2694,43 @@
         <v>127</v>
       </c>
       <c r="F8">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="G8">
-        <v>2.7</v>
+        <v>980</v>
       </c>
       <c r="H8">
-        <v>3.1</v>
+        <v>1.42</v>
       </c>
       <c r="I8">
-        <v>5.3</v>
+        <v>870</v>
       </c>
       <c r="J8">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K8">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="M8">
-        <v>2.24</v>
+        <v>26</v>
       </c>
       <c r="N8">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="O8">
-        <v>2.72</v>
+        <v>4.6</v>
       </c>
       <c r="P8">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="Q8">
         <v>1000</v>
       </c>
       <c r="R8">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="S8">
         <v>1000</v>
@@ -2862,10 +2868,10 @@
         <v>220</v>
       </c>
       <c r="BL8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BM8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2885,55 +2891,55 @@
         <v>128</v>
       </c>
       <c r="F9">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G9">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H9">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I9">
         <v>1.4</v>
       </c>
       <c r="J9">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L9">
         <v>3.05</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="O9">
         <v>1.49</v>
       </c>
       <c r="P9">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="Q9">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R9">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="S9">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="T9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="V9">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="W9">
         <v>13.5</v>
@@ -2954,16 +2960,16 @@
         <v>36</v>
       </c>
       <c r="AC9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AD9">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE9">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF9">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG9">
         <v>10.5</v>
@@ -2972,22 +2978,22 @@
         <v>12</v>
       </c>
       <c r="AI9">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ9">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AK9">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AL9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AN9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO9">
         <v>22</v>
@@ -2996,46 +3002,46 @@
         <v>23</v>
       </c>
       <c r="AQ9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR9">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AS9">
-        <v>280</v>
+        <v>980</v>
       </c>
       <c r="AT9">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AU9">
         <v>110</v>
       </c>
       <c r="AV9">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AW9">
         <v>85</v>
       </c>
       <c r="AX9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY9">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AZ9">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA9">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BB9">
         <v>4</v>
       </c>
       <c r="BC9">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BD9">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BE9">
         <v>980</v>
@@ -3059,10 +3065,10 @@
         <v>221</v>
       </c>
       <c r="BL9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BM9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3082,157 +3088,157 @@
         <v>129</v>
       </c>
       <c r="F10">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G10">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H10">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I10">
         <v>2.02</v>
       </c>
       <c r="J10">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K10">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L10">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="M10">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="N10">
         <v>2.02</v>
       </c>
       <c r="O10">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="P10">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q10">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R10">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S10">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T10">
         <v>11.5</v>
       </c>
       <c r="U10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V10">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="W10">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="X10">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y10">
+        <v>12</v>
+      </c>
+      <c r="Z10">
+        <v>20</v>
+      </c>
+      <c r="AA10">
+        <v>23</v>
+      </c>
+      <c r="AB10">
         <v>13.5</v>
       </c>
-      <c r="Z10">
-        <v>17</v>
-      </c>
-      <c r="AA10">
-        <v>29</v>
-      </c>
-      <c r="AB10">
-        <v>13</v>
-      </c>
       <c r="AC10">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AD10">
         <v>7.6</v>
       </c>
       <c r="AE10">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF10">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG10">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH10">
+        <v>19</v>
+      </c>
+      <c r="AI10">
+        <v>22</v>
+      </c>
+      <c r="AJ10">
+        <v>27</v>
+      </c>
+      <c r="AK10">
+        <v>32</v>
+      </c>
+      <c r="AL10">
+        <v>15.5</v>
+      </c>
+      <c r="AM10">
+        <v>17.5</v>
+      </c>
+      <c r="AN10">
         <v>18</v>
       </c>
-      <c r="AI10">
-        <v>27</v>
-      </c>
-      <c r="AJ10">
-        <v>25</v>
-      </c>
-      <c r="AK10">
-        <v>38</v>
-      </c>
-      <c r="AL10">
-        <v>14</v>
-      </c>
-      <c r="AM10">
-        <v>21</v>
-      </c>
-      <c r="AN10">
-        <v>16.5</v>
-      </c>
       <c r="AO10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AP10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ10">
+        <v>40</v>
+      </c>
+      <c r="AR10">
+        <v>14.5</v>
+      </c>
+      <c r="AS10">
+        <v>95</v>
+      </c>
+      <c r="AT10">
+        <v>40</v>
+      </c>
+      <c r="AU10">
+        <v>55</v>
+      </c>
+      <c r="AV10">
         <v>48</v>
       </c>
-      <c r="AR10">
-        <v>4.8</v>
-      </c>
-      <c r="AS10">
-        <v>110</v>
-      </c>
-      <c r="AT10">
-        <v>5</v>
-      </c>
-      <c r="AU10">
-        <v>70</v>
-      </c>
-      <c r="AV10">
-        <v>4.8</v>
-      </c>
       <c r="AW10">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AX10">
-        <v>4.9</v>
+        <v>14.5</v>
       </c>
       <c r="AY10">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AZ10">
-        <v>6.2</v>
+        <v>32</v>
       </c>
       <c r="BA10">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BB10">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="BC10">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="BD10">
-        <v>6.6</v>
+        <v>16</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -3256,10 +3262,10 @@
         <v>222</v>
       </c>
       <c r="BL10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BM10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3279,55 +3285,55 @@
         <v>130</v>
       </c>
       <c r="F11">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H11">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I11">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K11">
         <v>3.7</v>
       </c>
       <c r="L11">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <v>2.06</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="O11">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q11">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R11">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S11">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T11">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U11">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="V11">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="W11">
         <v>10.5</v>
@@ -3336,46 +3342,46 @@
         <v>12.5</v>
       </c>
       <c r="Y11">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z11">
+        <v>25</v>
+      </c>
+      <c r="AA11">
+        <v>29</v>
+      </c>
+      <c r="AB11">
+        <v>13</v>
+      </c>
+      <c r="AC11">
+        <v>14</v>
+      </c>
+      <c r="AD11">
+        <v>7.4</v>
+      </c>
+      <c r="AE11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>10</v>
+      </c>
+      <c r="AG11">
+        <v>11</v>
+      </c>
+      <c r="AH11">
+        <v>21</v>
+      </c>
+      <c r="AI11">
         <v>23</v>
       </c>
-      <c r="AA11">
-        <v>32</v>
-      </c>
-      <c r="AB11">
-        <v>12.5</v>
-      </c>
-      <c r="AC11">
-        <v>15.5</v>
-      </c>
-      <c r="AD11">
-        <v>7.2</v>
-      </c>
-      <c r="AE11">
-        <v>8.4</v>
-      </c>
-      <c r="AF11">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG11">
-        <v>11.5</v>
-      </c>
-      <c r="AH11">
-        <v>20</v>
-      </c>
-      <c r="AI11">
-        <v>26</v>
-      </c>
       <c r="AJ11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL11">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM11">
         <v>16.5</v>
@@ -3384,52 +3390,52 @@
         <v>16</v>
       </c>
       <c r="AO11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP11">
-        <v>7.4</v>
+        <v>32</v>
       </c>
       <c r="AQ11">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AR11">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="AS11">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AT11">
-        <v>7.2</v>
+        <v>36</v>
       </c>
       <c r="AU11">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AV11">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="AW11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AX11">
-        <v>7.4</v>
+        <v>16.5</v>
       </c>
       <c r="AY11">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AZ11">
-        <v>6.6</v>
+        <v>24</v>
       </c>
       <c r="BA11">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BB11">
-        <v>5.5</v>
+        <v>14.5</v>
       </c>
       <c r="BC11">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="BD11">
-        <v>8.4</v>
+        <v>17</v>
       </c>
       <c r="BE11">
         <v>980</v>
@@ -3453,10 +3459,10 @@
         <v>223</v>
       </c>
       <c r="BL11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BM11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3476,61 +3482,61 @@
         <v>131</v>
       </c>
       <c r="F12">
+        <v>2.34</v>
+      </c>
+      <c r="G12">
         <v>2.38</v>
       </c>
-      <c r="G12">
-        <v>2.42</v>
-      </c>
       <c r="H12">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I12">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J12">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="M12">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="N12">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="O12">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="P12">
+        <v>1.97</v>
+      </c>
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>2.04</v>
-      </c>
-      <c r="R12">
-        <v>1.96</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
       </c>
       <c r="T12">
         <v>9.6</v>
       </c>
       <c r="U12">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W12">
         <v>11.5</v>
       </c>
       <c r="X12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y12">
         <v>23</v>
@@ -3560,7 +3566,7 @@
         <v>15</v>
       </c>
       <c r="AH12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI12">
         <v>48</v>
@@ -3578,7 +3584,7 @@
         <v>11.5</v>
       </c>
       <c r="AN12">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO12">
         <v>23</v>
@@ -3602,7 +3608,7 @@
         <v>30</v>
       </c>
       <c r="AV12">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AW12">
         <v>50</v>
@@ -3614,19 +3620,19 @@
         <v>140</v>
       </c>
       <c r="AZ12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA12">
         <v>26</v>
       </c>
       <c r="BB12">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="BC12">
         <v>55</v>
       </c>
       <c r="BD12">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3650,10 +3656,10 @@
         <v>224</v>
       </c>
       <c r="BL12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BM12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3673,13 +3679,13 @@
         <v>132</v>
       </c>
       <c r="F13">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G13">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H13">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I13">
         <v>3.45</v>
@@ -3688,142 +3694,142 @@
         <v>3.3</v>
       </c>
       <c r="K13">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="M13">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N13">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="P13">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q13">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="R13">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="S13">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T13">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="U13">
         <v>12</v>
       </c>
       <c r="V13">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="W13">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X13">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z13">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AA13">
         <v>70</v>
       </c>
       <c r="AB13">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC13">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13">
         <v>6.4</v>
       </c>
       <c r="AE13">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AF13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG13">
         <v>16</v>
       </c>
       <c r="AH13">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI13">
         <v>46</v>
       </c>
       <c r="AJ13">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK13">
         <v>16</v>
       </c>
       <c r="AL13">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AM13">
         <v>13</v>
       </c>
       <c r="AN13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO13">
         <v>22</v>
       </c>
       <c r="AP13">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AQ13">
         <v>65</v>
       </c>
       <c r="AR13">
-        <v>6.2</v>
+        <v>26</v>
       </c>
       <c r="AS13">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AT13">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AU13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AV13">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AW13">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX13">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AY13">
         <v>140</v>
       </c>
       <c r="AZ13">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="BA13">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB13">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="BC13">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BD13">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -3847,10 +3853,10 @@
         <v>225</v>
       </c>
       <c r="BL13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BM13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3870,34 +3876,34 @@
         <v>133</v>
       </c>
       <c r="F14">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G14">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H14">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I14">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="J14">
         <v>3.7</v>
       </c>
       <c r="K14">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L14">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="M14">
         <v>2.26</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O14">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="P14">
         <v>1.69</v>
@@ -3909,118 +3915,118 @@
         <v>2.3</v>
       </c>
       <c r="S14">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T14">
         <v>13.5</v>
       </c>
       <c r="U14">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="V14">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="W14">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X14">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y14">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z14">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="AA14">
         <v>32</v>
       </c>
       <c r="AB14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC14">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AD14">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AE14">
         <v>8.800000000000001</v>
       </c>
       <c r="AF14">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AG14">
         <v>11.5</v>
       </c>
       <c r="AH14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14">
         <v>27</v>
       </c>
       <c r="AL14">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM14">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AN14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO14">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP14">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="AQ14">
         <v>38</v>
       </c>
       <c r="AR14">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AS14">
         <v>65</v>
       </c>
       <c r="AT14">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU14">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AV14">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW14">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AX14">
-        <v>7.2</v>
+        <v>70</v>
       </c>
       <c r="AY14">
         <v>90</v>
       </c>
       <c r="AZ14">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA14">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB14">
-        <v>5.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC14">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BD14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE14">
         <v>980</v>
@@ -4044,10 +4050,10 @@
         <v>226</v>
       </c>
       <c r="BL14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BM14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4067,43 +4073,43 @@
         <v>134</v>
       </c>
       <c r="F15">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G15">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H15">
         <v>3.55</v>
       </c>
       <c r="I15">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J15">
         <v>3.35</v>
       </c>
       <c r="K15">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L15">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="M15">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="N15">
         <v>2.02</v>
       </c>
       <c r="O15">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="P15">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q15">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R15">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="S15">
         <v>2.12</v>
@@ -4118,16 +4124,16 @@
         <v>11</v>
       </c>
       <c r="W15">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="X15">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y15">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Z15">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="AA15">
         <v>980</v>
@@ -4139,7 +4145,7 @@
         <v>980</v>
       </c>
       <c r="AD15">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AE15">
         <v>980</v>
@@ -4151,43 +4157,43 @@
         <v>980</v>
       </c>
       <c r="AH15">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AI15">
         <v>980</v>
       </c>
       <c r="AJ15">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK15">
         <v>980</v>
       </c>
       <c r="AL15">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AM15">
         <v>980</v>
       </c>
       <c r="AN15">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO15">
         <v>980</v>
       </c>
       <c r="AP15">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AQ15">
         <v>980</v>
       </c>
       <c r="AR15">
-        <v>5.6</v>
+        <v>22</v>
       </c>
       <c r="AS15">
         <v>980</v>
       </c>
       <c r="AT15">
-        <v>5.5</v>
+        <v>19.5</v>
       </c>
       <c r="AU15">
         <v>980</v>
@@ -4199,7 +4205,7 @@
         <v>980</v>
       </c>
       <c r="AX15">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AY15">
         <v>1000</v>
@@ -4217,7 +4223,7 @@
         <v>980</v>
       </c>
       <c r="BD15">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -4241,10 +4247,10 @@
         <v>227</v>
       </c>
       <c r="BL15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4264,157 +4270,157 @@
         <v>135</v>
       </c>
       <c r="F16">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="G16">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="H16">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K16">
-        <v>4.4</v>
+        <v>330</v>
       </c>
       <c r="L16">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="N16">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="O16">
+        <v>1.77</v>
+      </c>
+      <c r="P16">
         <v>1.69</v>
       </c>
-      <c r="P16">
-        <v>1.6</v>
-      </c>
       <c r="Q16">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="R16">
-        <v>2.48</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="T16">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="U16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="V16">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="W16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="X16">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="Y16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z16">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AA16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB16">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AC16">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD16">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AE16">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AF16">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="AG16">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AI16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ16">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AK16">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL16">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AM16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN16">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="AO16">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AP16">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AQ16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR16">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="AS16">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AT16">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU16">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AV16">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AW16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX16">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AY16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ16">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="BA16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB16">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="BC16">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD16">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4438,10 +4444,10 @@
         <v>228</v>
       </c>
       <c r="BL16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BM16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4464,154 +4470,154 @@
         <v>11.5</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="H17">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="I17">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K17">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L17">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="M17">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O17">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="P17">
         <v>2.08</v>
       </c>
       <c r="Q17">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S17">
         <v>1.92</v>
       </c>
       <c r="T17">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="U17">
         <v>980</v>
       </c>
       <c r="V17">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="W17">
+        <v>980</v>
+      </c>
+      <c r="X17">
+        <v>7.2</v>
+      </c>
+      <c r="Y17">
+        <v>980</v>
+      </c>
+      <c r="Z17">
+        <v>5.4</v>
+      </c>
+      <c r="AA17">
         <v>10.5</v>
       </c>
-      <c r="X17">
-        <v>6.8</v>
-      </c>
-      <c r="Y17">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z17">
-        <v>8.4</v>
-      </c>
-      <c r="AA17">
-        <v>11.5</v>
-      </c>
       <c r="AB17">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AC17">
         <v>980</v>
       </c>
       <c r="AD17">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE17">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF17">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AG17">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH17">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI17">
         <v>15.5</v>
       </c>
       <c r="AJ17">
-        <v>7.4</v>
+        <v>2.44</v>
       </c>
       <c r="AK17">
         <v>980</v>
       </c>
       <c r="AL17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM17">
         <v>980</v>
       </c>
       <c r="AN17">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO17">
         <v>980</v>
       </c>
       <c r="AP17">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="AQ17">
         <v>980</v>
       </c>
       <c r="AR17">
-        <v>7.8</v>
+        <v>1.59</v>
       </c>
       <c r="AS17">
         <v>1000</v>
       </c>
       <c r="AT17">
-        <v>7.6</v>
+        <v>2.46</v>
       </c>
       <c r="AU17">
         <v>980</v>
       </c>
       <c r="AV17">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="AW17">
         <v>980</v>
       </c>
       <c r="AX17">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="AY17">
         <v>980</v>
       </c>
       <c r="AZ17">
-        <v>7.6</v>
+        <v>1.59</v>
       </c>
       <c r="BA17">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB17">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BC17">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="BD17">
-        <v>7.8</v>
+        <v>1.6</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4635,10 +4641,10 @@
         <v>229</v>
       </c>
       <c r="BL17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BM17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4658,46 +4664,46 @@
         <v>137</v>
       </c>
       <c r="F18">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G18">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H18">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="I18">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="J18">
         <v>3.55</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L18">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="M18">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O18">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="P18">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="Q18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R18">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="S18">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="T18">
         <v>12</v>
@@ -4706,16 +4712,16 @@
         <v>18</v>
       </c>
       <c r="V18">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="W18">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="X18">
         <v>13.5</v>
       </c>
       <c r="Y18">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z18">
         <v>27</v>
@@ -4730,22 +4736,22 @@
         <v>16</v>
       </c>
       <c r="AD18">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE18">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AF18">
         <v>10</v>
       </c>
       <c r="AG18">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH18">
         <v>21</v>
       </c>
       <c r="AI18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ18">
         <v>15.5</v>
@@ -4763,16 +4769,16 @@
         <v>15</v>
       </c>
       <c r="AO18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP18">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AQ18">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AR18">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AS18">
         <v>60</v>
@@ -4784,31 +4790,31 @@
         <v>42</v>
       </c>
       <c r="AV18">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="AW18">
         <v>55</v>
       </c>
       <c r="AX18">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AY18">
         <v>980</v>
       </c>
       <c r="AZ18">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="BA18">
         <v>34</v>
       </c>
       <c r="BB18">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="BC18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD18">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="BE18">
         <v>980</v>
@@ -4832,10 +4838,10 @@
         <v>230</v>
       </c>
       <c r="BL18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BM18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4858,22 +4864,22 @@
         <v>1.86</v>
       </c>
       <c r="G19">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="H19">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I19">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J19">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K19">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L19">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="M19">
         <v>2.04</v>
@@ -4885,10 +4891,10 @@
         <v>2.22</v>
       </c>
       <c r="P19">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q19">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R19">
         <v>1.96</v>
@@ -4897,115 +4903,115 @@
         <v>2.14</v>
       </c>
       <c r="T19">
-        <v>1.94</v>
+        <v>10.5</v>
       </c>
       <c r="U19">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="V19">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="W19">
         <v>980</v>
       </c>
       <c r="X19">
-        <v>2.96</v>
+        <v>1.89</v>
       </c>
       <c r="Y19">
         <v>1000</v>
       </c>
       <c r="Z19">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="AA19">
         <v>1000</v>
       </c>
       <c r="AB19">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AC19">
         <v>980</v>
       </c>
       <c r="AD19">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="AE19">
         <v>980</v>
       </c>
       <c r="AF19">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="AG19">
         <v>980</v>
       </c>
       <c r="AH19">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI19">
         <v>1000</v>
       </c>
       <c r="AJ19">
-        <v>2.2</v>
+        <v>2.98</v>
       </c>
       <c r="AK19">
         <v>980</v>
       </c>
       <c r="AL19">
-        <v>2.52</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM19">
         <v>980</v>
       </c>
       <c r="AN19">
-        <v>1.34</v>
+        <v>2.68</v>
       </c>
       <c r="AO19">
         <v>980</v>
       </c>
       <c r="AP19">
-        <v>6.2</v>
+        <v>1.62</v>
       </c>
       <c r="AQ19">
         <v>1000</v>
       </c>
       <c r="AR19">
-        <v>3.95</v>
+        <v>2.92</v>
       </c>
       <c r="AS19">
         <v>980</v>
       </c>
       <c r="AT19">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU19">
         <v>980</v>
       </c>
       <c r="AV19">
-        <v>6.2</v>
+        <v>1.62</v>
       </c>
       <c r="AW19">
         <v>1000</v>
       </c>
       <c r="AX19">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="AY19">
         <v>1000</v>
       </c>
       <c r="AZ19">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="BA19">
         <v>980</v>
       </c>
       <c r="BB19">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="BC19">
         <v>1000</v>
       </c>
       <c r="BD19">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BE19">
         <v>1000</v>
@@ -5029,10 +5035,10 @@
         <v>231</v>
       </c>
       <c r="BL19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BM19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5052,16 +5058,16 @@
         <v>139</v>
       </c>
       <c r="F20">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G20">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="H20">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="I20">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="J20">
         <v>3.35</v>
@@ -5070,139 +5076,139 @@
         <v>3.4</v>
       </c>
       <c r="L20">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="M20">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="N20">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O20">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="P20">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q20">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R20">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S20">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T20">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="U20">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="V20">
         <v>10</v>
       </c>
       <c r="W20">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="X20">
+        <v>16</v>
+      </c>
+      <c r="Y20">
+        <v>19.5</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>980</v>
+      </c>
+      <c r="AB20">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC20">
+        <v>12</v>
+      </c>
+      <c r="AD20">
+        <v>7</v>
+      </c>
+      <c r="AE20">
+        <v>7.6</v>
+      </c>
+      <c r="AF20">
+        <v>11.5</v>
+      </c>
+      <c r="AG20">
+        <v>13</v>
+      </c>
+      <c r="AH20">
+        <v>28</v>
+      </c>
+      <c r="AI20">
+        <v>980</v>
+      </c>
+      <c r="AJ20">
         <v>15.5</v>
       </c>
-      <c r="Y20">
-        <v>980</v>
-      </c>
-      <c r="Z20">
-        <v>4.2</v>
-      </c>
-      <c r="AA20">
-        <v>980</v>
-      </c>
-      <c r="AB20">
-        <v>7.8</v>
-      </c>
-      <c r="AC20">
-        <v>13</v>
-      </c>
-      <c r="AD20">
-        <v>6.6</v>
-      </c>
-      <c r="AE20">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF20">
+      <c r="AK20">
+        <v>18</v>
+      </c>
+      <c r="AL20">
         <v>11</v>
       </c>
-      <c r="AG20">
-        <v>17</v>
-      </c>
-      <c r="AH20">
-        <v>4.4</v>
-      </c>
-      <c r="AI20">
-        <v>980</v>
-      </c>
-      <c r="AJ20">
+      <c r="AM20">
         <v>12.5</v>
       </c>
-      <c r="AK20">
-        <v>19.5</v>
-      </c>
-      <c r="AL20">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM20">
-        <v>14.5</v>
-      </c>
       <c r="AN20">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO20">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AP20">
-        <v>4.2</v>
+        <v>38</v>
       </c>
       <c r="AQ20">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AR20">
-        <v>4.2</v>
+        <v>34</v>
       </c>
       <c r="AS20">
         <v>980</v>
       </c>
       <c r="AT20">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AU20">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AV20">
-        <v>4.3</v>
+        <v>32</v>
       </c>
       <c r="AW20">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AX20">
-        <v>4.4</v>
+        <v>10.5</v>
       </c>
       <c r="AY20">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AZ20">
-        <v>3.85</v>
+        <v>18</v>
       </c>
       <c r="BA20">
         <v>980</v>
       </c>
       <c r="BB20">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="BC20">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="BD20">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -5226,10 +5232,10 @@
         <v>232</v>
       </c>
       <c r="BL20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BM20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5249,46 +5255,46 @@
         <v>140</v>
       </c>
       <c r="F21">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G21">
         <v>7</v>
       </c>
       <c r="H21">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I21">
         <v>1.56</v>
       </c>
       <c r="J21">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L21">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="M21">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="N21">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O21">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P21">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q21">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R21">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S21">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T21">
         <v>20</v>
@@ -5300,7 +5306,7 @@
         <v>10</v>
       </c>
       <c r="W21">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X21">
         <v>9.6</v>
@@ -5309,7 +5315,7 @@
         <v>10.5</v>
       </c>
       <c r="Z21">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA21">
         <v>15</v>
@@ -5318,28 +5324,28 @@
         <v>25</v>
       </c>
       <c r="AC21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD21">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE21">
         <v>11</v>
       </c>
       <c r="AF21">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG21">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH21">
         <v>13</v>
       </c>
       <c r="AI21">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ21">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK21">
         <v>60</v>
@@ -5357,52 +5363,52 @@
         <v>20</v>
       </c>
       <c r="AP21">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AQ21">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AR21">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AS21">
         <v>980</v>
       </c>
       <c r="AT21">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="AU21">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AV21">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="AW21">
         <v>75</v>
       </c>
       <c r="AX21">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AY21">
         <v>95</v>
       </c>
       <c r="AZ21">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="BA21">
         <v>75</v>
       </c>
       <c r="BB21">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="BC21">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="BD21">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="BE21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF21" t="s">
         <v>171</v>
@@ -5423,10 +5429,10 @@
         <v>233</v>
       </c>
       <c r="BL21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BM21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5446,55 +5452,55 @@
         <v>141</v>
       </c>
       <c r="F22">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="G22">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="H22">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="I22">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="J22">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K22">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L22">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="N22">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O22">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="P22">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q22">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R22">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="S22">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="V22">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W22">
         <v>11.5</v>
@@ -5503,31 +5509,31 @@
         <v>9.6</v>
       </c>
       <c r="Y22">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z22">
+        <v>12</v>
+      </c>
+      <c r="AA22">
         <v>13</v>
       </c>
-      <c r="AA22">
-        <v>14</v>
-      </c>
       <c r="AB22">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC22">
         <v>34</v>
       </c>
       <c r="AD22">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF22">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AG22">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH22">
         <v>12.5</v>
@@ -5536,70 +5542,70 @@
         <v>13</v>
       </c>
       <c r="AJ22">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK22">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM22">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN22">
         <v>20</v>
       </c>
       <c r="AO22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ22">
         <v>26</v>
       </c>
       <c r="AR22">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AS22">
         <v>980</v>
       </c>
       <c r="AT22">
+        <v>80</v>
+      </c>
+      <c r="AU22">
+        <v>100</v>
+      </c>
+      <c r="AV22">
         <v>75</v>
       </c>
-      <c r="AU22">
-        <v>90</v>
-      </c>
-      <c r="AV22">
-        <v>65</v>
-      </c>
       <c r="AW22">
+        <v>85</v>
+      </c>
+      <c r="AX22">
         <v>80</v>
       </c>
-      <c r="AX22">
+      <c r="AY22">
         <v>85</v>
       </c>
-      <c r="AY22">
-        <v>90</v>
-      </c>
       <c r="AZ22">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BA22">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BB22">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="BC22">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="BD22">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="BE22">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="BF22" t="s">
         <v>172</v>
@@ -5620,10 +5626,10 @@
         <v>234</v>
       </c>
       <c r="BL22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BM22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5643,25 +5649,25 @@
         <v>142</v>
       </c>
       <c r="F23">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G23">
         <v>3.35</v>
       </c>
       <c r="H23">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="I23">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J23">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L23">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="M23">
         <v>1.73</v>
@@ -5673,127 +5679,127 @@
         <v>2.4</v>
       </c>
       <c r="P23">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Q23">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R23">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="S23">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="T23">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U23">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="V23">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W23">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="X23">
+        <v>13.5</v>
+      </c>
+      <c r="Y23">
+        <v>15</v>
+      </c>
+      <c r="Z23">
+        <v>32</v>
+      </c>
+      <c r="AA23">
+        <v>38</v>
+      </c>
+      <c r="AB23">
+        <v>9.4</v>
+      </c>
+      <c r="AC23">
+        <v>11</v>
+      </c>
+      <c r="AD23">
+        <v>6.8</v>
+      </c>
+      <c r="AE23">
+        <v>7.4</v>
+      </c>
+      <c r="AF23">
+        <v>11</v>
+      </c>
+      <c r="AG23">
         <v>12.5</v>
       </c>
-      <c r="Y23">
-        <v>16.5</v>
-      </c>
-      <c r="Z23">
-        <v>8.4</v>
-      </c>
-      <c r="AA23">
-        <v>40</v>
-      </c>
-      <c r="AB23">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC23">
-        <v>12</v>
-      </c>
-      <c r="AD23">
-        <v>6.6</v>
-      </c>
-      <c r="AE23">
-        <v>7.6</v>
-      </c>
-      <c r="AF23">
-        <v>10</v>
-      </c>
-      <c r="AG23">
-        <v>13.5</v>
-      </c>
       <c r="AH23">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI23">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ23">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AK23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL23">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM23">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AN23">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AO23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP23">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="AQ23">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AR23">
-        <v>7.2</v>
+        <v>44</v>
       </c>
       <c r="AS23">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AT23">
-        <v>6.8</v>
+        <v>36</v>
       </c>
       <c r="AU23">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AV23">
-        <v>7.2</v>
+        <v>48</v>
       </c>
       <c r="AW23">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AX23">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="AY23">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AZ23">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="BA23">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="BB23">
-        <v>6.2</v>
+        <v>25</v>
       </c>
       <c r="BC23">
         <v>30</v>
       </c>
       <c r="BD23">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5817,10 +5823,10 @@
         <v>235</v>
       </c>
       <c r="BL23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BM23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5840,106 +5846,106 @@
         <v>143</v>
       </c>
       <c r="F24">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="G24">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H24">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="I24">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="J24">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K24">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L24">
         <v>1.73</v>
       </c>
       <c r="M24">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="O24">
         <v>2.38</v>
       </c>
       <c r="P24">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q24">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R24">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T24">
         <v>9.800000000000001</v>
       </c>
       <c r="U24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V24">
         <v>7</v>
       </c>
       <c r="W24">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X24">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z24">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB24">
         <v>11.5</v>
       </c>
       <c r="AC24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD24">
         <v>7</v>
       </c>
       <c r="AE24">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AF24">
         <v>9.800000000000001</v>
       </c>
       <c r="AG24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH24">
         <v>20</v>
       </c>
       <c r="AI24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL24">
         <v>15</v>
       </c>
       <c r="AM24">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AN24">
         <v>17.5</v>
@@ -5948,49 +5954,49 @@
         <v>23</v>
       </c>
       <c r="AP24">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AQ24">
         <v>55</v>
       </c>
       <c r="AR24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS24">
         <v>980</v>
       </c>
       <c r="AT24">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AU24">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AV24">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AW24">
         <v>980</v>
       </c>
       <c r="AX24">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AY24">
         <v>980</v>
       </c>
       <c r="AZ24">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="BA24">
         <v>980</v>
       </c>
       <c r="BB24">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="BC24">
         <v>19</v>
       </c>
       <c r="BD24">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -6014,10 +6020,10 @@
         <v>236</v>
       </c>
       <c r="BL24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BM24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6037,31 +6043,31 @@
         <v>144</v>
       </c>
       <c r="F25">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H25">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="I25">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J25">
         <v>3.8</v>
       </c>
       <c r="K25">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L25">
         <v>1.79</v>
       </c>
       <c r="M25">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="N25">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="O25">
         <v>2.28</v>
@@ -6070,124 +6076,124 @@
         <v>2.08</v>
       </c>
       <c r="Q25">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S25">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T25">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="U25">
         <v>980</v>
       </c>
       <c r="V25">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="W25">
         <v>980</v>
       </c>
       <c r="X25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y25">
+        <v>980</v>
+      </c>
+      <c r="Z25">
+        <v>2.6</v>
+      </c>
+      <c r="AA25">
+        <v>980</v>
+      </c>
+      <c r="AB25">
+        <v>14.5</v>
+      </c>
+      <c r="AC25">
+        <v>980</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>980</v>
+      </c>
+      <c r="AF25">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG25">
+        <v>980</v>
+      </c>
+      <c r="AH25">
+        <v>1.96</v>
+      </c>
+      <c r="AI25">
+        <v>980</v>
+      </c>
+      <c r="AJ25">
+        <v>2.88</v>
+      </c>
+      <c r="AK25">
+        <v>980</v>
+      </c>
+      <c r="AL25">
+        <v>2</v>
+      </c>
+      <c r="AM25">
+        <v>980</v>
+      </c>
+      <c r="AN25">
+        <v>6.8</v>
+      </c>
+      <c r="AO25">
+        <v>980</v>
+      </c>
+      <c r="AP25">
+        <v>2.06</v>
+      </c>
+      <c r="AQ25">
+        <v>980</v>
+      </c>
+      <c r="AR25">
+        <v>2.14</v>
+      </c>
+      <c r="AS25">
+        <v>1000</v>
+      </c>
+      <c r="AT25">
         <v>2.12</v>
       </c>
-      <c r="Y25">
-        <v>980</v>
-      </c>
-      <c r="Z25">
-        <v>1.9</v>
-      </c>
-      <c r="AA25">
-        <v>980</v>
-      </c>
-      <c r="AB25">
-        <v>6</v>
-      </c>
-      <c r="AC25">
-        <v>980</v>
-      </c>
-      <c r="AD25">
-        <v>7.4</v>
-      </c>
-      <c r="AE25">
-        <v>980</v>
-      </c>
-      <c r="AF25">
-        <v>4.9</v>
-      </c>
-      <c r="AG25">
-        <v>980</v>
-      </c>
-      <c r="AH25">
-        <v>1.94</v>
-      </c>
-      <c r="AI25">
-        <v>980</v>
-      </c>
-      <c r="AJ25">
-        <v>2.04</v>
-      </c>
-      <c r="AK25">
-        <v>980</v>
-      </c>
-      <c r="AL25">
-        <v>1.98</v>
-      </c>
-      <c r="AM25">
-        <v>980</v>
-      </c>
-      <c r="AN25">
-        <v>1.98</v>
-      </c>
-      <c r="AO25">
-        <v>980</v>
-      </c>
-      <c r="AP25">
-        <v>2.04</v>
-      </c>
-      <c r="AQ25">
-        <v>980</v>
-      </c>
-      <c r="AR25">
-        <v>2.1</v>
-      </c>
-      <c r="AS25">
-        <v>1000</v>
-      </c>
-      <c r="AT25">
-        <v>2.08</v>
-      </c>
       <c r="AU25">
         <v>1000</v>
       </c>
       <c r="AV25">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AW25">
         <v>1000</v>
       </c>
       <c r="AX25">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AY25">
         <v>1000</v>
       </c>
       <c r="AZ25">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="BA25">
         <v>1000</v>
       </c>
       <c r="BB25">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="BC25">
         <v>980</v>
       </c>
       <c r="BD25">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -6211,10 +6217,10 @@
         <v>237</v>
       </c>
       <c r="BL25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BM25" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6234,43 +6240,43 @@
         <v>145</v>
       </c>
       <c r="F26">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G26">
         <v>2.46</v>
       </c>
       <c r="H26">
+        <v>3.5</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
         <v>3.45</v>
       </c>
-      <c r="I26">
-        <v>4.3</v>
-      </c>
-      <c r="J26">
-        <v>3.15</v>
-      </c>
-      <c r="K26">
-        <v>3.75</v>
-      </c>
       <c r="L26">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="M26">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N26">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="O26">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="P26">
         <v>1.91</v>
       </c>
       <c r="Q26">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R26">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S26">
         <v>2.1</v>
@@ -6282,43 +6288,43 @@
         <v>980</v>
       </c>
       <c r="V26">
-        <v>4.6</v>
+        <v>9.6</v>
       </c>
       <c r="W26">
         <v>980</v>
       </c>
       <c r="X26">
-        <v>5.7</v>
+        <v>20</v>
       </c>
       <c r="Y26">
         <v>980</v>
       </c>
       <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26">
+        <v>980</v>
+      </c>
+      <c r="AB26">
+        <v>4.2</v>
+      </c>
+      <c r="AC26">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD26">
         <v>6.6</v>
       </c>
-      <c r="AA26">
-        <v>980</v>
-      </c>
-      <c r="AB26">
+      <c r="AE26">
+        <v>8</v>
+      </c>
+      <c r="AF26">
+        <v>14</v>
+      </c>
+      <c r="AG26">
+        <v>980</v>
+      </c>
+      <c r="AH26">
         <v>6.8</v>
-      </c>
-      <c r="AC26">
-        <v>9</v>
-      </c>
-      <c r="AD26">
-        <v>6.2</v>
-      </c>
-      <c r="AE26">
-        <v>980</v>
-      </c>
-      <c r="AF26">
-        <v>13</v>
-      </c>
-      <c r="AG26">
-        <v>980</v>
-      </c>
-      <c r="AH26">
-        <v>6.4</v>
       </c>
       <c r="AI26">
         <v>980</v>
@@ -6342,49 +6348,49 @@
         <v>980</v>
       </c>
       <c r="AP26">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AQ26">
         <v>980</v>
       </c>
       <c r="AR26">
-        <v>5.8</v>
+        <v>24</v>
       </c>
       <c r="AS26">
         <v>980</v>
       </c>
       <c r="AT26">
-        <v>5.8</v>
+        <v>22</v>
       </c>
       <c r="AU26">
         <v>980</v>
       </c>
       <c r="AV26">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AW26">
         <v>980</v>
       </c>
       <c r="AX26">
+        <v>7.4</v>
+      </c>
+      <c r="AY26">
+        <v>980</v>
+      </c>
+      <c r="AZ26">
+        <v>5.9</v>
+      </c>
+      <c r="BA26">
+        <v>980</v>
+      </c>
+      <c r="BB26">
         <v>6.8</v>
       </c>
-      <c r="AY26">
-        <v>1000</v>
-      </c>
-      <c r="AZ26">
-        <v>5.5</v>
-      </c>
-      <c r="BA26">
-        <v>980</v>
-      </c>
-      <c r="BB26">
-        <v>6.4</v>
-      </c>
       <c r="BC26">
         <v>980</v>
       </c>
       <c r="BD26">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6408,10 +6414,10 @@
         <v>238</v>
       </c>
       <c r="BL26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BM26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6431,73 +6437,73 @@
         <v>146</v>
       </c>
       <c r="F27">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G27">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H27">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I27">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J27">
         <v>3.25</v>
       </c>
       <c r="K27">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L27">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="M27">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="N27">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="P27">
+        <v>1.9</v>
+      </c>
+      <c r="Q27">
         <v>1.96</v>
       </c>
-      <c r="Q27">
-        <v>2.06</v>
-      </c>
       <c r="R27">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="S27">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="T27">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="U27">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="V27">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W27">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X27">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y27">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Z27">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA27">
         <v>40</v>
       </c>
       <c r="AB27">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC27">
         <v>12</v>
@@ -6506,82 +6512,82 @@
         <v>6.6</v>
       </c>
       <c r="AE27">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AF27">
         <v>10</v>
       </c>
       <c r="AG27">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH27">
         <v>21</v>
       </c>
       <c r="AI27">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ27">
         <v>20</v>
       </c>
       <c r="AK27">
+        <v>28</v>
+      </c>
+      <c r="AL27">
+        <v>13</v>
+      </c>
+      <c r="AM27">
+        <v>14.5</v>
+      </c>
+      <c r="AN27">
+        <v>17.5</v>
+      </c>
+      <c r="AO27">
+        <v>25</v>
+      </c>
+      <c r="AP27">
+        <v>7.6</v>
+      </c>
+      <c r="AQ27">
+        <v>60</v>
+      </c>
+      <c r="AR27">
+        <v>7.8</v>
+      </c>
+      <c r="AS27">
+        <v>80</v>
+      </c>
+      <c r="AT27">
+        <v>7.6</v>
+      </c>
+      <c r="AU27">
+        <v>55</v>
+      </c>
+      <c r="AV27">
+        <v>7.8</v>
+      </c>
+      <c r="AW27">
+        <v>75</v>
+      </c>
+      <c r="AX27">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY27">
+        <v>980</v>
+      </c>
+      <c r="AZ27">
+        <v>7.6</v>
+      </c>
+      <c r="BA27">
+        <v>60</v>
+      </c>
+      <c r="BB27">
+        <v>6.6</v>
+      </c>
+      <c r="BC27">
         <v>29</v>
       </c>
-      <c r="AL27">
-        <v>13.5</v>
-      </c>
-      <c r="AM27">
-        <v>15.5</v>
-      </c>
-      <c r="AN27">
-        <v>18.5</v>
-      </c>
-      <c r="AO27">
-        <v>26</v>
-      </c>
-      <c r="AP27">
-        <v>5.5</v>
-      </c>
-      <c r="AQ27">
-        <v>65</v>
-      </c>
-      <c r="AR27">
-        <v>5.6</v>
-      </c>
-      <c r="AS27">
-        <v>90</v>
-      </c>
-      <c r="AT27">
-        <v>5.5</v>
-      </c>
-      <c r="AU27">
-        <v>60</v>
-      </c>
-      <c r="AV27">
-        <v>5.5</v>
-      </c>
-      <c r="AW27">
-        <v>85</v>
-      </c>
-      <c r="AX27">
-        <v>5.8</v>
-      </c>
-      <c r="AY27">
-        <v>980</v>
-      </c>
-      <c r="AZ27">
-        <v>5.4</v>
-      </c>
-      <c r="BA27">
-        <v>70</v>
-      </c>
-      <c r="BB27">
-        <v>5</v>
-      </c>
-      <c r="BC27">
-        <v>32</v>
-      </c>
       <c r="BD27">
-        <v>5.9</v>
+        <v>8.6</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6605,10 +6611,10 @@
         <v>239</v>
       </c>
       <c r="BL27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BM27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6628,7 +6634,7 @@
         <v>147</v>
       </c>
       <c r="F28">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>3.2</v>
@@ -6637,13 +6643,13 @@
         <v>2.66</v>
       </c>
       <c r="I28">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J28">
         <v>3.15</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
         <v>1.67</v>
@@ -6658,7 +6664,7 @@
         <v>2.48</v>
       </c>
       <c r="P28">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q28">
         <v>2.08</v>
@@ -6667,7 +6673,7 @@
         <v>1.93</v>
       </c>
       <c r="S28">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T28">
         <v>9</v>
@@ -6688,7 +6694,7 @@
         <v>18</v>
       </c>
       <c r="Z28">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA28">
         <v>46</v>
@@ -6742,13 +6748,13 @@
         <v>980</v>
       </c>
       <c r="AR28">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AS28">
         <v>980</v>
       </c>
       <c r="AT28">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU28">
         <v>980</v>
@@ -6802,10 +6808,10 @@
         <v>240</v>
       </c>
       <c r="BL28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BM28" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6825,43 +6831,43 @@
         <v>148</v>
       </c>
       <c r="F29">
+        <v>1.3</v>
+      </c>
+      <c r="G29">
         <v>1.33</v>
-      </c>
-      <c r="G29">
-        <v>1.37</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J29">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="K29">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L29">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="M29">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="N29">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="O29">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="P29">
         <v>2.12</v>
       </c>
       <c r="Q29">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R29">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S29">
         <v>1.9</v>
@@ -6873,28 +6879,28 @@
         <v>25</v>
       </c>
       <c r="V29">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="W29">
         <v>44</v>
       </c>
       <c r="X29">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y29">
         <v>980</v>
       </c>
       <c r="Z29">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA29">
         <v>980</v>
       </c>
       <c r="AB29">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC29">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD29">
         <v>11</v>
@@ -6903,25 +6909,25 @@
         <v>16.5</v>
       </c>
       <c r="AF29">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AG29">
         <v>55</v>
       </c>
       <c r="AH29">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI29">
         <v>980</v>
       </c>
       <c r="AJ29">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AK29">
         <v>8.800000000000001</v>
       </c>
       <c r="AL29">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM29">
         <v>13</v>
@@ -6933,49 +6939,49 @@
         <v>40</v>
       </c>
       <c r="AP29">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AQ29">
         <v>980</v>
       </c>
       <c r="AR29">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AS29">
         <v>12.5</v>
       </c>
       <c r="AT29">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AU29">
         <v>17.5</v>
       </c>
       <c r="AV29">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AW29">
         <v>48</v>
       </c>
       <c r="AX29">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AY29">
         <v>980</v>
       </c>
       <c r="AZ29">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="BA29">
         <v>5.6</v>
       </c>
       <c r="BB29">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BC29">
         <v>980</v>
       </c>
       <c r="BD29">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BE29">
         <v>1000</v>
@@ -6999,10 +7005,10 @@
         <v>241</v>
       </c>
       <c r="BL29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BM29" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7022,43 +7028,43 @@
         <v>149</v>
       </c>
       <c r="F30">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="G30">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H30">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I30">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J30">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L30">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="M30">
         <v>1.67</v>
       </c>
       <c r="N30">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O30">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="P30">
         <v>2.08</v>
       </c>
       <c r="Q30">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S30">
         <v>1.92</v>
@@ -7073,25 +7079,25 @@
         <v>11.5</v>
       </c>
       <c r="W30">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="X30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y30">
         <v>34</v>
       </c>
       <c r="Z30">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AA30">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB30">
         <v>6.6</v>
       </c>
       <c r="AC30">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD30">
         <v>7</v>
@@ -7100,19 +7106,19 @@
         <v>7.8</v>
       </c>
       <c r="AF30">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG30">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH30">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="AI30">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ30">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AK30">
         <v>11</v>
@@ -7121,7 +7127,7 @@
         <v>10</v>
       </c>
       <c r="AM30">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN30">
         <v>21</v>
@@ -7130,16 +7136,16 @@
         <v>50</v>
       </c>
       <c r="AP30">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AQ30">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="AR30">
         <v>20</v>
       </c>
       <c r="AS30">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AT30">
         <v>23</v>
@@ -7148,13 +7154,13 @@
         <v>980</v>
       </c>
       <c r="AV30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AW30">
         <v>55</v>
       </c>
       <c r="AX30">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AY30">
         <v>580</v>
@@ -7166,13 +7172,13 @@
         <v>50</v>
       </c>
       <c r="BB30">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="BC30">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BD30">
-        <v>5.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -7196,10 +7202,10 @@
         <v>242</v>
       </c>
       <c r="BL30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BM30" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7219,25 +7225,25 @@
         <v>150</v>
       </c>
       <c r="F31">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="G31">
         <v>5.1</v>
       </c>
       <c r="H31">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="I31">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K31">
         <v>3.7</v>
       </c>
       <c r="L31">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="M31">
         <v>1.72</v>
@@ -7246,16 +7252,16 @@
         <v>2.38</v>
       </c>
       <c r="O31">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="P31">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q31">
         <v>2.26</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S31">
         <v>1.99</v>
@@ -7267,10 +7273,10 @@
         <v>12</v>
       </c>
       <c r="V31">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="W31">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="X31">
         <v>8.800000000000001</v>
@@ -7291,10 +7297,10 @@
         <v>16</v>
       </c>
       <c r="AD31">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE31">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AF31">
         <v>8.800000000000001</v>
@@ -7309,7 +7315,7 @@
         <v>26</v>
       </c>
       <c r="AJ31">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AK31">
         <v>38</v>
@@ -7327,49 +7333,49 @@
         <v>25</v>
       </c>
       <c r="AP31">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AQ31">
         <v>55</v>
       </c>
       <c r="AR31">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AS31">
         <v>980</v>
       </c>
       <c r="AT31">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AU31">
         <v>980</v>
       </c>
       <c r="AV31">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AW31">
         <v>980</v>
       </c>
       <c r="AX31">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AY31">
         <v>980</v>
       </c>
       <c r="AZ31">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BA31">
         <v>980</v>
       </c>
       <c r="BB31">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="BC31">
         <v>18.5</v>
       </c>
       <c r="BD31">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7393,10 +7399,10 @@
         <v>243</v>
       </c>
       <c r="BL31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BM31" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7416,91 +7422,91 @@
         <v>151</v>
       </c>
       <c r="F32">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G32">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="H32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I32">
         <v>3.95</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K32">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L32">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="M32">
+        <v>1.77</v>
+      </c>
+      <c r="N32">
+        <v>2.3</v>
+      </c>
+      <c r="O32">
+        <v>2.6</v>
+      </c>
+      <c r="P32">
+        <v>1.92</v>
+      </c>
+      <c r="Q32">
+        <v>2.14</v>
+      </c>
+      <c r="R32">
         <v>1.89</v>
       </c>
-      <c r="N32">
-        <v>2.12</v>
-      </c>
-      <c r="O32">
-        <v>2.54</v>
-      </c>
-      <c r="P32">
-        <v>1.86</v>
-      </c>
-      <c r="Q32">
-        <v>2.18</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
       <c r="S32">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="T32">
-        <v>4.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U32">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="V32">
-        <v>4.4</v>
+        <v>9.6</v>
       </c>
       <c r="W32">
         <v>980</v>
       </c>
       <c r="X32">
-        <v>5.3</v>
+        <v>19</v>
       </c>
       <c r="Y32">
         <v>980</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AA32">
         <v>980</v>
       </c>
       <c r="AB32">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
       <c r="AC32">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD32">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE32">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AF32">
-        <v>4.7</v>
+        <v>12.5</v>
       </c>
       <c r="AG32">
         <v>980</v>
       </c>
       <c r="AH32">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="AI32">
         <v>980</v>
@@ -7509,64 +7515,64 @@
         <v>11</v>
       </c>
       <c r="AK32">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL32">
         <v>9.6</v>
       </c>
       <c r="AM32">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AN32">
-        <v>5.1</v>
+        <v>16.5</v>
       </c>
       <c r="AO32">
         <v>980</v>
       </c>
       <c r="AP32">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AQ32">
         <v>980</v>
       </c>
       <c r="AR32">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AS32">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AT32">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AU32">
         <v>980</v>
       </c>
       <c r="AV32">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="AW32">
         <v>980</v>
       </c>
       <c r="AX32">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AY32">
         <v>1000</v>
       </c>
       <c r="AZ32">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="BA32">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="BB32">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="BC32">
         <v>980</v>
       </c>
       <c r="BD32">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="BE32">
         <v>1000</v>
@@ -7590,10 +7596,10 @@
         <v>244</v>
       </c>
       <c r="BL32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BM32" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="227">
   <si>
     <t>League</t>
   </si>
@@ -472,54 +472,6 @@
     <t>Defensa y Justicia</t>
   </si>
   <si>
-    <t>33203992</t>
-  </si>
-  <si>
-    <t>33208490</t>
-  </si>
-  <si>
-    <t>33211951</t>
-  </si>
-  <si>
-    <t>33212002</t>
-  </si>
-  <si>
-    <t>33212751</t>
-  </si>
-  <si>
-    <t>33211957</t>
-  </si>
-  <si>
-    <t>33213100</t>
-  </si>
-  <si>
-    <t>33193020</t>
-  </si>
-  <si>
-    <t>33212280</t>
-  </si>
-  <si>
-    <t>33211742</t>
-  </si>
-  <si>
-    <t>33212640</t>
-  </si>
-  <si>
-    <t>33212628</t>
-  </si>
-  <si>
-    <t>33212629</t>
-  </si>
-  <si>
-    <t>33213477</t>
-  </si>
-  <si>
-    <t>33210895</t>
-  </si>
-  <si>
-    <t>33208491</t>
-  </si>
-  <si>
     <t>33212435</t>
   </si>
   <si>
@@ -565,54 +517,6 @@
     <t>33195620</t>
   </si>
   <si>
-    <t>1.227809482</t>
-  </si>
-  <si>
-    <t>1.227885177</t>
-  </si>
-  <si>
-    <t>1.227933342</t>
-  </si>
-  <si>
-    <t>1.227945719</t>
-  </si>
-  <si>
-    <t>1.227948157</t>
-  </si>
-  <si>
-    <t>1.227948609</t>
-  </si>
-  <si>
-    <t>1.227955864</t>
-  </si>
-  <si>
-    <t>1.227614952</t>
-  </si>
-  <si>
-    <t>1.227942558</t>
-  </si>
-  <si>
-    <t>1.227928918</t>
-  </si>
-  <si>
-    <t>1.227942012</t>
-  </si>
-  <si>
-    <t>1.227942229</t>
-  </si>
-  <si>
-    <t>1.227942121</t>
-  </si>
-  <si>
-    <t>1.227957658</t>
-  </si>
-  <si>
-    <t>1.227919615</t>
-  </si>
-  <si>
-    <t>1.227885231</t>
-  </si>
-  <si>
     <t>1.227942858</t>
   </si>
   <si>
@@ -658,54 +562,6 @@
     <t>1.227671641</t>
   </si>
   <si>
-    <t>1.227809527</t>
-  </si>
-  <si>
-    <t>1.227885187</t>
-  </si>
-  <si>
-    <t>1.227933387</t>
-  </si>
-  <si>
-    <t>1.227945764</t>
-  </si>
-  <si>
-    <t>1.227948202</t>
-  </si>
-  <si>
-    <t>1.227948654</t>
-  </si>
-  <si>
-    <t>1.227955909</t>
-  </si>
-  <si>
-    <t>1.227614962</t>
-  </si>
-  <si>
-    <t>1.227942568</t>
-  </si>
-  <si>
-    <t>1.227928928</t>
-  </si>
-  <si>
-    <t>1.227942022</t>
-  </si>
-  <si>
-    <t>1.227942239</t>
-  </si>
-  <si>
-    <t>1.227942131</t>
-  </si>
-  <si>
-    <t>1.227957703</t>
-  </si>
-  <si>
-    <t>1.227919625</t>
-  </si>
-  <si>
-    <t>1.227885215</t>
-  </si>
-  <si>
     <t>1.227942868</t>
   </si>
   <si>
@@ -751,54 +607,6 @@
     <t>1.227671625</t>
   </si>
   <si>
-    <t>1.227809566</t>
-  </si>
-  <si>
-    <t>1.227885176</t>
-  </si>
-  <si>
-    <t>1.227933426</t>
-  </si>
-  <si>
-    <t>1.227945803</t>
-  </si>
-  <si>
-    <t>1.227948241</t>
-  </si>
-  <si>
-    <t>1.227948693</t>
-  </si>
-  <si>
-    <t>1.227955948</t>
-  </si>
-  <si>
-    <t>1.227614951</t>
-  </si>
-  <si>
-    <t>1.227942557</t>
-  </si>
-  <si>
-    <t>1.227928917</t>
-  </si>
-  <si>
-    <t>1.227942011</t>
-  </si>
-  <si>
-    <t>1.227942228</t>
-  </si>
-  <si>
-    <t>1.227942120</t>
-  </si>
-  <si>
-    <t>1.227957742</t>
-  </si>
-  <si>
-    <t>1.227919614</t>
-  </si>
-  <si>
-    <t>1.227885230</t>
-  </si>
-  <si>
     <t>1.227942857</t>
   </si>
   <si>
@@ -842,54 +650,6 @@
   </si>
   <si>
     <t>1.227671640</t>
-  </si>
-  <si>
-    <t>1.227809491</t>
-  </si>
-  <si>
-    <t>1.227885186</t>
-  </si>
-  <si>
-    <t>1.227933351</t>
-  </si>
-  <si>
-    <t>1.227945728</t>
-  </si>
-  <si>
-    <t>1.227948166</t>
-  </si>
-  <si>
-    <t>1.227948618</t>
-  </si>
-  <si>
-    <t>1.227955873</t>
-  </si>
-  <si>
-    <t>1.227614961</t>
-  </si>
-  <si>
-    <t>1.227942567</t>
-  </si>
-  <si>
-    <t>1.227928927</t>
-  </si>
-  <si>
-    <t>1.227942021</t>
-  </si>
-  <si>
-    <t>1.227942238</t>
-  </si>
-  <si>
-    <t>1.227942130</t>
-  </si>
-  <si>
-    <t>1.227957667</t>
-  </si>
-  <si>
-    <t>1.227919624</t>
-  </si>
-  <si>
-    <t>1.227885240</t>
   </si>
   <si>
     <t>1.227942867</t>
@@ -1667,8 +1427,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>152</v>
+      <c r="BF2">
+        <v>33203992</v>
       </c>
       <c r="BG2">
         <v>2311174</v>
@@ -1679,17 +1439,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>276</v>
+      <c r="BJ2">
+        <v>1.227809482</v>
+      </c>
+      <c r="BK2">
+        <v>1.227809527</v>
+      </c>
+      <c r="BL2">
+        <v>1.227809566</v>
+      </c>
+      <c r="BM2">
+        <v>1.227809491</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1864,8 +1624,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>153</v>
+      <c r="BF3">
+        <v>33208490</v>
       </c>
       <c r="BG3">
         <v>13886091</v>
@@ -1876,17 +1636,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>215</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>246</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>277</v>
+      <c r="BJ3">
+        <v>1.227885177</v>
+      </c>
+      <c r="BK3">
+        <v>1.227885187</v>
+      </c>
+      <c r="BL3">
+        <v>1.227885176</v>
+      </c>
+      <c r="BM3">
+        <v>1.227885186</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2061,8 +1821,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>154</v>
+      <c r="BF4">
+        <v>33211951</v>
       </c>
       <c r="BG4">
         <v>13144766</v>
@@ -2073,17 +1833,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>216</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>247</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>278</v>
+      <c r="BJ4">
+        <v>1.227933342</v>
+      </c>
+      <c r="BK4">
+        <v>1.227933387</v>
+      </c>
+      <c r="BL4">
+        <v>1.227933426</v>
+      </c>
+      <c r="BM4">
+        <v>1.227933351</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2258,8 +2018,8 @@
       <c r="BE5">
         <v>980</v>
       </c>
-      <c r="BF5" t="s">
-        <v>155</v>
+      <c r="BF5">
+        <v>33212002</v>
       </c>
       <c r="BG5">
         <v>151003</v>
@@ -2270,17 +2030,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>217</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>248</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>279</v>
+      <c r="BJ5">
+        <v>1.227945719</v>
+      </c>
+      <c r="BK5">
+        <v>1.227945764</v>
+      </c>
+      <c r="BL5">
+        <v>1.227945803</v>
+      </c>
+      <c r="BM5">
+        <v>1.227945728</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2455,8 +2215,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>156</v>
+      <c r="BF6">
+        <v>33212751</v>
       </c>
       <c r="BG6">
         <v>4871645</v>
@@ -2467,17 +2227,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>187</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>218</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>249</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>280</v>
+      <c r="BJ6">
+        <v>1.227948157</v>
+      </c>
+      <c r="BK6">
+        <v>1.227948202</v>
+      </c>
+      <c r="BL6">
+        <v>1.227948241</v>
+      </c>
+      <c r="BM6">
+        <v>1.227948166</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2652,8 +2412,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>157</v>
+      <c r="BF7">
+        <v>33211957</v>
       </c>
       <c r="BG7">
         <v>6635878</v>
@@ -2664,17 +2424,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>188</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>250</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>281</v>
+      <c r="BJ7">
+        <v>1.227948609</v>
+      </c>
+      <c r="BK7">
+        <v>1.227948654</v>
+      </c>
+      <c r="BL7">
+        <v>1.227948693</v>
+      </c>
+      <c r="BM7">
+        <v>1.227948618</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2849,8 +2609,8 @@
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8" t="s">
-        <v>158</v>
+      <c r="BF8">
+        <v>33213100</v>
       </c>
       <c r="BG8">
         <v>2487031</v>
@@ -2861,17 +2621,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>189</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>282</v>
+      <c r="BJ8">
+        <v>1.227955864</v>
+      </c>
+      <c r="BK8">
+        <v>1.227955909</v>
+      </c>
+      <c r="BL8">
+        <v>1.227955948</v>
+      </c>
+      <c r="BM8">
+        <v>1.227955873</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3046,8 +2806,8 @@
       <c r="BE9">
         <v>980</v>
       </c>
-      <c r="BF9" t="s">
-        <v>159</v>
+      <c r="BF9">
+        <v>33193020</v>
       </c>
       <c r="BG9">
         <v>3630179</v>
@@ -3058,17 +2818,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>252</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>283</v>
+      <c r="BJ9">
+        <v>1.227614952</v>
+      </c>
+      <c r="BK9">
+        <v>1.227614962</v>
+      </c>
+      <c r="BL9">
+        <v>1.227614951</v>
+      </c>
+      <c r="BM9">
+        <v>1.227614961</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3243,8 +3003,8 @@
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>160</v>
+      <c r="BF10">
+        <v>33212280</v>
       </c>
       <c r="BG10">
         <v>10765</v>
@@ -3255,17 +3015,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>191</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>253</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>284</v>
+      <c r="BJ10">
+        <v>1.227942558</v>
+      </c>
+      <c r="BK10">
+        <v>1.227942568</v>
+      </c>
+      <c r="BL10">
+        <v>1.227942557</v>
+      </c>
+      <c r="BM10">
+        <v>1.227942567</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3440,8 +3200,8 @@
       <c r="BE11">
         <v>980</v>
       </c>
-      <c r="BF11" t="s">
-        <v>161</v>
+      <c r="BF11">
+        <v>33211742</v>
       </c>
       <c r="BG11">
         <v>232104</v>
@@ -3452,17 +3212,17 @@
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>223</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>254</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>285</v>
+      <c r="BJ11">
+        <v>1.227928918</v>
+      </c>
+      <c r="BK11">
+        <v>1.227928928</v>
+      </c>
+      <c r="BL11">
+        <v>1.227928917</v>
+      </c>
+      <c r="BM11">
+        <v>1.227928927</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3637,8 +3397,8 @@
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>162</v>
+      <c r="BF12">
+        <v>33212640</v>
       </c>
       <c r="BG12">
         <v>4638399</v>
@@ -3649,17 +3409,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>255</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>286</v>
+      <c r="BJ12">
+        <v>1.227942012</v>
+      </c>
+      <c r="BK12">
+        <v>1.227942022</v>
+      </c>
+      <c r="BL12">
+        <v>1.227942011</v>
+      </c>
+      <c r="BM12">
+        <v>1.227942021</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3834,8 +3594,8 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>163</v>
+      <c r="BF13">
+        <v>33212628</v>
       </c>
       <c r="BG13">
         <v>130433</v>
@@ -3846,17 +3606,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>194</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>256</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>287</v>
+      <c r="BJ13">
+        <v>1.227942229</v>
+      </c>
+      <c r="BK13">
+        <v>1.227942239</v>
+      </c>
+      <c r="BL13">
+        <v>1.227942228</v>
+      </c>
+      <c r="BM13">
+        <v>1.227942238</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4031,8 +3791,8 @@
       <c r="BE14">
         <v>980</v>
       </c>
-      <c r="BF14" t="s">
-        <v>164</v>
+      <c r="BF14">
+        <v>33212629</v>
       </c>
       <c r="BG14">
         <v>30683</v>
@@ -4043,17 +3803,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>195</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>288</v>
+      <c r="BJ14">
+        <v>1.227942121</v>
+      </c>
+      <c r="BK14">
+        <v>1.227942131</v>
+      </c>
+      <c r="BL14">
+        <v>1.22794212</v>
+      </c>
+      <c r="BM14">
+        <v>1.22794213</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4228,8 +3988,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>165</v>
+      <c r="BF15">
+        <v>33213477</v>
       </c>
       <c r="BG15">
         <v>191603</v>
@@ -4240,17 +4000,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>227</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>258</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>289</v>
+      <c r="BJ15">
+        <v>1.227957658</v>
+      </c>
+      <c r="BK15">
+        <v>1.227957703</v>
+      </c>
+      <c r="BL15">
+        <v>1.227957742</v>
+      </c>
+      <c r="BM15">
+        <v>1.227957667</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4425,8 +4185,8 @@
       <c r="BE16">
         <v>1000</v>
       </c>
-      <c r="BF16" t="s">
-        <v>166</v>
+      <c r="BF16">
+        <v>33210895</v>
       </c>
       <c r="BG16">
         <v>6617059</v>
@@ -4437,17 +4197,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>259</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>290</v>
+      <c r="BJ16">
+        <v>1.227919615</v>
+      </c>
+      <c r="BK16">
+        <v>1.227919625</v>
+      </c>
+      <c r="BL16">
+        <v>1.227919614</v>
+      </c>
+      <c r="BM16">
+        <v>1.227919624</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4622,8 +4382,8 @@
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17" t="s">
-        <v>167</v>
+      <c r="BF17">
+        <v>33208491</v>
       </c>
       <c r="BG17">
         <v>5327845</v>
@@ -4634,17 +4394,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>291</v>
+      <c r="BJ17">
+        <v>1.227885231</v>
+      </c>
+      <c r="BK17">
+        <v>1.227885215</v>
+      </c>
+      <c r="BL17">
+        <v>1.22788523</v>
+      </c>
+      <c r="BM17">
+        <v>1.22788524</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4664,163 +4424,163 @@
         <v>137</v>
       </c>
       <c r="F18">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G18">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H18">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I18">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="J18">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K18">
         <v>3.7</v>
       </c>
       <c r="L18">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="M18">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N18">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="O18">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="P18">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q18">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R18">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="S18">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V18">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="W18">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="X18">
         <v>13.5</v>
       </c>
       <c r="Y18">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z18">
         <v>27</v>
       </c>
       <c r="AA18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB18">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AC18">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD18">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE18">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF18">
         <v>10</v>
       </c>
       <c r="AG18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH18">
         <v>21</v>
       </c>
       <c r="AI18">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AJ18">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AK18">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM18">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AN18">
         <v>15</v>
       </c>
       <c r="AO18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP18">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AQ18">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AR18">
-        <v>5.1</v>
+        <v>14</v>
       </c>
       <c r="AS18">
         <v>60</v>
       </c>
       <c r="AT18">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AU18">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AV18">
-        <v>4.9</v>
+        <v>40</v>
       </c>
       <c r="AW18">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AX18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AY18">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AZ18">
-        <v>4.5</v>
+        <v>23</v>
       </c>
       <c r="BA18">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BB18">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="BC18">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="BD18">
-        <v>5.2</v>
+        <v>18.5</v>
       </c>
       <c r="BE18">
         <v>980</v>
       </c>
       <c r="BF18" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="BG18">
         <v>3247346</v>
@@ -4832,16 +4592,16 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="BK18" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="BL18" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="BM18" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4861,163 +4621,163 @@
         <v>138</v>
       </c>
       <c r="F19">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="G19">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I19">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J19">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K19">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L19">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M19">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="N19">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
         <v>2.22</v>
       </c>
       <c r="P19">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q19">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R19">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T19">
         <v>10.5</v>
       </c>
       <c r="U19">
+        <v>12</v>
+      </c>
+      <c r="V19">
         <v>14</v>
       </c>
-      <c r="V19">
-        <v>1.62</v>
-      </c>
       <c r="W19">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="X19">
-        <v>1.89</v>
+        <v>30</v>
       </c>
       <c r="Y19">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z19">
-        <v>4.9</v>
+        <v>14</v>
       </c>
       <c r="AA19">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB19">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="AC19">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD19">
         <v>7.4</v>
       </c>
       <c r="AE19">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AF19">
-        <v>2.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG19">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH19">
-        <v>6.4</v>
+        <v>42</v>
       </c>
       <c r="AI19">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ19">
-        <v>2.98</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK19">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AL19">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AM19">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AN19">
-        <v>2.68</v>
+        <v>17.5</v>
       </c>
       <c r="AO19">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AP19">
-        <v>1.62</v>
+        <v>13.5</v>
       </c>
       <c r="AQ19">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AR19">
-        <v>2.92</v>
+        <v>19</v>
       </c>
       <c r="AS19">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AT19">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="AU19">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AV19">
-        <v>1.62</v>
+        <v>34</v>
       </c>
       <c r="AW19">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AX19">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="AY19">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AZ19">
-        <v>1.47</v>
+        <v>12.5</v>
       </c>
       <c r="BA19">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="BB19">
-        <v>1.62</v>
+        <v>13.5</v>
       </c>
       <c r="BC19">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="BD19">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="BE19">
         <v>1000</v>
       </c>
       <c r="BF19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="BG19">
         <v>3351396</v>
@@ -5029,16 +4789,16 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="BK19" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="BL19" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="BM19" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5058,100 +4818,100 @@
         <v>139</v>
       </c>
       <c r="F20">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G20">
+        <v>2.74</v>
+      </c>
+      <c r="H20">
+        <v>2.84</v>
+      </c>
+      <c r="I20">
         <v>2.9</v>
       </c>
-      <c r="H20">
-        <v>2.78</v>
-      </c>
-      <c r="I20">
-        <v>2.98</v>
-      </c>
       <c r="J20">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="M20">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="N20">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="O20">
-        <v>2.22</v>
+        <v>1.76</v>
       </c>
       <c r="P20">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="Q20">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="R20">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="S20">
-        <v>2.28</v>
+        <v>2.86</v>
       </c>
       <c r="T20">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="U20">
+        <v>18</v>
+      </c>
+      <c r="V20">
         <v>13.5</v>
       </c>
-      <c r="V20">
-        <v>10</v>
-      </c>
       <c r="W20">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="X20">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y20">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z20">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AA20">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB20">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AC20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD20">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE20">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF20">
         <v>11.5</v>
       </c>
       <c r="AG20">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH20">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI20">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AJ20">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AK20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL20">
         <v>11</v>
@@ -5160,61 +4920,61 @@
         <v>12.5</v>
       </c>
       <c r="AN20">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AO20">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AP20">
+        <v>29</v>
+      </c>
+      <c r="AQ20">
+        <v>34</v>
+      </c>
+      <c r="AR20">
+        <v>32</v>
+      </c>
+      <c r="AS20">
         <v>38</v>
       </c>
-      <c r="AQ20">
+      <c r="AT20">
+        <v>23</v>
+      </c>
+      <c r="AU20">
+        <v>26</v>
+      </c>
+      <c r="AV20">
+        <v>29</v>
+      </c>
+      <c r="AW20">
+        <v>34</v>
+      </c>
+      <c r="AX20">
         <v>50</v>
       </c>
-      <c r="AR20">
-        <v>34</v>
-      </c>
-      <c r="AS20">
-        <v>980</v>
-      </c>
-      <c r="AT20">
-        <v>25</v>
-      </c>
-      <c r="AU20">
-        <v>32</v>
-      </c>
-      <c r="AV20">
-        <v>32</v>
-      </c>
-      <c r="AW20">
-        <v>48</v>
-      </c>
-      <c r="AX20">
-        <v>10.5</v>
-      </c>
       <c r="AY20">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AZ20">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BA20">
+        <v>17</v>
+      </c>
+      <c r="BB20">
+        <v>16.5</v>
+      </c>
+      <c r="BC20">
+        <v>17.5</v>
+      </c>
+      <c r="BD20">
         <v>18</v>
       </c>
-      <c r="BA20">
-        <v>980</v>
-      </c>
-      <c r="BB20">
-        <v>21</v>
-      </c>
-      <c r="BC20">
-        <v>34</v>
-      </c>
-      <c r="BD20">
-        <v>11</v>
-      </c>
       <c r="BE20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF20" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="BG20">
         <v>2487036</v>
@@ -5226,16 +4986,16 @@
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="BK20" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="BL20" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="BM20" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5255,85 +5015,85 @@
         <v>140</v>
       </c>
       <c r="F21">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="H21">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="I21">
+        <v>1.63</v>
+      </c>
+      <c r="J21">
+        <v>4.6</v>
+      </c>
+      <c r="K21">
+        <v>4.7</v>
+      </c>
+      <c r="L21">
+        <v>2.7</v>
+      </c>
+      <c r="M21">
+        <v>2.78</v>
+      </c>
+      <c r="N21">
         <v>1.56</v>
       </c>
-      <c r="J21">
-        <v>4.7</v>
-      </c>
-      <c r="K21">
-        <v>4.8</v>
-      </c>
-      <c r="L21">
-        <v>2.46</v>
-      </c>
-      <c r="M21">
-        <v>2.6</v>
-      </c>
-      <c r="N21">
-        <v>1.63</v>
-      </c>
       <c r="O21">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="P21">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="Q21">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="R21">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="S21">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="T21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U21">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="V21">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="W21">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="X21">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Y21">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC21">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD21">
         <v>10</v>
       </c>
       <c r="AE21">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF21">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG21">
         <v>10</v>
@@ -5345,58 +5105,58 @@
         <v>14</v>
       </c>
       <c r="AJ21">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AK21">
+        <v>55</v>
+      </c>
+      <c r="AL21">
+        <v>21</v>
+      </c>
+      <c r="AM21">
+        <v>24</v>
+      </c>
+      <c r="AN21">
+        <v>16.5</v>
+      </c>
+      <c r="AO21">
+        <v>18</v>
+      </c>
+      <c r="AP21">
+        <v>23</v>
+      </c>
+      <c r="AQ21">
+        <v>25</v>
+      </c>
+      <c r="AR21">
+        <v>15.5</v>
+      </c>
+      <c r="AS21">
+        <v>150</v>
+      </c>
+      <c r="AT21">
+        <v>55</v>
+      </c>
+      <c r="AU21">
+        <v>70</v>
+      </c>
+      <c r="AV21">
+        <v>44</v>
+      </c>
+      <c r="AW21">
+        <v>65</v>
+      </c>
+      <c r="AX21">
+        <v>13.5</v>
+      </c>
+      <c r="AY21">
+        <v>65</v>
+      </c>
+      <c r="AZ21">
+        <v>13</v>
+      </c>
+      <c r="BA21">
         <v>60</v>
-      </c>
-      <c r="AL21">
-        <v>22</v>
-      </c>
-      <c r="AM21">
-        <v>25</v>
-      </c>
-      <c r="AN21">
-        <v>18</v>
-      </c>
-      <c r="AO21">
-        <v>20</v>
-      </c>
-      <c r="AP21">
-        <v>25</v>
-      </c>
-      <c r="AQ21">
-        <v>28</v>
-      </c>
-      <c r="AR21">
-        <v>19.5</v>
-      </c>
-      <c r="AS21">
-        <v>980</v>
-      </c>
-      <c r="AT21">
-        <v>48</v>
-      </c>
-      <c r="AU21">
-        <v>80</v>
-      </c>
-      <c r="AV21">
-        <v>48</v>
-      </c>
-      <c r="AW21">
-        <v>75</v>
-      </c>
-      <c r="AX21">
-        <v>19</v>
-      </c>
-      <c r="AY21">
-        <v>95</v>
-      </c>
-      <c r="AZ21">
-        <v>18</v>
-      </c>
-      <c r="BA21">
-        <v>75</v>
       </c>
       <c r="BB21">
         <v>5.5</v>
@@ -5405,13 +5165,13 @@
         <v>6.2</v>
       </c>
       <c r="BD21">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="BE21">
         <v>980</v>
       </c>
       <c r="BF21" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="BG21">
         <v>419123</v>
@@ -5423,16 +5183,16 @@
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="BK21" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="BL21" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="BM21" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5458,76 +5218,76 @@
         <v>8.6</v>
       </c>
       <c r="H22">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="I22">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="J22">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="K22">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="N22">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="O22">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="P22">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="Q22">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="R22">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="S22">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="T22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="U22">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V22">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="W22">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="X22">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y22">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z22">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA22">
         <v>13</v>
       </c>
       <c r="AB22">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AC22">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AD22">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE22">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF22">
         <v>9.6</v>
@@ -5536,28 +5296,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH22">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK22">
         <v>80</v>
       </c>
       <c r="AL22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN22">
         <v>20</v>
       </c>
       <c r="AO22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP22">
         <v>25</v>
@@ -5566,49 +5326,49 @@
         <v>26</v>
       </c>
       <c r="AR22">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AS22">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AT22">
         <v>80</v>
       </c>
       <c r="AU22">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AV22">
+        <v>65</v>
+      </c>
+      <c r="AW22">
         <v>75</v>
       </c>
-      <c r="AW22">
-        <v>85</v>
-      </c>
       <c r="AX22">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AY22">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AZ22">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA22">
         <v>85</v>
       </c>
       <c r="BB22">
+        <v>4.3</v>
+      </c>
+      <c r="BC22">
         <v>4.5</v>
       </c>
-      <c r="BC22">
-        <v>4.8</v>
-      </c>
       <c r="BD22">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="BE22">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="BF22" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="BG22">
         <v>18567</v>
@@ -5620,16 +5380,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="BK22" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="BL22" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="BM22" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5649,76 +5409,76 @@
         <v>142</v>
       </c>
       <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
         <v>3.1</v>
       </c>
-      <c r="G23">
-        <v>3.35</v>
-      </c>
       <c r="H23">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="I23">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="J23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K23">
         <v>3.35</v>
       </c>
       <c r="L23">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M23">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="N23">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O23">
         <v>2.4</v>
       </c>
       <c r="P23">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R23">
         <v>1.94</v>
       </c>
       <c r="S23">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T23">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="U23">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="V23">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W23">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="X23">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z23">
         <v>32</v>
       </c>
       <c r="AA23">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB23">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC23">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD23">
         <v>6.8</v>
@@ -5727,7 +5487,7 @@
         <v>7.4</v>
       </c>
       <c r="AF23">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG23">
         <v>12.5</v>
@@ -5736,67 +5496,67 @@
         <v>28</v>
       </c>
       <c r="AI23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK23">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL23">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM23">
         <v>14.5</v>
       </c>
       <c r="AN23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP23">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AQ23">
         <v>55</v>
       </c>
       <c r="AR23">
+        <v>46</v>
+      </c>
+      <c r="AS23">
+        <v>55</v>
+      </c>
+      <c r="AT23">
+        <v>34</v>
+      </c>
+      <c r="AU23">
+        <v>980</v>
+      </c>
+      <c r="AV23">
         <v>44</v>
-      </c>
-      <c r="AS23">
-        <v>60</v>
-      </c>
-      <c r="AT23">
-        <v>36</v>
-      </c>
-      <c r="AU23">
-        <v>44</v>
-      </c>
-      <c r="AV23">
-        <v>48</v>
       </c>
       <c r="AW23">
         <v>65</v>
       </c>
       <c r="AX23">
-        <v>15.5</v>
+        <v>95</v>
       </c>
       <c r="AY23">
         <v>140</v>
       </c>
       <c r="AZ23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA23">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="BB23">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="BC23">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BD23">
         <v>15.5</v>
@@ -5805,7 +5565,7 @@
         <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="BG23">
         <v>335852</v>
@@ -5817,16 +5577,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="BK23" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="BL23" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="BM23" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5849,160 +5609,160 @@
         <v>4.1</v>
       </c>
       <c r="G24">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H24">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="I24">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J24">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K24">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="M24">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="N24">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="O24">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="P24">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R24">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S24">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="U24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V24">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="W24">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24">
         <v>10</v>
       </c>
       <c r="Y24">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z24">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB24">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC24">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AD24">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE24">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF24">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG24">
         <v>11</v>
       </c>
       <c r="AH24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AJ24">
+        <v>26</v>
+      </c>
+      <c r="AK24">
+        <v>30</v>
+      </c>
+      <c r="AL24">
+        <v>16</v>
+      </c>
+      <c r="AM24">
+        <v>18</v>
+      </c>
+      <c r="AN24">
+        <v>19.5</v>
+      </c>
+      <c r="AO24">
         <v>22</v>
       </c>
-      <c r="AK24">
-        <v>36</v>
-      </c>
-      <c r="AL24">
-        <v>15</v>
-      </c>
-      <c r="AM24">
-        <v>22</v>
-      </c>
-      <c r="AN24">
-        <v>17.5</v>
-      </c>
-      <c r="AO24">
-        <v>23</v>
-      </c>
       <c r="AP24">
-        <v>6.6</v>
+        <v>34</v>
       </c>
       <c r="AQ24">
+        <v>46</v>
+      </c>
+      <c r="AR24">
         <v>55</v>
       </c>
-      <c r="AR24">
-        <v>7</v>
-      </c>
       <c r="AS24">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AT24">
-        <v>6.6</v>
+        <v>44</v>
       </c>
       <c r="AU24">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AV24">
-        <v>6.8</v>
+        <v>50</v>
       </c>
       <c r="AW24">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AX24">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AY24">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AZ24">
-        <v>6.8</v>
+        <v>16.5</v>
       </c>
       <c r="BA24">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="BB24">
-        <v>5.3</v>
+        <v>17</v>
       </c>
       <c r="BC24">
         <v>19</v>
       </c>
       <c r="BD24">
-        <v>7.4</v>
+        <v>19.5</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="BG24">
         <v>5129865</v>
@@ -6014,16 +5774,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="BK24" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="BL24" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="BM24" t="s">
-        <v>298</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6046,160 +5806,160 @@
         <v>6</v>
       </c>
       <c r="G25">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="H25">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="I25">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J25">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K25">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L25">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="M25">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="N25">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="O25">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="P25">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q25">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R25">
         <v>1.81</v>
       </c>
       <c r="S25">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T25">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U25">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="V25">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="W25">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X25">
         <v>8.199999999999999</v>
       </c>
       <c r="Y25">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="AA25">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AB25">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC25">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AD25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF25">
+        <v>9.4</v>
+      </c>
+      <c r="AG25">
+        <v>10.5</v>
+      </c>
+      <c r="AH25">
+        <v>15.5</v>
+      </c>
+      <c r="AI25">
+        <v>19.5</v>
+      </c>
+      <c r="AJ25">
+        <v>7.4</v>
+      </c>
+      <c r="AK25">
+        <v>55</v>
+      </c>
+      <c r="AL25">
+        <v>21</v>
+      </c>
+      <c r="AM25">
+        <v>27</v>
+      </c>
+      <c r="AN25">
+        <v>19</v>
+      </c>
+      <c r="AO25">
+        <v>28</v>
+      </c>
+      <c r="AP25">
+        <v>7.2</v>
+      </c>
+      <c r="AQ25">
+        <v>50</v>
+      </c>
+      <c r="AR25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AS25">
+        <v>980</v>
+      </c>
+      <c r="AT25">
+        <v>7.8</v>
+      </c>
+      <c r="AU25">
+        <v>980</v>
+      </c>
+      <c r="AV25">
         <v>8</v>
       </c>
-      <c r="AE25">
-        <v>980</v>
-      </c>
-      <c r="AF25">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG25">
-        <v>980</v>
-      </c>
-      <c r="AH25">
-        <v>1.96</v>
-      </c>
-      <c r="AI25">
-        <v>980</v>
-      </c>
-      <c r="AJ25">
-        <v>2.88</v>
-      </c>
-      <c r="AK25">
-        <v>980</v>
-      </c>
-      <c r="AL25">
-        <v>2</v>
-      </c>
-      <c r="AM25">
-        <v>980</v>
-      </c>
-      <c r="AN25">
-        <v>6.8</v>
-      </c>
-      <c r="AO25">
-        <v>980</v>
-      </c>
-      <c r="AP25">
-        <v>2.06</v>
-      </c>
-      <c r="AQ25">
-        <v>980</v>
-      </c>
-      <c r="AR25">
-        <v>2.14</v>
-      </c>
-      <c r="AS25">
-        <v>1000</v>
-      </c>
-      <c r="AT25">
-        <v>2.12</v>
-      </c>
-      <c r="AU25">
-        <v>1000</v>
-      </c>
-      <c r="AV25">
-        <v>2.12</v>
-      </c>
       <c r="AW25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX25">
-        <v>2.12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ25">
-        <v>2.12</v>
+        <v>8</v>
       </c>
       <c r="BA25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB25">
-        <v>1.85</v>
+        <v>5.1</v>
       </c>
       <c r="BC25">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="BD25">
-        <v>2.16</v>
+        <v>8.4</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="BG25">
         <v>8761113</v>
@@ -6211,16 +5971,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="BK25" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="BL25" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="BM25" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6240,73 +6000,73 @@
         <v>145</v>
       </c>
       <c r="F26">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="G26">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="H26">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K26">
         <v>3.45</v>
       </c>
       <c r="L26">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="N26">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="O26">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="P26">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="Q26">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R26">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S26">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="T26">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U26">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="V26">
         <v>9.6</v>
       </c>
       <c r="W26">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="X26">
         <v>20</v>
       </c>
       <c r="Y26">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z26">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA26">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB26">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC26">
         <v>8.800000000000001</v>
@@ -6315,88 +6075,88 @@
         <v>6.6</v>
       </c>
       <c r="AE26">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF26">
         <v>14</v>
       </c>
       <c r="AG26">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH26">
+        <v>6.6</v>
+      </c>
+      <c r="AI26">
+        <v>60</v>
+      </c>
+      <c r="AJ26">
+        <v>11</v>
+      </c>
+      <c r="AK26">
+        <v>14</v>
+      </c>
+      <c r="AL26">
+        <v>9.6</v>
+      </c>
+      <c r="AM26">
+        <v>13</v>
+      </c>
+      <c r="AN26">
+        <v>18</v>
+      </c>
+      <c r="AO26">
+        <v>24</v>
+      </c>
+      <c r="AP26">
         <v>6.8</v>
       </c>
-      <c r="AI26">
-        <v>980</v>
-      </c>
-      <c r="AJ26">
-        <v>10.5</v>
-      </c>
-      <c r="AK26">
-        <v>980</v>
-      </c>
-      <c r="AL26">
-        <v>9.4</v>
-      </c>
-      <c r="AM26">
-        <v>980</v>
-      </c>
-      <c r="AN26">
-        <v>17.5</v>
-      </c>
-      <c r="AO26">
-        <v>980</v>
-      </c>
-      <c r="AP26">
-        <v>7</v>
-      </c>
       <c r="AQ26">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AR26">
         <v>24</v>
       </c>
       <c r="AS26">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AT26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU26">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AV26">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AW26">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AX26">
+        <v>7</v>
+      </c>
+      <c r="AY26">
+        <v>980</v>
+      </c>
+      <c r="AZ26">
+        <v>5.8</v>
+      </c>
+      <c r="BA26">
+        <v>27</v>
+      </c>
+      <c r="BB26">
+        <v>6.6</v>
+      </c>
+      <c r="BC26">
+        <v>70</v>
+      </c>
+      <c r="BD26">
         <v>7.4</v>
-      </c>
-      <c r="AY26">
-        <v>980</v>
-      </c>
-      <c r="AZ26">
-        <v>5.9</v>
-      </c>
-      <c r="BA26">
-        <v>980</v>
-      </c>
-      <c r="BB26">
-        <v>6.8</v>
-      </c>
-      <c r="BC26">
-        <v>980</v>
-      </c>
-      <c r="BD26">
-        <v>7.6</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="BG26">
         <v>1370433</v>
@@ -6408,16 +6168,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="BK26" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="BL26" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="BM26" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6437,58 +6197,58 @@
         <v>146</v>
       </c>
       <c r="F27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G27">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H27">
         <v>2.38</v>
       </c>
       <c r="I27">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J27">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K27">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L27">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M27">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="O27">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="P27">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q27">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T27">
         <v>10</v>
       </c>
       <c r="U27">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="V27">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="W27">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="X27">
         <v>12.5</v>
@@ -6497,10 +6257,10 @@
         <v>14</v>
       </c>
       <c r="Z27">
-        <v>7.2</v>
+        <v>29</v>
       </c>
       <c r="AA27">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AB27">
         <v>10.5</v>
@@ -6509,91 +6269,91 @@
         <v>12</v>
       </c>
       <c r="AD27">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE27">
         <v>7.4</v>
       </c>
       <c r="AF27">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG27">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH27">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI27">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AJ27">
         <v>20</v>
       </c>
       <c r="AK27">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AL27">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM27">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN27">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO27">
+        <v>21</v>
+      </c>
+      <c r="AP27">
+        <v>42</v>
+      </c>
+      <c r="AQ27">
+        <v>48</v>
+      </c>
+      <c r="AR27">
+        <v>48</v>
+      </c>
+      <c r="AS27">
+        <v>65</v>
+      </c>
+      <c r="AT27">
+        <v>40</v>
+      </c>
+      <c r="AU27">
+        <v>46</v>
+      </c>
+      <c r="AV27">
+        <v>48</v>
+      </c>
+      <c r="AW27">
+        <v>60</v>
+      </c>
+      <c r="AX27">
+        <v>42</v>
+      </c>
+      <c r="AY27">
+        <v>130</v>
+      </c>
+      <c r="AZ27">
+        <v>34</v>
+      </c>
+      <c r="BA27">
+        <v>48</v>
+      </c>
+      <c r="BB27">
+        <v>22</v>
+      </c>
+      <c r="BC27">
         <v>25</v>
       </c>
-      <c r="AP27">
-        <v>7.6</v>
-      </c>
-      <c r="AQ27">
-        <v>60</v>
-      </c>
-      <c r="AR27">
-        <v>7.8</v>
-      </c>
-      <c r="AS27">
-        <v>80</v>
-      </c>
-      <c r="AT27">
-        <v>7.6</v>
-      </c>
-      <c r="AU27">
-        <v>55</v>
-      </c>
-      <c r="AV27">
-        <v>7.8</v>
-      </c>
-      <c r="AW27">
-        <v>75</v>
-      </c>
-      <c r="AX27">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AY27">
-        <v>980</v>
-      </c>
-      <c r="AZ27">
-        <v>7.6</v>
-      </c>
-      <c r="BA27">
-        <v>60</v>
-      </c>
-      <c r="BB27">
-        <v>6.6</v>
-      </c>
-      <c r="BC27">
-        <v>29</v>
-      </c>
       <c r="BD27">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="BE27">
         <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="BG27">
         <v>13749040</v>
@@ -6605,16 +6365,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="BK27" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="BL27" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="BM27" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6634,28 +6394,28 @@
         <v>147</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G28">
+        <v>3.3</v>
+      </c>
+      <c r="H28">
+        <v>2.62</v>
+      </c>
+      <c r="I28">
+        <v>2.72</v>
+      </c>
+      <c r="J28">
         <v>3.2</v>
       </c>
-      <c r="H28">
-        <v>2.66</v>
-      </c>
-      <c r="I28">
-        <v>2.76</v>
-      </c>
-      <c r="J28">
-        <v>3.15</v>
-      </c>
       <c r="K28">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M28">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N28">
         <v>2.32</v>
@@ -6664,7 +6424,7 @@
         <v>2.48</v>
       </c>
       <c r="P28">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q28">
         <v>2.08</v>
@@ -6673,124 +6433,124 @@
         <v>1.93</v>
       </c>
       <c r="S28">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T28">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U28">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V28">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="W28">
         <v>9.4</v>
       </c>
       <c r="X28">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y28">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z28">
-        <v>7.4</v>
+        <v>34</v>
       </c>
       <c r="AA28">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB28">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC28">
         <v>10.5</v>
       </c>
       <c r="AD28">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE28">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF28">
         <v>11</v>
       </c>
       <c r="AG28">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH28">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AI28">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ28">
+        <v>17.5</v>
+      </c>
+      <c r="AK28">
+        <v>20</v>
+      </c>
+      <c r="AL28">
+        <v>12.5</v>
+      </c>
+      <c r="AM28">
         <v>14.5</v>
       </c>
-      <c r="AK28">
+      <c r="AN28">
+        <v>18.5</v>
+      </c>
+      <c r="AO28">
         <v>21</v>
       </c>
-      <c r="AL28">
-        <v>12</v>
-      </c>
-      <c r="AM28">
-        <v>15.5</v>
-      </c>
-      <c r="AN28">
-        <v>18</v>
-      </c>
-      <c r="AO28">
+      <c r="AP28">
+        <v>44</v>
+      </c>
+      <c r="AQ28">
+        <v>55</v>
+      </c>
+      <c r="AR28">
+        <v>40</v>
+      </c>
+      <c r="AS28">
+        <v>80</v>
+      </c>
+      <c r="AT28">
+        <v>36</v>
+      </c>
+      <c r="AU28">
+        <v>42</v>
+      </c>
+      <c r="AV28">
+        <v>44</v>
+      </c>
+      <c r="AW28">
+        <v>65</v>
+      </c>
+      <c r="AX28">
+        <v>14.5</v>
+      </c>
+      <c r="AY28">
+        <v>140</v>
+      </c>
+      <c r="AZ28">
+        <v>32</v>
+      </c>
+      <c r="BA28">
+        <v>44</v>
+      </c>
+      <c r="BB28">
         <v>23</v>
       </c>
-      <c r="AP28">
-        <v>7.6</v>
-      </c>
-      <c r="AQ28">
-        <v>980</v>
-      </c>
-      <c r="AR28">
-        <v>7.6</v>
-      </c>
-      <c r="AS28">
-        <v>980</v>
-      </c>
-      <c r="AT28">
-        <v>7.2</v>
-      </c>
-      <c r="AU28">
-        <v>980</v>
-      </c>
-      <c r="AV28">
-        <v>7.8</v>
-      </c>
-      <c r="AW28">
-        <v>980</v>
-      </c>
-      <c r="AX28">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AY28">
-        <v>980</v>
-      </c>
-      <c r="AZ28">
-        <v>7.2</v>
-      </c>
-      <c r="BA28">
-        <v>980</v>
-      </c>
-      <c r="BB28">
-        <v>7</v>
-      </c>
       <c r="BC28">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="BD28">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="BG28">
         <v>5129869</v>
@@ -6802,16 +6562,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="BK28" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="BL28" t="s">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="BM28" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6831,43 +6591,43 @@
         <v>148</v>
       </c>
       <c r="F29">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G29">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I29">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="J29">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="K29">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L29">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="M29">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="N29">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="O29">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="P29">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q29">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="R29">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
         <v>1.9</v>
@@ -6876,22 +6636,22 @@
         <v>17.5</v>
       </c>
       <c r="U29">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="V29">
-        <v>5.1</v>
+        <v>30</v>
       </c>
       <c r="W29">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="X29">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y29">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="Z29">
-        <v>5.7</v>
+        <v>13.5</v>
       </c>
       <c r="AA29">
         <v>980</v>
@@ -6900,94 +6660,94 @@
         <v>7.8</v>
       </c>
       <c r="AC29">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE29">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AF29">
-        <v>5.2</v>
+        <v>36</v>
       </c>
       <c r="AG29">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="AI29">
-        <v>980</v>
+        <v>310</v>
       </c>
       <c r="AJ29">
         <v>7</v>
       </c>
       <c r="AK29">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AL29">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AM29">
+        <v>10.5</v>
+      </c>
+      <c r="AN29">
+        <v>28</v>
+      </c>
+      <c r="AO29">
+        <v>34</v>
+      </c>
+      <c r="AP29">
         <v>13</v>
       </c>
-      <c r="AN29">
-        <v>25</v>
-      </c>
-      <c r="AO29">
-        <v>40</v>
-      </c>
-      <c r="AP29">
-        <v>5.6</v>
-      </c>
       <c r="AQ29">
         <v>980</v>
       </c>
       <c r="AR29">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AS29">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AT29">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AU29">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AV29">
+        <v>34</v>
+      </c>
+      <c r="AW29">
+        <v>44</v>
+      </c>
+      <c r="AX29">
+        <v>13</v>
+      </c>
+      <c r="AY29">
+        <v>220</v>
+      </c>
+      <c r="AZ29">
         <v>5.1</v>
-      </c>
-      <c r="AW29">
-        <v>48</v>
-      </c>
-      <c r="AX29">
-        <v>5.6</v>
-      </c>
-      <c r="AY29">
-        <v>980</v>
-      </c>
-      <c r="AZ29">
-        <v>2.84</v>
       </c>
       <c r="BA29">
         <v>5.6</v>
       </c>
       <c r="BB29">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="BC29">
-        <v>980</v>
+        <v>400</v>
       </c>
       <c r="BD29">
-        <v>5.7</v>
+        <v>14</v>
       </c>
       <c r="BE29">
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="BG29">
         <v>12198533</v>
@@ -6999,16 +6759,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="BK29" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="BL29" t="s">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="BM29" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7028,19 +6788,19 @@
         <v>149</v>
       </c>
       <c r="F30">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G30">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H30">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I30">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J30">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K30">
         <v>3.45</v>
@@ -7052,22 +6812,22 @@
         <v>1.67</v>
       </c>
       <c r="N30">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O30">
         <v>2.6</v>
       </c>
       <c r="P30">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q30">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R30">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S30">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T30">
         <v>8.6</v>
@@ -7079,46 +6839,46 @@
         <v>11.5</v>
       </c>
       <c r="W30">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="X30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y30">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z30">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AA30">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB30">
         <v>6.6</v>
       </c>
       <c r="AC30">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD30">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE30">
         <v>7.8</v>
       </c>
       <c r="AF30">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG30">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH30">
         <v>48</v>
       </c>
       <c r="AI30">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AJ30">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK30">
         <v>11</v>
@@ -7133,58 +6893,58 @@
         <v>21</v>
       </c>
       <c r="AO30">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AP30">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AQ30">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AR30">
         <v>20</v>
       </c>
       <c r="AS30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30">
         <v>23</v>
       </c>
       <c r="AU30">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AV30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AW30">
         <v>55</v>
       </c>
       <c r="AX30">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="AY30">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="AZ30">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA30">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="BB30">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="BC30">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="BD30">
-        <v>9.199999999999999</v>
+        <v>19</v>
       </c>
       <c r="BE30">
         <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="BG30">
         <v>5287007</v>
@@ -7196,16 +6956,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="BK30" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="BL30" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="BM30" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7225,163 +6985,163 @@
         <v>150</v>
       </c>
       <c r="F31">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="G31">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="H31">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I31">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="J31">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K31">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L31">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="M31">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="N31">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O31">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q31">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R31">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="S31">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
         <v>8.800000000000001</v>
       </c>
       <c r="U31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V31">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="W31">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X31">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y31">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z31">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AA31">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB31">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC31">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AD31">
         <v>7</v>
       </c>
       <c r="AE31">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AF31">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG31">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH31">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AI31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AJ31">
-        <v>6.2</v>
+        <v>23</v>
       </c>
       <c r="AK31">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AL31">
         <v>16</v>
       </c>
       <c r="AM31">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AN31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO31">
+        <v>23</v>
+      </c>
+      <c r="AP31">
+        <v>44</v>
+      </c>
+      <c r="AQ31">
+        <v>60</v>
+      </c>
+      <c r="AR31">
+        <v>11</v>
+      </c>
+      <c r="AS31">
+        <v>100</v>
+      </c>
+      <c r="AT31">
+        <v>48</v>
+      </c>
+      <c r="AU31">
+        <v>65</v>
+      </c>
+      <c r="AV31">
+        <v>11</v>
+      </c>
+      <c r="AW31">
+        <v>90</v>
+      </c>
+      <c r="AX31">
+        <v>11.5</v>
+      </c>
+      <c r="AY31">
+        <v>170</v>
+      </c>
+      <c r="AZ31">
+        <v>11</v>
+      </c>
+      <c r="BA31">
+        <v>85</v>
+      </c>
+      <c r="BB31">
+        <v>8.4</v>
+      </c>
+      <c r="BC31">
         <v>25</v>
       </c>
-      <c r="AP31">
-        <v>6.6</v>
-      </c>
-      <c r="AQ31">
-        <v>55</v>
-      </c>
-      <c r="AR31">
-        <v>7</v>
-      </c>
-      <c r="AS31">
-        <v>980</v>
-      </c>
-      <c r="AT31">
-        <v>6.8</v>
-      </c>
-      <c r="AU31">
-        <v>980</v>
-      </c>
-      <c r="AV31">
-        <v>7</v>
-      </c>
-      <c r="AW31">
-        <v>980</v>
-      </c>
-      <c r="AX31">
-        <v>7.2</v>
-      </c>
-      <c r="AY31">
-        <v>980</v>
-      </c>
-      <c r="AZ31">
-        <v>7</v>
-      </c>
-      <c r="BA31">
-        <v>980</v>
-      </c>
-      <c r="BB31">
-        <v>5.3</v>
-      </c>
-      <c r="BC31">
-        <v>18.5</v>
-      </c>
       <c r="BD31">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="BG31">
         <v>10778437</v>
@@ -7393,16 +7153,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="BK31" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="BL31" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="BM31" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7422,25 +7182,25 @@
         <v>151</v>
       </c>
       <c r="F32">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="G32">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H32">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J32">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K32">
         <v>3.5</v>
       </c>
       <c r="L32">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="M32">
         <v>1.77</v>
@@ -7449,19 +7209,19 @@
         <v>2.3</v>
       </c>
       <c r="O32">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="P32">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="Q32">
+        <v>2.08</v>
+      </c>
+      <c r="R32">
+        <v>1.94</v>
+      </c>
+      <c r="S32">
         <v>2.14</v>
-      </c>
-      <c r="R32">
-        <v>1.89</v>
-      </c>
-      <c r="S32">
-        <v>2.1</v>
       </c>
       <c r="T32">
         <v>8.800000000000001</v>
@@ -7470,10 +7230,10 @@
         <v>11.5</v>
       </c>
       <c r="V32">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="W32">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="X32">
         <v>19</v>
@@ -7482,7 +7242,7 @@
         <v>980</v>
       </c>
       <c r="Z32">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA32">
         <v>980</v>
@@ -7503,10 +7263,10 @@
         <v>12.5</v>
       </c>
       <c r="AG32">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH32">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AI32">
         <v>980</v>
@@ -7524,61 +7284,61 @@
         <v>12.5</v>
       </c>
       <c r="AN32">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO32">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AP32">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AQ32">
         <v>980</v>
       </c>
       <c r="AR32">
-        <v>6.6</v>
+        <v>23</v>
       </c>
       <c r="AS32">
         <v>34</v>
       </c>
       <c r="AT32">
+        <v>20</v>
+      </c>
+      <c r="AU32">
+        <v>30</v>
+      </c>
+      <c r="AV32">
+        <v>8</v>
+      </c>
+      <c r="AW32">
+        <v>980</v>
+      </c>
+      <c r="AX32">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY32">
+        <v>980</v>
+      </c>
+      <c r="AZ32">
+        <v>6.4</v>
+      </c>
+      <c r="BA32">
+        <v>25</v>
+      </c>
+      <c r="BB32">
         <v>6.6</v>
       </c>
-      <c r="AU32">
-        <v>980</v>
-      </c>
-      <c r="AV32">
-        <v>7.2</v>
-      </c>
-      <c r="AW32">
-        <v>980</v>
-      </c>
-      <c r="AX32">
-        <v>7.8</v>
-      </c>
-      <c r="AY32">
-        <v>1000</v>
-      </c>
-      <c r="AZ32">
-        <v>3.7</v>
-      </c>
-      <c r="BA32">
-        <v>26</v>
-      </c>
-      <c r="BB32">
-        <v>2.6</v>
-      </c>
       <c r="BC32">
         <v>980</v>
       </c>
       <c r="BD32">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="BE32">
         <v>1000</v>
       </c>
       <c r="BF32" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="BG32">
         <v>1067444</v>
@@ -7590,16 +7350,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="BK32" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="BL32" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="BM32" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="202">
   <si>
     <t>League</t>
   </si>
@@ -472,21 +472,6 @@
     <t>Defensa y Justicia</t>
   </si>
   <si>
-    <t>33212435</t>
-  </si>
-  <si>
-    <t>33212752</t>
-  </si>
-  <si>
-    <t>33211950</t>
-  </si>
-  <si>
-    <t>33192994</t>
-  </si>
-  <si>
-    <t>33190498</t>
-  </si>
-  <si>
     <t>33187081</t>
   </si>
   <si>
@@ -517,21 +502,6 @@
     <t>33195620</t>
   </si>
   <si>
-    <t>1.227942858</t>
-  </si>
-  <si>
-    <t>1.227948067</t>
-  </si>
-  <si>
-    <t>1.227933432</t>
-  </si>
-  <si>
-    <t>1.227615492</t>
-  </si>
-  <si>
-    <t>1.227568341</t>
-  </si>
-  <si>
     <t>1.227507196</t>
   </si>
   <si>
@@ -562,21 +532,6 @@
     <t>1.227671641</t>
   </si>
   <si>
-    <t>1.227942868</t>
-  </si>
-  <si>
-    <t>1.227948112</t>
-  </si>
-  <si>
-    <t>1.227933477</t>
-  </si>
-  <si>
-    <t>1.227615502</t>
-  </si>
-  <si>
-    <t>1.227568280</t>
-  </si>
-  <si>
     <t>1.227507206</t>
   </si>
   <si>
@@ -607,21 +562,6 @@
     <t>1.227671625</t>
   </si>
   <si>
-    <t>1.227942857</t>
-  </si>
-  <si>
-    <t>1.227948151</t>
-  </si>
-  <si>
-    <t>1.227933516</t>
-  </si>
-  <si>
-    <t>1.227615491</t>
-  </si>
-  <si>
-    <t>1.227568340</t>
-  </si>
-  <si>
     <t>1.227507195</t>
   </si>
   <si>
@@ -650,21 +590,6 @@
   </si>
   <si>
     <t>1.227671640</t>
-  </si>
-  <si>
-    <t>1.227942867</t>
-  </si>
-  <si>
-    <t>1.227948076</t>
-  </si>
-  <si>
-    <t>1.227933441</t>
-  </si>
-  <si>
-    <t>1.227615501</t>
-  </si>
-  <si>
-    <t>1.227568351</t>
   </si>
   <si>
     <t>1.227507205</t>
@@ -4579,8 +4504,8 @@
       <c r="BE18">
         <v>980</v>
       </c>
-      <c r="BF18" t="s">
-        <v>152</v>
+      <c r="BF18">
+        <v>33212435</v>
       </c>
       <c r="BG18">
         <v>3247346</v>
@@ -4591,17 +4516,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>167</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>197</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>212</v>
+      <c r="BJ18">
+        <v>1.227942858</v>
+      </c>
+      <c r="BK18">
+        <v>1.227942868</v>
+      </c>
+      <c r="BL18">
+        <v>1.227942857</v>
+      </c>
+      <c r="BM18">
+        <v>1.227942867</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4776,8 +4701,8 @@
       <c r="BE19">
         <v>1000</v>
       </c>
-      <c r="BF19" t="s">
-        <v>153</v>
+      <c r="BF19">
+        <v>33212752</v>
       </c>
       <c r="BG19">
         <v>3351396</v>
@@ -4788,17 +4713,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>168</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>183</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>198</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>213</v>
+      <c r="BJ19">
+        <v>1.227948067</v>
+      </c>
+      <c r="BK19">
+        <v>1.227948112</v>
+      </c>
+      <c r="BL19">
+        <v>1.227948151</v>
+      </c>
+      <c r="BM19">
+        <v>1.227948076</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4973,8 +4898,8 @@
       <c r="BE20">
         <v>980</v>
       </c>
-      <c r="BF20" t="s">
-        <v>154</v>
+      <c r="BF20">
+        <v>33211950</v>
       </c>
       <c r="BG20">
         <v>2487036</v>
@@ -4985,17 +4910,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>169</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>214</v>
+      <c r="BJ20">
+        <v>1.227933432</v>
+      </c>
+      <c r="BK20">
+        <v>1.227933477</v>
+      </c>
+      <c r="BL20">
+        <v>1.227933516</v>
+      </c>
+      <c r="BM20">
+        <v>1.227933441</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5170,8 +5095,8 @@
       <c r="BE21">
         <v>980</v>
       </c>
-      <c r="BF21" t="s">
-        <v>155</v>
+      <c r="BF21">
+        <v>33192994</v>
       </c>
       <c r="BG21">
         <v>419123</v>
@@ -5182,17 +5107,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>185</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>215</v>
+      <c r="BJ21">
+        <v>1.227615492</v>
+      </c>
+      <c r="BK21">
+        <v>1.227615502</v>
+      </c>
+      <c r="BL21">
+        <v>1.227615491</v>
+      </c>
+      <c r="BM21">
+        <v>1.227615501</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5367,8 +5292,8 @@
       <c r="BE22">
         <v>280</v>
       </c>
-      <c r="BF22" t="s">
-        <v>156</v>
+      <c r="BF22">
+        <v>33190498</v>
       </c>
       <c r="BG22">
         <v>18567</v>
@@ -5379,17 +5304,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>171</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>201</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>216</v>
+      <c r="BJ22">
+        <v>1.227568341</v>
+      </c>
+      <c r="BK22">
+        <v>1.22756828</v>
+      </c>
+      <c r="BL22">
+        <v>1.22756834</v>
+      </c>
+      <c r="BM22">
+        <v>1.227568351</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5409,37 +5334,37 @@
         <v>142</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G23">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H23">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="I23">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="J23">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K23">
         <v>3.35</v>
       </c>
       <c r="L23">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="M23">
         <v>1.74</v>
       </c>
       <c r="N23">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O23">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="P23">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q23">
         <v>2.06</v>
@@ -5448,16 +5373,16 @@
         <v>1.94</v>
       </c>
       <c r="S23">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T23">
         <v>9.4</v>
       </c>
       <c r="U23">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V23">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="W23">
         <v>9.4</v>
@@ -5475,7 +5400,7 @@
         <v>42</v>
       </c>
       <c r="AB23">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC23">
         <v>10.5</v>
@@ -5511,19 +5436,19 @@
         <v>14.5</v>
       </c>
       <c r="AN23">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AP23">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AQ23">
         <v>55</v>
       </c>
       <c r="AR23">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AS23">
         <v>55</v>
@@ -5535,19 +5460,19 @@
         <v>980</v>
       </c>
       <c r="AV23">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AW23">
         <v>65</v>
       </c>
       <c r="AX23">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="AY23">
         <v>140</v>
       </c>
       <c r="AZ23">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="BA23">
         <v>42</v>
@@ -5559,13 +5484,13 @@
         <v>34</v>
       </c>
       <c r="BD23">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="BE23">
         <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="BG23">
         <v>335852</v>
@@ -5577,16 +5502,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK23" t="s">
         <v>172</v>
       </c>
-      <c r="BK23" t="s">
-        <v>187</v>
-      </c>
       <c r="BL23" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="BM23" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5606,25 +5531,25 @@
         <v>143</v>
       </c>
       <c r="F24">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G24">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H24">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J24">
         <v>3.55</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L24">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="M24">
         <v>1.8</v>
@@ -5633,7 +5558,7 @@
         <v>2.24</v>
       </c>
       <c r="O24">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P24">
         <v>2</v>
@@ -5642,7 +5567,7 @@
         <v>2.1</v>
       </c>
       <c r="R24">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
         <v>2</v>
@@ -5696,10 +5621,10 @@
         <v>24</v>
       </c>
       <c r="AJ24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL24">
         <v>16</v>
@@ -5714,13 +5639,13 @@
         <v>22</v>
       </c>
       <c r="AP24">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AQ24">
         <v>46</v>
       </c>
       <c r="AR24">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS24">
         <v>100</v>
@@ -5729,16 +5654,16 @@
         <v>44</v>
       </c>
       <c r="AU24">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AV24">
         <v>50</v>
       </c>
       <c r="AW24">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AX24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY24">
         <v>140</v>
@@ -5747,22 +5672,22 @@
         <v>16.5</v>
       </c>
       <c r="BA24">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB24">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="BC24">
         <v>19</v>
       </c>
       <c r="BD24">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="BG24">
         <v>5129865</v>
@@ -5774,16 +5699,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK24" t="s">
         <v>173</v>
       </c>
-      <c r="BK24" t="s">
-        <v>188</v>
-      </c>
       <c r="BL24" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="BM24" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -5803,34 +5728,34 @@
         <v>144</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G25">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H25">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I25">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J25">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K25">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L25">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="M25">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="N25">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O25">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="P25">
         <v>2.1</v>
@@ -5848,118 +5773,118 @@
         <v>11</v>
       </c>
       <c r="U25">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="V25">
         <v>6.8</v>
       </c>
       <c r="W25">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="X25">
         <v>8.199999999999999</v>
       </c>
       <c r="Y25">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z25">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA25">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AB25">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC25">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD25">
         <v>8.199999999999999</v>
       </c>
       <c r="AE25">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AF25">
         <v>9.4</v>
       </c>
       <c r="AG25">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH25">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI25">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ25">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AK25">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN25">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP25">
-        <v>7.2</v>
+        <v>36</v>
       </c>
       <c r="AQ25">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AR25">
-        <v>8.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="AS25">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AT25">
-        <v>7.8</v>
+        <v>18.5</v>
       </c>
       <c r="AU25">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AV25">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="AW25">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AX25">
-        <v>8.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="AY25">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AZ25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BA25">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="BB25">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="BC25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD25">
-        <v>8.4</v>
+        <v>20</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="BG25">
         <v>8761113</v>
@@ -5971,16 +5896,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK25" t="s">
         <v>174</v>
       </c>
-      <c r="BK25" t="s">
-        <v>189</v>
-      </c>
       <c r="BL25" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="BM25" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6000,46 +5925,46 @@
         <v>145</v>
       </c>
       <c r="F26">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G26">
         <v>2.38</v>
       </c>
       <c r="H26">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I26">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K26">
         <v>3.45</v>
       </c>
       <c r="L26">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="M26">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="N26">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="O26">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="P26">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q26">
         <v>2.12</v>
       </c>
       <c r="R26">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T26">
         <v>8.4</v>
@@ -6051,19 +5976,19 @@
         <v>9.6</v>
       </c>
       <c r="W26">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X26">
         <v>20</v>
       </c>
       <c r="Y26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z26">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AA26">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB26">
         <v>7.4</v>
@@ -6081,13 +6006,13 @@
         <v>14</v>
       </c>
       <c r="AG26">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH26">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AI26">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ26">
         <v>11</v>
@@ -6105,13 +6030,13 @@
         <v>18</v>
       </c>
       <c r="AO26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP26">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AQ26">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR26">
         <v>24</v>
@@ -6126,37 +6051,37 @@
         <v>32</v>
       </c>
       <c r="AV26">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AW26">
         <v>55</v>
       </c>
       <c r="AX26">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AY26">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AZ26">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="BA26">
         <v>27</v>
       </c>
       <c r="BB26">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BC26">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BD26">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="BG26">
         <v>1370433</v>
@@ -6168,16 +6093,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK26" t="s">
         <v>175</v>
       </c>
-      <c r="BK26" t="s">
-        <v>190</v>
-      </c>
       <c r="BL26" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="BM26" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6197,16 +6122,16 @@
         <v>146</v>
       </c>
       <c r="F27">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H27">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I27">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J27">
         <v>3.3</v>
@@ -6215,10 +6140,10 @@
         <v>3.4</v>
       </c>
       <c r="L27">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="M27">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="N27">
         <v>2.26</v>
@@ -6242,13 +6167,13 @@
         <v>10</v>
       </c>
       <c r="U27">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V27">
         <v>8.4</v>
       </c>
       <c r="W27">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X27">
         <v>12.5</v>
@@ -6260,7 +6185,7 @@
         <v>29</v>
       </c>
       <c r="AA27">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB27">
         <v>10.5</v>
@@ -6290,7 +6215,7 @@
         <v>20</v>
       </c>
       <c r="AK27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL27">
         <v>13.5</v>
@@ -6317,28 +6242,28 @@
         <v>65</v>
       </c>
       <c r="AT27">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AU27">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV27">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AW27">
         <v>60</v>
       </c>
       <c r="AX27">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AY27">
         <v>130</v>
       </c>
       <c r="AZ27">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BA27">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BB27">
         <v>22</v>
@@ -6353,7 +6278,7 @@
         <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="BG27">
         <v>13749040</v>
@@ -6365,16 +6290,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK27" t="s">
         <v>176</v>
       </c>
-      <c r="BK27" t="s">
-        <v>191</v>
-      </c>
       <c r="BL27" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="BM27" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6403,7 +6328,7 @@
         <v>2.62</v>
       </c>
       <c r="I28">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J28">
         <v>3.2</v>
@@ -6430,10 +6355,10 @@
         <v>2.08</v>
       </c>
       <c r="R28">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S28">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T28">
         <v>9.199999999999999</v>
@@ -6445,22 +6370,22 @@
         <v>8.4</v>
       </c>
       <c r="W28">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X28">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y28">
         <v>15.5</v>
       </c>
       <c r="Z28">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA28">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB28">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC28">
         <v>10.5</v>
@@ -6481,10 +6406,10 @@
         <v>29</v>
       </c>
       <c r="AI28">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ28">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK28">
         <v>20</v>
@@ -6493,7 +6418,7 @@
         <v>12.5</v>
       </c>
       <c r="AM28">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN28">
         <v>18.5</v>
@@ -6511,7 +6436,7 @@
         <v>40</v>
       </c>
       <c r="AS28">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AT28">
         <v>36</v>
@@ -6526,7 +6451,7 @@
         <v>65</v>
       </c>
       <c r="AX28">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY28">
         <v>140</v>
@@ -6535,22 +6460,22 @@
         <v>32</v>
       </c>
       <c r="BA28">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BB28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC28">
         <v>32</v>
       </c>
       <c r="BD28">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BG28">
         <v>5129869</v>
@@ -6562,16 +6487,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
+        <v>167</v>
+      </c>
+      <c r="BK28" t="s">
         <v>177</v>
       </c>
-      <c r="BK28" t="s">
-        <v>192</v>
-      </c>
       <c r="BL28" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="BM28" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6591,46 +6516,46 @@
         <v>148</v>
       </c>
       <c r="F29">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G29">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H29">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="I29">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J29">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K29">
         <v>6.2</v>
       </c>
       <c r="L29">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="M29">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="N29">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="O29">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="P29">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="Q29">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="T29">
         <v>17.5</v>
@@ -6639,25 +6564,25 @@
         <v>19.5</v>
       </c>
       <c r="V29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W29">
         <v>38</v>
       </c>
       <c r="X29">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y29">
         <v>120</v>
       </c>
       <c r="Z29">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA29">
-        <v>980</v>
+        <v>720</v>
       </c>
       <c r="AB29">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC29">
         <v>8.800000000000001</v>
@@ -6672,16 +6597,16 @@
         <v>36</v>
       </c>
       <c r="AG29">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH29">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI29">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="AJ29">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AK29">
         <v>8</v>
@@ -6690,22 +6615,22 @@
         <v>9.6</v>
       </c>
       <c r="AM29">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AN29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO29">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AP29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ29">
         <v>980</v>
       </c>
       <c r="AR29">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AS29">
         <v>11</v>
@@ -6723,31 +6648,31 @@
         <v>44</v>
       </c>
       <c r="AX29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY29">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="AZ29">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="BA29">
         <v>5.6</v>
       </c>
       <c r="BB29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC29">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="BD29">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="BE29">
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="BG29">
         <v>12198533</v>
@@ -6759,16 +6684,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK29" t="s">
         <v>178</v>
       </c>
-      <c r="BK29" t="s">
-        <v>193</v>
-      </c>
       <c r="BL29" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="BM29" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -6788,43 +6713,43 @@
         <v>149</v>
       </c>
       <c r="F30">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G30">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H30">
         <v>4.3</v>
       </c>
       <c r="I30">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J30">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K30">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L30">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M30">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="N30">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="O30">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="P30">
         <v>2.1</v>
       </c>
       <c r="Q30">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R30">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S30">
         <v>1.91</v>
@@ -6839,7 +6764,7 @@
         <v>11.5</v>
       </c>
       <c r="W30">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X30">
         <v>27</v>
@@ -6851,7 +6776,7 @@
         <v>16</v>
       </c>
       <c r="AA30">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AB30">
         <v>6.6</v>
@@ -6869,7 +6794,7 @@
         <v>17</v>
       </c>
       <c r="AG30">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH30">
         <v>48</v>
@@ -6893,7 +6818,7 @@
         <v>21</v>
       </c>
       <c r="AO30">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AP30">
         <v>15.5</v>
@@ -6902,7 +6827,7 @@
         <v>100</v>
       </c>
       <c r="AR30">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS30">
         <v>24</v>
@@ -6926,16 +6851,16 @@
         <v>210</v>
       </c>
       <c r="AZ30">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="BA30">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BB30">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BC30">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BD30">
         <v>19</v>
@@ -6944,7 +6869,7 @@
         <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="BG30">
         <v>5287007</v>
@@ -6956,16 +6881,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK30" t="s">
         <v>179</v>
       </c>
-      <c r="BK30" t="s">
-        <v>194</v>
-      </c>
       <c r="BL30" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="BM30" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -6988,70 +6913,70 @@
         <v>4.1</v>
       </c>
       <c r="G31">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H31">
         <v>2.1</v>
       </c>
       <c r="I31">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J31">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K31">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L31">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M31">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="N31">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="O31">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="P31">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q31">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R31">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T31">
         <v>8.800000000000001</v>
       </c>
       <c r="U31">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V31">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="W31">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="X31">
         <v>10.5</v>
       </c>
       <c r="Y31">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC31">
         <v>12.5</v>
@@ -7060,7 +6985,7 @@
         <v>7</v>
       </c>
       <c r="AE31">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF31">
         <v>10</v>
@@ -7072,13 +6997,13 @@
         <v>24</v>
       </c>
       <c r="AI31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ31">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL31">
         <v>16</v>
@@ -7087,61 +7012,61 @@
         <v>18</v>
       </c>
       <c r="AN31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP31">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ31">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR31">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="AS31">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AT31">
         <v>48</v>
       </c>
       <c r="AU31">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AV31">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AW31">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AX31">
+        <v>12.5</v>
+      </c>
+      <c r="AY31">
+        <v>180</v>
+      </c>
+      <c r="AZ31">
         <v>11.5</v>
       </c>
-      <c r="AY31">
-        <v>170</v>
-      </c>
-      <c r="AZ31">
-        <v>11</v>
-      </c>
       <c r="BA31">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="BB31">
-        <v>8.4</v>
+        <v>17.5</v>
       </c>
       <c r="BC31">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD31">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BG31">
         <v>10778437</v>
@@ -7153,16 +7078,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
+        <v>170</v>
+      </c>
+      <c r="BK31" t="s">
         <v>180</v>
       </c>
-      <c r="BK31" t="s">
-        <v>195</v>
-      </c>
       <c r="BL31" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="BM31" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7185,43 +7110,43 @@
         <v>2.3</v>
       </c>
       <c r="G32">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H32">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I32">
         <v>3.8</v>
       </c>
       <c r="J32">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K32">
         <v>3.5</v>
       </c>
       <c r="L32">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="M32">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="P32">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q32">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R32">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T32">
         <v>8.800000000000001</v>
@@ -7266,7 +7191,7 @@
         <v>17</v>
       </c>
       <c r="AH32">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AI32">
         <v>980</v>
@@ -7308,7 +7233,7 @@
         <v>30</v>
       </c>
       <c r="AV32">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AW32">
         <v>980</v>
@@ -7338,7 +7263,7 @@
         <v>1000</v>
       </c>
       <c r="BF32" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="BG32">
         <v>1067444</v>
@@ -7350,16 +7275,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
+        <v>171</v>
+      </c>
+      <c r="BK32" t="s">
         <v>181</v>
       </c>
-      <c r="BK32" t="s">
-        <v>196</v>
-      </c>
       <c r="BL32" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="BM32" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="162">
   <si>
     <t>League</t>
   </si>
@@ -472,148 +472,28 @@
     <t>Defensa y Justicia</t>
   </si>
   <si>
-    <t>33187081</t>
-  </si>
-  <si>
-    <t>33188039</t>
-  </si>
-  <si>
-    <t>33195594</t>
-  </si>
-  <si>
-    <t>33195613</t>
-  </si>
-  <si>
-    <t>33187097</t>
-  </si>
-  <si>
-    <t>33189860</t>
-  </si>
-  <si>
-    <t>33195614</t>
-  </si>
-  <si>
-    <t>33195533</t>
-  </si>
-  <si>
     <t>33195618</t>
   </si>
   <si>
     <t>33195620</t>
   </si>
   <si>
-    <t>1.227507196</t>
-  </si>
-  <si>
-    <t>1.227519544</t>
-  </si>
-  <si>
-    <t>1.227671280</t>
-  </si>
-  <si>
-    <t>1.227671160</t>
-  </si>
-  <si>
-    <t>1.227507412</t>
-  </si>
-  <si>
-    <t>1.227547342</t>
-  </si>
-  <si>
-    <t>1.227671400</t>
-  </si>
-  <si>
-    <t>1.227671521</t>
-  </si>
-  <si>
     <t>1.227671761</t>
   </si>
   <si>
     <t>1.227671641</t>
   </si>
   <si>
-    <t>1.227507206</t>
-  </si>
-  <si>
-    <t>1.227519554</t>
-  </si>
-  <si>
-    <t>1.227671264</t>
-  </si>
-  <si>
-    <t>1.227671144</t>
-  </si>
-  <si>
-    <t>1.227507422</t>
-  </si>
-  <si>
-    <t>1.227547352</t>
-  </si>
-  <si>
-    <t>1.227671384</t>
-  </si>
-  <si>
-    <t>1.227671505</t>
-  </si>
-  <si>
     <t>1.227671745</t>
   </si>
   <si>
     <t>1.227671625</t>
   </si>
   <si>
-    <t>1.227507195</t>
-  </si>
-  <si>
-    <t>1.227519543</t>
-  </si>
-  <si>
-    <t>1.227671279</t>
-  </si>
-  <si>
-    <t>1.227671159</t>
-  </si>
-  <si>
-    <t>1.227507411</t>
-  </si>
-  <si>
-    <t>1.227547341</t>
-  </si>
-  <si>
-    <t>1.227671399</t>
-  </si>
-  <si>
-    <t>1.227671520</t>
-  </si>
-  <si>
     <t>1.227671760</t>
   </si>
   <si>
     <t>1.227671640</t>
-  </si>
-  <si>
-    <t>1.227507205</t>
-  </si>
-  <si>
-    <t>1.227519553</t>
-  </si>
-  <si>
-    <t>1.227671289</t>
-  </si>
-  <si>
-    <t>1.227671169</t>
-  </si>
-  <si>
-    <t>1.227507421</t>
-  </si>
-  <si>
-    <t>1.227547351</t>
-  </si>
-  <si>
-    <t>1.227671409</t>
-  </si>
-  <si>
-    <t>1.227671530</t>
   </si>
   <si>
     <t>1.227671770</t>
@@ -5489,8 +5369,8 @@
       <c r="BE23">
         <v>1000</v>
       </c>
-      <c r="BF23" t="s">
-        <v>152</v>
+      <c r="BF23">
+        <v>33187081</v>
       </c>
       <c r="BG23">
         <v>335852</v>
@@ -5501,17 +5381,17 @@
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>172</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>192</v>
+      <c r="BJ23">
+        <v>1.227507196</v>
+      </c>
+      <c r="BK23">
+        <v>1.227507206</v>
+      </c>
+      <c r="BL23">
+        <v>1.227507195</v>
+      </c>
+      <c r="BM23">
+        <v>1.227507205</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5686,8 +5566,8 @@
       <c r="BE24">
         <v>1000</v>
       </c>
-      <c r="BF24" t="s">
-        <v>153</v>
+      <c r="BF24">
+        <v>33188039</v>
       </c>
       <c r="BG24">
         <v>5129865</v>
@@ -5698,17 +5578,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>163</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>173</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>193</v>
+      <c r="BJ24">
+        <v>1.227519544</v>
+      </c>
+      <c r="BK24">
+        <v>1.227519554</v>
+      </c>
+      <c r="BL24">
+        <v>1.227519543</v>
+      </c>
+      <c r="BM24">
+        <v>1.227519553</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -5883,8 +5763,8 @@
       <c r="BE25">
         <v>1000</v>
       </c>
-      <c r="BF25" t="s">
-        <v>154</v>
+      <c r="BF25">
+        <v>33195594</v>
       </c>
       <c r="BG25">
         <v>8761113</v>
@@ -5895,17 +5775,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>164</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>174</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>194</v>
+      <c r="BJ25">
+        <v>1.22767128</v>
+      </c>
+      <c r="BK25">
+        <v>1.227671264</v>
+      </c>
+      <c r="BL25">
+        <v>1.227671279</v>
+      </c>
+      <c r="BM25">
+        <v>1.227671289</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6080,8 +5960,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>155</v>
+      <c r="BF26">
+        <v>33195613</v>
       </c>
       <c r="BG26">
         <v>1370433</v>
@@ -6092,17 +5972,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>165</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>175</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>185</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>195</v>
+      <c r="BJ26">
+        <v>1.22767116</v>
+      </c>
+      <c r="BK26">
+        <v>1.227671144</v>
+      </c>
+      <c r="BL26">
+        <v>1.227671159</v>
+      </c>
+      <c r="BM26">
+        <v>1.227671169</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6277,8 +6157,8 @@
       <c r="BE27">
         <v>1000</v>
       </c>
-      <c r="BF27" t="s">
-        <v>156</v>
+      <c r="BF27">
+        <v>33187097</v>
       </c>
       <c r="BG27">
         <v>13749040</v>
@@ -6289,17 +6169,17 @@
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>166</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>186</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>196</v>
+      <c r="BJ27">
+        <v>1.227507412</v>
+      </c>
+      <c r="BK27">
+        <v>1.227507422</v>
+      </c>
+      <c r="BL27">
+        <v>1.227507411</v>
+      </c>
+      <c r="BM27">
+        <v>1.227507421</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6474,8 +6354,8 @@
       <c r="BE28">
         <v>1000</v>
       </c>
-      <c r="BF28" t="s">
-        <v>157</v>
+      <c r="BF28">
+        <v>33189860</v>
       </c>
       <c r="BG28">
         <v>5129869</v>
@@ -6486,17 +6366,17 @@
       <c r="BI28">
         <v>58805</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>167</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>177</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>187</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>197</v>
+      <c r="BJ28">
+        <v>1.227547342</v>
+      </c>
+      <c r="BK28">
+        <v>1.227547352</v>
+      </c>
+      <c r="BL28">
+        <v>1.227547341</v>
+      </c>
+      <c r="BM28">
+        <v>1.227547351</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6671,8 +6551,8 @@
       <c r="BE29">
         <v>1000</v>
       </c>
-      <c r="BF29" t="s">
-        <v>158</v>
+      <c r="BF29">
+        <v>33195614</v>
       </c>
       <c r="BG29">
         <v>12198533</v>
@@ -6683,17 +6563,17 @@
       <c r="BI29">
         <v>58805</v>
       </c>
-      <c r="BJ29" t="s">
-        <v>168</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>178</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>188</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>198</v>
+      <c r="BJ29">
+        <v>1.2276714</v>
+      </c>
+      <c r="BK29">
+        <v>1.227671384</v>
+      </c>
+      <c r="BL29">
+        <v>1.227671399</v>
+      </c>
+      <c r="BM29">
+        <v>1.227671409</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -6868,8 +6748,8 @@
       <c r="BE30">
         <v>1000</v>
       </c>
-      <c r="BF30" t="s">
-        <v>159</v>
+      <c r="BF30">
+        <v>33195533</v>
       </c>
       <c r="BG30">
         <v>5287007</v>
@@ -6880,17 +6760,17 @@
       <c r="BI30">
         <v>58805</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>169</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>179</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>199</v>
+      <c r="BJ30">
+        <v>1.227671521</v>
+      </c>
+      <c r="BK30">
+        <v>1.227671505</v>
+      </c>
+      <c r="BL30">
+        <v>1.22767152</v>
+      </c>
+      <c r="BM30">
+        <v>1.22767153</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -6910,25 +6790,25 @@
         <v>150</v>
       </c>
       <c r="F31">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G31">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H31">
         <v>2.1</v>
       </c>
       <c r="I31">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K31">
         <v>3.5</v>
       </c>
       <c r="L31">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M31">
         <v>1.7</v>
@@ -6937,25 +6817,25 @@
         <v>2.42</v>
       </c>
       <c r="O31">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="P31">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q31">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R31">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="T31">
         <v>8.800000000000001</v>
       </c>
       <c r="U31">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="V31">
         <v>6.8</v>
@@ -7000,7 +6880,7 @@
         <v>27</v>
       </c>
       <c r="AJ31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK31">
         <v>29</v>
@@ -7009,7 +6889,7 @@
         <v>16</v>
       </c>
       <c r="AM31">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN31">
         <v>21</v>
@@ -7018,16 +6898,16 @@
         <v>24</v>
       </c>
       <c r="AP31">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AQ31">
         <v>55</v>
       </c>
       <c r="AR31">
-        <v>46</v>
+        <v>12.5</v>
       </c>
       <c r="AS31">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AT31">
         <v>48</v>
@@ -7036,22 +6916,22 @@
         <v>70</v>
       </c>
       <c r="AV31">
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="AW31">
         <v>980</v>
       </c>
       <c r="AX31">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY31">
         <v>180</v>
       </c>
       <c r="AZ31">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BA31">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="BB31">
         <v>17.5</v>
@@ -7060,13 +6940,13 @@
         <v>23</v>
       </c>
       <c r="BD31">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="BG31">
         <v>10778437</v>
@@ -7078,16 +6958,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="BK31" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="BL31" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="BM31" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7107,82 +6987,82 @@
         <v>151</v>
       </c>
       <c r="F32">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G32">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H32">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I32">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J32">
         <v>3.25</v>
       </c>
       <c r="K32">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L32">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="M32">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O32">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="P32">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q32">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S32">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T32">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="U32">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="V32">
         <v>10</v>
       </c>
       <c r="W32">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X32">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y32">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z32">
+        <v>6.2</v>
+      </c>
+      <c r="AA32">
+        <v>75</v>
+      </c>
+      <c r="AB32">
         <v>7.8</v>
       </c>
-      <c r="AA32">
-        <v>980</v>
-      </c>
-      <c r="AB32">
-        <v>7.6</v>
-      </c>
       <c r="AC32">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD32">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE32">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AF32">
         <v>12.5</v>
@@ -7191,22 +7071,22 @@
         <v>17</v>
       </c>
       <c r="AH32">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AI32">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK32">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL32">
         <v>9.6</v>
       </c>
       <c r="AM32">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN32">
         <v>17.5</v>
@@ -7215,10 +7095,10 @@
         <v>22</v>
       </c>
       <c r="AP32">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AQ32">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AR32">
         <v>23</v>
@@ -7233,37 +7113,37 @@
         <v>30</v>
       </c>
       <c r="AV32">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AW32">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AX32">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AY32">
         <v>980</v>
       </c>
       <c r="AZ32">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="BA32">
         <v>25</v>
       </c>
       <c r="BB32">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC32">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BD32">
-        <v>8.6</v>
+        <v>24</v>
       </c>
       <c r="BE32">
         <v>1000</v>
       </c>
       <c r="BF32" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="BG32">
         <v>1067444</v>
@@ -7275,16 +7155,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="BK32" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="BL32" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="BM32" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="152">
   <si>
     <t>League</t>
   </si>
@@ -470,36 +470,6 @@
   </si>
   <si>
     <t>Defensa y Justicia</t>
-  </si>
-  <si>
-    <t>33195618</t>
-  </si>
-  <si>
-    <t>33195620</t>
-  </si>
-  <si>
-    <t>1.227671761</t>
-  </si>
-  <si>
-    <t>1.227671641</t>
-  </si>
-  <si>
-    <t>1.227671745</t>
-  </si>
-  <si>
-    <t>1.227671625</t>
-  </si>
-  <si>
-    <t>1.227671760</t>
-  </si>
-  <si>
-    <t>1.227671640</t>
-  </si>
-  <si>
-    <t>1.227671770</t>
-  </si>
-  <si>
-    <t>1.227671650</t>
   </si>
 </sst>
 </file>
@@ -6945,8 +6915,8 @@
       <c r="BE31">
         <v>1000</v>
       </c>
-      <c r="BF31" t="s">
-        <v>152</v>
+      <c r="BF31">
+        <v>33195618</v>
       </c>
       <c r="BG31">
         <v>10778437</v>
@@ -6957,17 +6927,17 @@
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>156</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>158</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>160</v>
+      <c r="BJ31">
+        <v>1.227671761</v>
+      </c>
+      <c r="BK31">
+        <v>1.227671745</v>
+      </c>
+      <c r="BL31">
+        <v>1.22767176</v>
+      </c>
+      <c r="BM31">
+        <v>1.22767177</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7142,8 +7112,8 @@
       <c r="BE32">
         <v>1000</v>
       </c>
-      <c r="BF32" t="s">
-        <v>153</v>
+      <c r="BF32">
+        <v>33195620</v>
       </c>
       <c r="BG32">
         <v>1067444</v>
@@ -7154,17 +7124,17 @@
       <c r="BI32">
         <v>58805</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>155</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>157</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>161</v>
+      <c r="BJ32">
+        <v>1.227671641</v>
+      </c>
+      <c r="BK32">
+        <v>1.227671625</v>
+      </c>
+      <c r="BL32">
+        <v>1.22767164</v>
+      </c>
+      <c r="BM32">
+        <v>1.22767165</v>
       </c>
     </row>
   </sheetData>
